--- a/docs/Cases.xlsx
+++ b/docs/Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\education\education_QA\diplom QA\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\education\education_QA\diplom_QA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7292290-C78B-4366-A270-1E9D26027F6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96414CC-4845-4809-A1F7-18AE5917E5F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="141">
   <si>
     <t>ID</t>
   </si>
@@ -447,13 +447,16 @@
   </si>
   <si>
     <t>На данный момент не представляю как буду проводить проверку результата. Возможно в процессе написания кода я изменю решение.</t>
+  </si>
+  <si>
+    <t>Возникли сложности</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,12 +468,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -712,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -759,6 +756,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -769,115 +872,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,7 +961,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1076,7 +1072,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912D6FB4-A4FB-4239-A8FB-123EC0E0B480}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1143,7 +1139,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0946A99-C8D6-441B-9AF6-5E4A9D77DAB3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1210,7 +1206,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED4C324-56E8-42C9-888E-EFA747077177}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1277,7 +1273,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B90A42-F362-4BEC-B812-391365D85958}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1344,7 +1340,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8CC87E-3F78-4EF7-9FCD-BE8DCCAF6A22}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1411,7 +1407,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4AF69E3-3F43-4501-8241-4FF316A7B83D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1478,7 +1474,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE2EE0D-9095-42AE-AB72-1ABBC86C7B37}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1545,7 +1541,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3CBAF9-2E8D-4FAC-AF44-113A2B065237}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1612,7 +1608,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84A2E11-BEDB-4A08-905C-4E71F662B8D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1679,7 +1675,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB314034-53FA-4E00-8833-3F1CC57DFC21}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1746,7 +1742,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD6D7A08-AC2C-4833-8A52-D5177E87BA05}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1813,7 +1809,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B56FB2-7D5B-4650-9DFB-500DCEEE6A42}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1880,7 +1876,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A206BC41-4B65-4B88-B155-69DBD349626C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1947,7 +1943,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B85A372-11ED-4E37-9F8D-7A2BBE446225}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2014,7 +2010,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FB1AC2-2A3E-4D2C-B19F-55E2F4DD58F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2081,7 +2077,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF58447B-C219-4357-B10E-64DAF0828941}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2148,7 +2144,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F820ADA-8E4A-46D0-A12A-12803868EAF6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2215,7 +2211,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A3B03B-E16D-46EC-820E-84388F5E21FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2282,7 +2278,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6094BF09-F3D4-4B50-84B5-730F15D009EC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2349,7 +2345,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165B4BBE-0D4C-4844-91F6-7D335F79AB5B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2416,7 +2412,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5ECAAD-9EA9-47A6-9AA4-B52822A7DAC2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2729,7 +2725,7 @@
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54:I66"/>
+      <selection activeCell="I18" sqref="I18:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,7 +2737,7 @@
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="50" customWidth="1"/>
     <col min="7" max="7" width="112.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2764,1877 +2760,2015 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="28" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="55"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="33" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="56"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="23"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="57"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="36">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="22" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="55"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="23"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="56"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="23"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="56"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="6"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="57"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="36">
         <v>3</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="22" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="55"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="56"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="23"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="56"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="6"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="57"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="36">
         <v>4</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="22" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="55"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="23"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="56"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="56"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="57"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="36">
         <v>5</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="22" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="55"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="29" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="33" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="56"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="23"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="56"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="56"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="56"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="33" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="56"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="25"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="56"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="25"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="57"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="52">
         <v>6</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="18" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="54" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="55"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="56"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="19"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="56"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="19"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="55"/>
       <c r="F29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="50"/>
-      <c r="I29" s="56"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="19"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="55"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="57"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
+      <c r="A31" s="46">
         <v>7</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="28" t="s">
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="48" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="55"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="29"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="50"/>
-      <c r="I32" s="56"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="29"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="49"/>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="50"/>
-      <c r="I33" s="56"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="29"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="50"/>
-      <c r="I34" s="56"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="29"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="49"/>
       <c r="F35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="40" t="s">
+      <c r="G35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="50"/>
-      <c r="I35" s="56"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="29"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="57"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="36">
         <v>8</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="22" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="55"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="23"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="40" t="s">
+      <c r="G38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="50"/>
-      <c r="I38" s="56"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="23"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="40" t="s">
+      <c r="G39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="50"/>
-      <c r="I39" s="56"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="25"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="40"/>
       <c r="F40" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="40" t="s">
+      <c r="G40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="50"/>
-      <c r="I40" s="56"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="25"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="40" t="s">
+      <c r="G41" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="50"/>
-      <c r="I41" s="56"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="25"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G42" s="40" t="s">
+      <c r="G42" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="50"/>
-      <c r="I42" s="56"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="25"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="40" t="s">
+      <c r="G43" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="50"/>
-      <c r="I43" s="56"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="25"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="57"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
+      <c r="A45" s="36">
         <v>9</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="22"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="45" t="s">
+      <c r="G45" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="49"/>
-      <c r="I45" s="55"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="29"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="23"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G46" s="40" t="s">
+      <c r="G46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H46" s="50"/>
-      <c r="I46" s="56"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="23"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="57"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
+      <c r="A48" s="36">
         <v>10</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="22"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="45" t="s">
+      <c r="G48" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="49"/>
-      <c r="I48" s="55"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="29"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="23"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="40" t="s">
+      <c r="G49" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="50"/>
-      <c r="I49" s="56"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="23"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="39"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="57"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
+      <c r="A51" s="36">
         <v>11</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="22" t="s">
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G51" s="45" t="s">
+      <c r="G51" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="49"/>
-      <c r="I51" s="55" t="s">
+      <c r="H51" s="32"/>
+      <c r="I51" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="23"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="39"/>
       <c r="F52" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G52" s="45" t="s">
+      <c r="G52" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="50"/>
-      <c r="I52" s="56"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="23"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="39"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="57"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="31"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
+      <c r="A54" s="36">
         <v>12</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="22" t="s">
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G54" s="45"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="55"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="29"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="23"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="39"/>
       <c r="F55" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G55" s="40" t="s">
+      <c r="G55" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H55" s="50"/>
-      <c r="I55" s="56"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="23"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="39"/>
       <c r="F56" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G56" s="40" t="s">
+      <c r="G56" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="50"/>
-      <c r="I56" s="56"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="30"/>
     </row>
     <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="23"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="39"/>
       <c r="F57" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="50"/>
-      <c r="I57" s="56"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="23"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="39"/>
       <c r="F58" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G58" s="40" t="s">
+      <c r="G58" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="50"/>
-      <c r="I58" s="56"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="30"/>
     </row>
     <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="25"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G59" s="40" t="s">
+      <c r="G59" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H59" s="50"/>
-      <c r="I59" s="56"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="30"/>
     </row>
     <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="25"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="40"/>
       <c r="F60" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G60" s="40" t="s">
+      <c r="G60" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="50"/>
-      <c r="I60" s="56"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="30"/>
     </row>
     <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="25"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="40"/>
       <c r="F61" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="40" t="s">
+      <c r="G61" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H61" s="50"/>
-      <c r="I61" s="56"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="30"/>
     </row>
     <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="25"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="40"/>
       <c r="F62" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G62" s="40" t="s">
+      <c r="G62" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H62" s="50"/>
-      <c r="I62" s="56"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="30"/>
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="25"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G63" s="40" t="s">
+      <c r="G63" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H63" s="50"/>
-      <c r="I63" s="56"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="30"/>
     </row>
     <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="25"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="40"/>
       <c r="F64" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G64" s="40" t="s">
+      <c r="G64" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H64" s="50"/>
-      <c r="I64" s="56"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="30"/>
     </row>
     <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="25"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="40"/>
       <c r="F65" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G65" s="40" t="s">
+      <c r="G65" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H65" s="50"/>
-      <c r="I65" s="56"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="30"/>
     </row>
     <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="25"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="40"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="57"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="31"/>
     </row>
     <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20">
+      <c r="A67" s="36">
         <v>13</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="22" t="s">
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G67" s="45"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="55" t="s">
+      <c r="G67" s="24"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="23"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="39"/>
       <c r="F68" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="45" t="s">
+      <c r="G68" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H68" s="50"/>
-      <c r="I68" s="56"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="23"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="39"/>
       <c r="F69" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="45" t="s">
+      <c r="G69" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H69" s="50"/>
-      <c r="I69" s="56"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="23"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="39"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="57"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="31"/>
     </row>
     <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20">
+      <c r="A71" s="36">
         <v>14</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="22" t="s">
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G71" s="45"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="55"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="29"/>
     </row>
     <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="23"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="39"/>
       <c r="F72" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G72" s="40" t="s">
+      <c r="G72" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H72" s="50"/>
-      <c r="I72" s="56"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="23"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="39"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="57"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="31"/>
     </row>
     <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20">
+      <c r="A74" s="36">
         <v>15</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="22" t="s">
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G74" s="45"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="55"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="29"/>
     </row>
     <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="23"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="39"/>
       <c r="F75" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G75" s="40" t="s">
+      <c r="G75" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H75" s="50"/>
-      <c r="I75" s="56"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="30"/>
     </row>
     <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="23"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="39"/>
       <c r="F76" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G76" s="40"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="56"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="30"/>
     </row>
     <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="23"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="39"/>
       <c r="F77" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G77" s="40"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="56"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="30"/>
     </row>
     <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="23"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="39"/>
       <c r="F78" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G78" s="46"/>
-      <c r="H78" s="50"/>
-      <c r="I78" s="56"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="30"/>
     </row>
     <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="25"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="40"/>
       <c r="F79" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G79" s="43"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="56"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="30"/>
     </row>
     <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="25"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="40"/>
       <c r="F80" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G80" s="43" t="s">
+      <c r="G80" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H80" s="50"/>
-      <c r="I80" s="56"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="30"/>
     </row>
     <row r="81" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="25"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="40"/>
       <c r="F81" s="10"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="57"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="31"/>
     </row>
     <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20">
+      <c r="A82" s="36">
         <v>16</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="22" t="s">
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G82" s="45"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="55"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="29"/>
     </row>
     <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="23"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="39"/>
       <c r="F83" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G83" s="40"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="56"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="23"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="39"/>
       <c r="F84" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G84" s="40"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="56"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="30"/>
     </row>
     <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="23"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="39"/>
       <c r="F85" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G85" s="46" t="s">
+      <c r="G85" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H85" s="50"/>
-      <c r="I85" s="56"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="25"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="40"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="57"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="31"/>
     </row>
     <row r="87" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20">
+      <c r="A87" s="36">
         <v>17</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="24" t="s">
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="56" t="s">
         <v>47</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G87" s="40"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="55"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="29"/>
     </row>
     <row r="88" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="23"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="39"/>
       <c r="F88" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G88" s="45"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="56"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="30"/>
     </row>
     <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="23"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="39"/>
       <c r="F89" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G89" s="40"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="56"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="30"/>
     </row>
     <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="23"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="39"/>
       <c r="F90" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G90" s="46" t="s">
+      <c r="G90" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H90" s="50"/>
-      <c r="I90" s="56"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="30"/>
     </row>
     <row r="91" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="25"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="40"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="40"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="57"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="31"/>
     </row>
     <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="20">
+      <c r="A92" s="36">
         <v>18</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="24" t="s">
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="56" t="s">
         <v>37</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G92" s="40"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="55"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="29"/>
     </row>
     <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="21"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="23"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="39"/>
       <c r="F93" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="G93" s="45"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="56"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="30"/>
     </row>
     <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="21"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="23"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="39"/>
       <c r="F94" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G94" s="40"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="56"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="30"/>
     </row>
     <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="23"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="39"/>
       <c r="F95" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G95" s="40"/>
-      <c r="H95" s="50"/>
-      <c r="I95" s="56"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="30"/>
     </row>
     <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="21"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="25"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="40"/>
       <c r="F96" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G96" s="46"/>
-      <c r="H96" s="50"/>
-      <c r="I96" s="56"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="30"/>
     </row>
     <row r="97" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="25"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="40"/>
       <c r="F97" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G97" s="43"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="56"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="30"/>
     </row>
     <row r="98" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="25"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="40"/>
       <c r="F98" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G98" s="43" t="s">
+      <c r="G98" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H98" s="50"/>
-      <c r="I98" s="56"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="30"/>
     </row>
     <row r="99" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="25"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="40"/>
       <c r="F99" s="10"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="51"/>
-      <c r="I99" s="57"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="31"/>
     </row>
     <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="20">
+      <c r="A100" s="36">
         <v>19</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="22" t="s">
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G100" s="45"/>
-      <c r="H100" s="49"/>
-      <c r="I100" s="55"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="29"/>
     </row>
     <row r="101" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="21"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="23"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="39"/>
       <c r="F101" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G101" s="40" t="s">
+      <c r="G101" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H101" s="50"/>
-      <c r="I101" s="56"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="30"/>
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="21"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="23"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="39"/>
       <c r="F102" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G102" s="40" t="s">
+      <c r="G102" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H102" s="50"/>
-      <c r="I102" s="56"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="30"/>
     </row>
     <row r="103" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="21"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="23"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="39"/>
       <c r="F103" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G103" s="40" t="s">
+      <c r="G103" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H103" s="50"/>
-      <c r="I103" s="56"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="30"/>
     </row>
     <row r="104" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="21"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="23"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="39"/>
       <c r="F104" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G104" s="40" t="s">
+      <c r="G104" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H104" s="50"/>
-      <c r="I104" s="56"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="30"/>
     </row>
     <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="21"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="25"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="40"/>
       <c r="F105" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G105" s="40" t="s">
+      <c r="G105" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H105" s="50"/>
-      <c r="I105" s="56"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="30"/>
     </row>
     <row r="106" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="21"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="25"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="40"/>
       <c r="F106" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G106" s="40" t="s">
+      <c r="G106" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H106" s="50"/>
-      <c r="I106" s="56"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="30"/>
     </row>
     <row r="107" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="21"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="25"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="40"/>
       <c r="F107" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G107" s="43"/>
-      <c r="H107" s="50"/>
-      <c r="I107" s="56"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="30"/>
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="21"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="25"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="40"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="51"/>
-      <c r="I108" s="57"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="31"/>
     </row>
     <row r="109" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="20">
+      <c r="A109" s="36">
         <v>20</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="24" t="s">
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="56" t="s">
         <v>37</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G109" s="45"/>
-      <c r="H109" s="49"/>
-      <c r="I109" s="55"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="29"/>
     </row>
     <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="21"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="23"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="39"/>
       <c r="F110" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G110" s="40" t="s">
+      <c r="G110" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H110" s="50"/>
-      <c r="I110" s="56"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="30"/>
     </row>
     <row r="111" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="21"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="23"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="39"/>
       <c r="F111" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G111" s="40" t="s">
+      <c r="G111" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H111" s="50"/>
-      <c r="I111" s="56"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="30"/>
     </row>
     <row r="112" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="21"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="23"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="39"/>
       <c r="F112" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G112" s="40" t="s">
+      <c r="G112" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H112" s="50"/>
-      <c r="I112" s="56"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="30"/>
     </row>
     <row r="113" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="21"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="25"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="40"/>
       <c r="F113" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G113" s="40" t="s">
+      <c r="G113" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H113" s="50"/>
-      <c r="I113" s="56"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="30"/>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="21"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="25"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="40"/>
       <c r="F114" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G114" s="40" t="s">
+      <c r="G114" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H114" s="50"/>
-      <c r="I114" s="56"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="30"/>
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="21"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="25"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="40"/>
       <c r="F115" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G115" s="40" t="s">
+      <c r="G115" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H115" s="50"/>
-      <c r="I115" s="56"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="30"/>
     </row>
     <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="21"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="25"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="40"/>
       <c r="F116" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G116" s="43"/>
-      <c r="H116" s="50"/>
-      <c r="I116" s="56"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="30"/>
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="21"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="21"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="25"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="40"/>
       <c r="F117" s="13"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="51"/>
-      <c r="I117" s="57"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="31"/>
     </row>
     <row r="118" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="16">
+      <c r="A118" s="52">
         <v>21</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="18" t="s">
+      <c r="C118" s="52"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="54" t="s">
         <v>37</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G118" s="40"/>
-      <c r="H118" s="49"/>
-      <c r="I118" s="55"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="29"/>
     </row>
     <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="17"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="19"/>
+      <c r="A119" s="53"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="53"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="55"/>
       <c r="F119" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G119" s="40"/>
-      <c r="H119" s="50"/>
-      <c r="I119" s="56"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="30"/>
     </row>
     <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="17"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="19"/>
+      <c r="A120" s="53"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="55"/>
       <c r="F120" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G120" s="40"/>
-      <c r="H120" s="50"/>
-      <c r="I120" s="56"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="30"/>
     </row>
     <row r="121" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="17"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="19"/>
+      <c r="A121" s="53"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="53"/>
+      <c r="E121" s="55"/>
       <c r="F121" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G121" s="40" t="s">
+      <c r="G121" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H121" s="50"/>
-      <c r="I121" s="56"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="30"/>
     </row>
     <row r="122" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="17"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="19"/>
+      <c r="A122" s="53"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="55"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="40"/>
-      <c r="H122" s="51"/>
-      <c r="I122" s="57"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="31"/>
     </row>
     <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="16">
+      <c r="A123" s="52">
         <v>22</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="18" t="s">
+      <c r="C123" s="52"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="54" t="s">
         <v>37</v>
       </c>
       <c r="F123" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G123" s="40" t="s">
+      <c r="G123" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H123" s="48"/>
-      <c r="I123" s="55"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="29"/>
     </row>
     <row r="124" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="17"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="19"/>
+      <c r="A124" s="53"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="53"/>
+      <c r="E124" s="55"/>
       <c r="F124" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G124" s="40" t="s">
+      <c r="G124" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H124" s="48"/>
-      <c r="I124" s="56"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="30"/>
     </row>
     <row r="125" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="17"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="19"/>
+      <c r="A125" s="53"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="55"/>
       <c r="F125" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G125" s="40" t="s">
+      <c r="G125" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H125" s="48"/>
-      <c r="I125" s="56"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="30"/>
     </row>
     <row r="126" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="17"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="19"/>
+      <c r="A126" s="53"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="55"/>
       <c r="F126" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G126" s="40" t="s">
+      <c r="G126" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H126" s="48"/>
-      <c r="I126" s="56"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="30"/>
     </row>
     <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="17"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="19"/>
+      <c r="A127" s="53"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="53"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="55"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="40"/>
-      <c r="H127" s="48"/>
-      <c r="I127" s="57"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="31"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="32"/>
+      <c r="C138" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="160">
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="D123:D127"/>
+    <mergeCell ref="E123:E127"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="E118:E122"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="B109:B117"/>
+    <mergeCell ref="C109:C117"/>
+    <mergeCell ref="D109:D117"/>
+    <mergeCell ref="E109:E117"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:E108"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="D92:D99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="D37:D44"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="A54:A66"/>
+    <mergeCell ref="B54:B66"/>
+    <mergeCell ref="C54:C66"/>
+    <mergeCell ref="D54:D66"/>
+    <mergeCell ref="E54:E66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H25"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I100:I108"/>
+    <mergeCell ref="I109:I117"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H66"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="H74:H81"/>
+    <mergeCell ref="H82:H86"/>
+    <mergeCell ref="H87:H91"/>
+    <mergeCell ref="H92:H99"/>
     <mergeCell ref="I118:I122"/>
     <mergeCell ref="I123:I127"/>
     <mergeCell ref="H100:H108"/>
@@ -4659,142 +4793,6 @@
     <mergeCell ref="I82:I86"/>
     <mergeCell ref="I87:I91"/>
     <mergeCell ref="I92:I99"/>
-    <mergeCell ref="I100:I108"/>
-    <mergeCell ref="I109:I117"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H66"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="H74:H81"/>
-    <mergeCell ref="H82:H86"/>
-    <mergeCell ref="H87:H91"/>
-    <mergeCell ref="H92:H99"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H25"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="A54:A66"/>
-    <mergeCell ref="B54:B66"/>
-    <mergeCell ref="C54:C66"/>
-    <mergeCell ref="D54:D66"/>
-    <mergeCell ref="E54:E66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="D37:D44"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="E74:E81"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="D92:D99"/>
-    <mergeCell ref="E92:E99"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="A109:A117"/>
-    <mergeCell ref="B109:B117"/>
-    <mergeCell ref="C109:C117"/>
-    <mergeCell ref="D109:D117"/>
-    <mergeCell ref="E109:E117"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:E108"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="D123:D127"/>
-    <mergeCell ref="E123:E127"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="B118:B122"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="E118:E122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Cases.xlsx
+++ b/docs/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\education\education_QA\diplom_QA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96414CC-4845-4809-A1F7-18AE5917E5F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2221214-10D0-4121-AEC1-B1149D4261BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
     <t>На данный момент не представляю как буду проводить проверку результата. Возможно в процессе написания кода я изменю решение.</t>
   </si>
   <si>
-    <t>Возникли сложности</t>
+    <t>Тест заваливается на ассерте</t>
   </si>
 </sst>
 </file>
@@ -795,26 +795,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -826,9 +815,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -850,30 +854,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,7 +897,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -905,7 +905,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,27 +913,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -941,15 +941,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -969,15 +969,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2724,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,363 +2771,363 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="29"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="30"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="39"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="30"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="39"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="6"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="31"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="38" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="29"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="53"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="39"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="30"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="39"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="30"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="39"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="6"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="33">
         <v>3</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="38" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="29"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="39"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="30"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="39"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="30"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="39"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="6"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="55"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="33">
         <v>4</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="38" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="29"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="53"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="39"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="30"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="54"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="39"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="30"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="54"/>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="10"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="31"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="A18" s="33">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="38" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="29" t="s">
+      <c r="H18" s="50"/>
+      <c r="I18" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="39"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="30"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="39"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="30"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="39"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="30"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="54"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="39"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="30"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="40"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="30"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="40"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="30"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="54"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="40"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="14"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="55"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+      <c r="A26" s="29">
         <v>6</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="54" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -3136,75 +3136,75 @@
       <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="29"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="53"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="55"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="30"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="54"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="55"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="30"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="55"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="30"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="54"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="55"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="10"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="31"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="55"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46">
+      <c r="A31" s="48">
         <v>7</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="48" t="s">
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="41" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3213,90 +3213,90 @@
       <c r="G31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="29"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="53"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="49"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="30"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="54"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="49"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="42"/>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="30"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="54"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="49"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="30"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="49"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="42"/>
       <c r="F35" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="33"/>
-      <c r="I35" s="30"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="54"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="49"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="42"/>
       <c r="F36" s="10"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="31"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="55"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36">
+      <c r="A37" s="33">
         <v>8</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="38" t="s">
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -3305,210 +3305,210 @@
       <c r="G37" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="29"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="53"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="39"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="33"/>
-      <c r="I38" s="30"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="54"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="39"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="30"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="54"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="40"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="33"/>
-      <c r="I40" s="30"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="40"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="38"/>
       <c r="F41" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="33"/>
-      <c r="I41" s="30"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="40"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="38"/>
       <c r="F42" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="33"/>
-      <c r="I42" s="30"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="54"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="40"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="33"/>
-      <c r="I43" s="30"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="54"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="40"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="9"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="31"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="55"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36">
+      <c r="A45" s="33">
         <v>9</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="38"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="32"/>
-      <c r="I45" s="29"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="53"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="39"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H46" s="33"/>
-      <c r="I46" s="30"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="54"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="39"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="6"/>
       <c r="G47" s="21"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="31"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="55"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36">
+      <c r="A48" s="33">
         <v>10</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="38"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="32"/>
-      <c r="I48" s="29"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="53"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="39"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="33"/>
-      <c r="I49" s="30"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="54"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="39"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="6"/>
       <c r="G50" s="21"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="31"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="55"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
+      <c r="A51" s="33">
         <v>11</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="38" t="s">
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F51" s="15" t="s">
@@ -3517,1050 +3517,1050 @@
       <c r="G51" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="32"/>
-      <c r="I51" s="29" t="s">
+      <c r="H51" s="50"/>
+      <c r="I51" s="53" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="39"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="33"/>
-      <c r="I52" s="30"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="54"/>
     </row>
     <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="39"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="6"/>
       <c r="G53" s="21"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="31"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="55"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36">
+      <c r="A54" s="33">
         <v>12</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="38" t="s">
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G54" s="24"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="29"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="53"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="39"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="36"/>
       <c r="F55" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H55" s="33"/>
-      <c r="I55" s="30"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="39"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="36"/>
       <c r="F56" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="33"/>
-      <c r="I56" s="30"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="39"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="36"/>
       <c r="F57" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="33"/>
-      <c r="I57" s="30"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="54"/>
     </row>
     <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="39"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="36"/>
       <c r="F58" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="33"/>
-      <c r="I58" s="30"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="54"/>
     </row>
     <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="40"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="38"/>
       <c r="F59" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H59" s="33"/>
-      <c r="I59" s="30"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="54"/>
     </row>
     <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="40"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="38"/>
       <c r="F60" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="33"/>
-      <c r="I60" s="30"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="54"/>
     </row>
     <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="40"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="38"/>
       <c r="F61" s="9" t="s">
         <v>77</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H61" s="33"/>
-      <c r="I61" s="30"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="54"/>
     </row>
     <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="40"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="38"/>
       <c r="F62" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H62" s="33"/>
-      <c r="I62" s="30"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="54"/>
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="40"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="38"/>
       <c r="F63" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G63" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H63" s="33"/>
-      <c r="I63" s="30"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="54"/>
     </row>
     <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="40"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="38"/>
       <c r="F64" s="9" t="s">
         <v>79</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H64" s="33"/>
-      <c r="I64" s="30"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="54"/>
     </row>
     <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="40"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="38"/>
       <c r="F65" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G65" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H65" s="33"/>
-      <c r="I65" s="30"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="54"/>
     </row>
     <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="40"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="38"/>
       <c r="F66" s="10"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="31"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="55"/>
     </row>
     <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36">
+      <c r="A67" s="33">
         <v>13</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="38" t="s">
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G67" s="24"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="29" t="s">
+      <c r="H67" s="50"/>
+      <c r="I67" s="53" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="39"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="36"/>
       <c r="F68" s="15" t="s">
         <v>71</v>
       </c>
       <c r="G68" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H68" s="33"/>
-      <c r="I68" s="30"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="54"/>
     </row>
     <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="39"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="36"/>
       <c r="F69" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G69" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H69" s="33"/>
-      <c r="I69" s="30"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="54"/>
     </row>
     <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="39"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="36"/>
       <c r="F70" s="6"/>
       <c r="G70" s="21"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="31"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="55"/>
     </row>
     <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36">
+      <c r="A71" s="33">
         <v>14</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="38" t="s">
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="24"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="29"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="53"/>
     </row>
     <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="39"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="36"/>
       <c r="F72" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H72" s="33"/>
-      <c r="I72" s="30"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="54"/>
     </row>
     <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="39"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="36"/>
       <c r="F73" s="6"/>
       <c r="G73" s="21"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="31"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="55"/>
     </row>
     <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36">
+      <c r="A74" s="33">
         <v>15</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="38" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G74" s="24"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="29"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="53"/>
     </row>
     <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="39"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="36"/>
       <c r="F75" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H75" s="33"/>
-      <c r="I75" s="30"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="54"/>
     </row>
     <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="39"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="36"/>
       <c r="F76" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G76" s="21"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="30"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="54"/>
     </row>
     <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="39"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="36"/>
       <c r="F77" s="6" t="s">
         <v>90</v>
       </c>
       <c r="G77" s="21"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="30"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="54"/>
     </row>
     <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="39"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="36"/>
       <c r="F78" s="8" t="s">
         <v>91</v>
       </c>
       <c r="G78" s="25"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="30"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="54"/>
     </row>
     <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="40"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="38"/>
       <c r="F79" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G79" s="23"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="30"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="54"/>
     </row>
     <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="40"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="38"/>
       <c r="F80" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H80" s="33"/>
-      <c r="I80" s="30"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="54"/>
     </row>
     <row r="81" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="40"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="38"/>
       <c r="F81" s="10"/>
       <c r="G81" s="23"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="31"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="55"/>
     </row>
     <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="36">
+      <c r="A82" s="33">
         <v>16</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="38" t="s">
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G82" s="24"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="29"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="53"/>
     </row>
     <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="39"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="36"/>
       <c r="F83" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G83" s="21"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="30"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="54"/>
     </row>
     <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="39"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="36"/>
       <c r="F84" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G84" s="21"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="30"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="54"/>
     </row>
     <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="39"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="36"/>
       <c r="F85" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G85" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H85" s="33"/>
-      <c r="I85" s="30"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="40"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="38"/>
       <c r="F86" s="9"/>
       <c r="G86" s="21"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="31"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="55"/>
     </row>
     <row r="87" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="36">
+      <c r="A87" s="33">
         <v>17</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="56" t="s">
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="37" t="s">
         <v>47</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G87" s="21"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="29"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="53"/>
     </row>
     <row r="88" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="39"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="36"/>
       <c r="F88" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G88" s="24"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="30"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="54"/>
     </row>
     <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="39"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="36"/>
       <c r="F89" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G89" s="21"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="30"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="54"/>
     </row>
     <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="39"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="36"/>
       <c r="F90" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G90" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H90" s="33"/>
-      <c r="I90" s="30"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="54"/>
     </row>
     <row r="91" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="40"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="38"/>
       <c r="F91" s="9"/>
       <c r="G91" s="21"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="31"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="55"/>
     </row>
     <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="36">
+      <c r="A92" s="33">
         <v>18</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="56" t="s">
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="37" t="s">
         <v>37</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G92" s="21"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="29"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="53"/>
     </row>
     <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="39"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="36"/>
       <c r="F93" s="15" t="s">
         <v>106</v>
       </c>
       <c r="G93" s="24"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="30"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="54"/>
     </row>
     <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="39"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="36"/>
       <c r="F94" s="6" t="s">
         <v>107</v>
       </c>
       <c r="G94" s="21"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="30"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="54"/>
     </row>
     <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="39"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="36"/>
       <c r="F95" s="8" t="s">
         <v>108</v>
       </c>
       <c r="G95" s="21"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="30"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="54"/>
     </row>
     <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="40"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="38"/>
       <c r="F96" s="9" t="s">
         <v>109</v>
       </c>
       <c r="G96" s="25"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="30"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="54"/>
     </row>
     <row r="97" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="40"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="38"/>
       <c r="F97" s="15" t="s">
         <v>110</v>
       </c>
       <c r="G97" s="23"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="30"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="54"/>
     </row>
     <row r="98" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="40"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="38"/>
       <c r="F98" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G98" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H98" s="33"/>
-      <c r="I98" s="30"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="54"/>
     </row>
     <row r="99" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="40"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="38"/>
       <c r="F99" s="10"/>
       <c r="G99" s="23"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="31"/>
+      <c r="H99" s="52"/>
+      <c r="I99" s="55"/>
     </row>
     <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36">
+      <c r="A100" s="33">
         <v>19</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="38" t="s">
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G100" s="24"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="29"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="53"/>
     </row>
     <row r="101" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="39"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="36"/>
       <c r="F101" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G101" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H101" s="33"/>
-      <c r="I101" s="30"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="39"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="36"/>
       <c r="F102" s="6" t="s">
         <v>116</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H102" s="33"/>
-      <c r="I102" s="30"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="39"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="36"/>
       <c r="F103" s="6" t="s">
         <v>117</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H103" s="33"/>
-      <c r="I103" s="30"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="54"/>
     </row>
     <row r="104" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="39"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="36"/>
       <c r="F104" s="6" t="s">
         <v>118</v>
       </c>
       <c r="G104" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H104" s="33"/>
-      <c r="I104" s="30"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="54"/>
     </row>
     <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="40"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="38"/>
       <c r="F105" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G105" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H105" s="33"/>
-      <c r="I105" s="30"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="54"/>
     </row>
     <row r="106" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="40"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="38"/>
       <c r="F106" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G106" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H106" s="33"/>
-      <c r="I106" s="30"/>
+      <c r="H106" s="51"/>
+      <c r="I106" s="54"/>
     </row>
     <row r="107" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="40"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="38"/>
       <c r="F107" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G107" s="23"/>
-      <c r="H107" s="33"/>
-      <c r="I107" s="30"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="54"/>
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="40"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="38"/>
       <c r="F108" s="10"/>
       <c r="G108" s="23"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="31"/>
+      <c r="H108" s="52"/>
+      <c r="I108" s="55"/>
     </row>
     <row r="109" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="36">
+      <c r="A109" s="33">
         <v>20</v>
       </c>
-      <c r="B109" s="38" t="s">
+      <c r="B109" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="56" t="s">
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="37" t="s">
         <v>37</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G109" s="24"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="29"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="53"/>
     </row>
     <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="39"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="36"/>
       <c r="F110" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G110" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H110" s="33"/>
-      <c r="I110" s="30"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="54"/>
     </row>
     <row r="111" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="39"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="36"/>
       <c r="F111" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G111" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H111" s="33"/>
-      <c r="I111" s="30"/>
+      <c r="H111" s="51"/>
+      <c r="I111" s="54"/>
     </row>
     <row r="112" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="39"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="36"/>
       <c r="F112" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G112" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H112" s="33"/>
-      <c r="I112" s="30"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="54"/>
     </row>
     <row r="113" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="40"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="38"/>
       <c r="F113" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G113" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H113" s="33"/>
-      <c r="I113" s="30"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="54"/>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="40"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="38"/>
       <c r="F114" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G114" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H114" s="33"/>
-      <c r="I114" s="30"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="54"/>
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="40"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="38"/>
       <c r="F115" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G115" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H115" s="33"/>
-      <c r="I115" s="30"/>
+      <c r="H115" s="51"/>
+      <c r="I115" s="54"/>
     </row>
     <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="40"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="38"/>
       <c r="F116" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G116" s="23"/>
-      <c r="H116" s="33"/>
-      <c r="I116" s="30"/>
+      <c r="H116" s="51"/>
+      <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="40"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="38"/>
       <c r="F117" s="13"/>
       <c r="G117" s="26"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="31"/>
+      <c r="H117" s="52"/>
+      <c r="I117" s="55"/>
     </row>
     <row r="118" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="52">
+      <c r="A118" s="29">
         <v>21</v>
       </c>
-      <c r="B118" s="54" t="s">
+      <c r="B118" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="52"/>
-      <c r="D118" s="52"/>
-      <c r="E118" s="54" t="s">
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="31" t="s">
         <v>37</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>126</v>
       </c>
       <c r="G118" s="21"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="29"/>
+      <c r="H118" s="50"/>
+      <c r="I118" s="53"/>
     </row>
     <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="53"/>
-      <c r="B119" s="55"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="53"/>
-      <c r="E119" s="55"/>
+      <c r="A119" s="30"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="32"/>
       <c r="F119" s="9" t="s">
         <v>127</v>
       </c>
       <c r="G119" s="21"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="30"/>
+      <c r="H119" s="51"/>
+      <c r="I119" s="54"/>
     </row>
     <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="53"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="53"/>
-      <c r="D120" s="53"/>
-      <c r="E120" s="55"/>
+      <c r="A120" s="30"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="32"/>
       <c r="F120" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G120" s="21"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="30"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="54"/>
     </row>
     <row r="121" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="53"/>
-      <c r="B121" s="55"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="53"/>
-      <c r="E121" s="55"/>
+      <c r="A121" s="30"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="32"/>
       <c r="F121" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G121" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H121" s="33"/>
-      <c r="I121" s="30"/>
+      <c r="H121" s="51"/>
+      <c r="I121" s="54"/>
     </row>
     <row r="122" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="53"/>
-      <c r="B122" s="55"/>
-      <c r="C122" s="53"/>
-      <c r="D122" s="53"/>
-      <c r="E122" s="55"/>
+      <c r="A122" s="30"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="32"/>
       <c r="F122" s="9"/>
       <c r="G122" s="21"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="31"/>
+      <c r="H122" s="52"/>
+      <c r="I122" s="55"/>
     </row>
     <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="52">
+      <c r="A123" s="29">
         <v>22</v>
       </c>
-      <c r="B123" s="54" t="s">
+      <c r="B123" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C123" s="52"/>
-      <c r="D123" s="52"/>
-      <c r="E123" s="54" t="s">
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="31" t="s">
         <v>37</v>
       </c>
       <c r="F123" s="9" t="s">
@@ -4569,110 +4569,166 @@
       <c r="G123" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H123" s="35"/>
-      <c r="I123" s="29"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="53"/>
     </row>
     <row r="124" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="53"/>
-      <c r="B124" s="55"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="53"/>
-      <c r="E124" s="55"/>
+      <c r="A124" s="30"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="32"/>
       <c r="F124" s="9" t="s">
         <v>131</v>
       </c>
       <c r="G124" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H124" s="35"/>
-      <c r="I124" s="30"/>
+      <c r="H124" s="56"/>
+      <c r="I124" s="54"/>
     </row>
     <row r="125" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="53"/>
-      <c r="B125" s="55"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="53"/>
-      <c r="E125" s="55"/>
+      <c r="A125" s="30"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="32"/>
       <c r="F125" s="9" t="s">
         <v>133</v>
       </c>
       <c r="G125" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H125" s="35"/>
-      <c r="I125" s="30"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="54"/>
     </row>
     <row r="126" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="53"/>
-      <c r="B126" s="55"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="53"/>
-      <c r="E126" s="55"/>
+      <c r="A126" s="30"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="32"/>
       <c r="F126" s="9" t="s">
         <v>135</v>
       </c>
       <c r="G126" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H126" s="35"/>
-      <c r="I126" s="30"/>
+      <c r="H126" s="56"/>
+      <c r="I126" s="54"/>
     </row>
     <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="53"/>
-      <c r="B127" s="55"/>
-      <c r="C127" s="53"/>
-      <c r="D127" s="53"/>
-      <c r="E127" s="55"/>
+      <c r="A127" s="30"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="32"/>
       <c r="F127" s="9"/>
       <c r="G127" s="21"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="31"/>
+      <c r="H127" s="56"/>
+      <c r="I127" s="55"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="160">
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="D123:D127"/>
-    <mergeCell ref="E123:E127"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="B118:B122"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="E118:E122"/>
-    <mergeCell ref="A109:A117"/>
-    <mergeCell ref="B109:B117"/>
-    <mergeCell ref="C109:C117"/>
-    <mergeCell ref="D109:D117"/>
-    <mergeCell ref="E109:E117"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:E108"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="D92:D99"/>
-    <mergeCell ref="E92:E99"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="I118:I122"/>
+    <mergeCell ref="I123:I127"/>
+    <mergeCell ref="H100:H108"/>
+    <mergeCell ref="H109:H117"/>
+    <mergeCell ref="H118:H122"/>
+    <mergeCell ref="H123:H127"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I18:I25"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="I37:I44"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="I54:I66"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="I74:I81"/>
+    <mergeCell ref="I82:I86"/>
+    <mergeCell ref="I87:I91"/>
+    <mergeCell ref="I92:I99"/>
+    <mergeCell ref="I100:I108"/>
+    <mergeCell ref="I109:I117"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H66"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="H74:H81"/>
+    <mergeCell ref="H82:H86"/>
+    <mergeCell ref="H87:H91"/>
+    <mergeCell ref="H92:H99"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H25"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="A54:A66"/>
+    <mergeCell ref="B54:B66"/>
+    <mergeCell ref="C54:C66"/>
+    <mergeCell ref="D54:D66"/>
+    <mergeCell ref="E54:E66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="D37:D44"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="C71:C73"/>
@@ -4697,102 +4753,46 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="D37:D44"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="A54:A66"/>
-    <mergeCell ref="B54:B66"/>
-    <mergeCell ref="C54:C66"/>
-    <mergeCell ref="D54:D66"/>
-    <mergeCell ref="E54:E66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H25"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I100:I108"/>
-    <mergeCell ref="I109:I117"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H66"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="H74:H81"/>
-    <mergeCell ref="H82:H86"/>
-    <mergeCell ref="H87:H91"/>
-    <mergeCell ref="H92:H99"/>
-    <mergeCell ref="I118:I122"/>
-    <mergeCell ref="I123:I127"/>
-    <mergeCell ref="H100:H108"/>
-    <mergeCell ref="H109:H117"/>
-    <mergeCell ref="H118:H122"/>
-    <mergeCell ref="H123:H127"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="I18:I25"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="I37:I44"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="I54:I66"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="I74:I81"/>
-    <mergeCell ref="I82:I86"/>
-    <mergeCell ref="I87:I91"/>
-    <mergeCell ref="I92:I99"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="D92:D99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="B109:B117"/>
+    <mergeCell ref="C109:C117"/>
+    <mergeCell ref="D109:D117"/>
+    <mergeCell ref="E109:E117"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:E108"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="D123:D127"/>
+    <mergeCell ref="E123:E127"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="E118:E122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Cases.xlsx
+++ b/docs/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\education\education_QA\diplom_QA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2221214-10D0-4121-AEC1-B1149D4261BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D634E2D9-7397-4A02-B94E-0431321ECAA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
     <t>На данный момент не представляю как буду проводить проверку результата. Возможно в процессе написания кода я изменю решение.</t>
   </si>
   <si>
-    <t>Тест заваливается на ассерте</t>
+    <t>Тест заваливается на ассерте!!!!</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -795,6 +795,73 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -805,75 +872,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,7 +909,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -961,7 +973,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -977,7 +989,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1665,7 +1677,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>1219200</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2724,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,363 +2783,363 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="35" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="53"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="36"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="54"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="36"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="54"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="36"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="6"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="36">
         <v>2</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="35" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="53"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="36"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="54"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="36"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="54"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="36"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="6"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="55"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="36">
         <v>3</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="35" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="53"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="36"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="54"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="36"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="54"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="36"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="6"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="55"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="36">
         <v>4</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="35" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="53"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="36"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="54"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="36"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="54"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="36"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="10"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="55"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="36">
         <v>5</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="35" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="53" t="s">
+      <c r="H18" s="32"/>
+      <c r="I18" s="29" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="36"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="54"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="36"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="54"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="36"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="54"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="36"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="54"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="38"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="54"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="38"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="54"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="38"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="14"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="55"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="52">
         <v>6</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="31" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="54" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -3136,75 +3148,75 @@
       <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="53"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="54"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="54"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="55"/>
       <c r="F29" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="51"/>
-      <c r="I29" s="54"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="32"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="55"/>
       <c r="F30" s="10"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="55"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48">
+      <c r="A31" s="46">
         <v>7</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="41" t="s">
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="48" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3213,90 +3225,90 @@
       <c r="G31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="53"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="42"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="54"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="42"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="49"/>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="51"/>
-      <c r="I33" s="54"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="42"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="54"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="42"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="49"/>
       <c r="F35" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="54"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="42"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="10"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="55"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="36">
         <v>8</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="35" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -3305,210 +3317,210 @@
       <c r="G37" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="53"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="36"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="51"/>
-      <c r="I38" s="54"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="36"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="51"/>
-      <c r="I39" s="54"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="38"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="40"/>
       <c r="F40" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="51"/>
-      <c r="I40" s="54"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="38"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="51"/>
-      <c r="I41" s="54"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="38"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="51"/>
-      <c r="I42" s="54"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="38"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="51"/>
-      <c r="I43" s="54"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="38"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="9"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="55"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33">
+      <c r="A45" s="36">
         <v>9</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="35"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="50"/>
-      <c r="I45" s="53"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="29"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="36"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H46" s="51"/>
-      <c r="I46" s="54"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="36"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="6"/>
       <c r="G47" s="21"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="55"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33">
+      <c r="A48" s="36">
         <v>10</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="50"/>
-      <c r="I48" s="53"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="29"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="36"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="51"/>
-      <c r="I49" s="54"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="36"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="39"/>
       <c r="F50" s="6"/>
       <c r="G50" s="21"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="55"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33">
+      <c r="A51" s="36">
         <v>11</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="35" t="s">
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F51" s="15" t="s">
@@ -3517,1050 +3529,1050 @@
       <c r="G51" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="50"/>
-      <c r="I51" s="53" t="s">
+      <c r="H51" s="32"/>
+      <c r="I51" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="36"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="39"/>
       <c r="F52" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="51"/>
-      <c r="I52" s="54"/>
-    </row>
-    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="36"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="37"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="39"/>
       <c r="F53" s="6"/>
       <c r="G53" s="21"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="55"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="31"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33">
+      <c r="A54" s="36">
         <v>12</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="35" t="s">
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G54" s="24"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="53"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="29"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="36"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="39"/>
       <c r="F55" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H55" s="51"/>
-      <c r="I55" s="54"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="36"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="39"/>
       <c r="F56" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="51"/>
-      <c r="I56" s="54"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="30"/>
     </row>
     <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="36"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="39"/>
       <c r="F57" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="51"/>
-      <c r="I57" s="54"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="36"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="39"/>
       <c r="F58" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="51"/>
-      <c r="I58" s="54"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="30"/>
     </row>
     <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="38"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H59" s="51"/>
-      <c r="I59" s="54"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="30"/>
     </row>
     <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="38"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="40"/>
       <c r="F60" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="51"/>
-      <c r="I60" s="54"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="30"/>
     </row>
     <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="38"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="40"/>
       <c r="F61" s="9" t="s">
         <v>77</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H61" s="51"/>
-      <c r="I61" s="54"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="30"/>
     </row>
     <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="38"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="40"/>
       <c r="F62" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H62" s="51"/>
-      <c r="I62" s="54"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="30"/>
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="38"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G63" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H63" s="51"/>
-      <c r="I63" s="54"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="30"/>
     </row>
     <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="38"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="40"/>
       <c r="F64" s="9" t="s">
         <v>79</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H64" s="51"/>
-      <c r="I64" s="54"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="30"/>
     </row>
     <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="38"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="40"/>
       <c r="F65" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G65" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H65" s="51"/>
-      <c r="I65" s="54"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="30"/>
     </row>
     <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="38"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="40"/>
       <c r="F66" s="10"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="55"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="31"/>
     </row>
     <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33">
+      <c r="A67" s="36">
         <v>13</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="35" t="s">
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G67" s="24"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="53" t="s">
+      <c r="H67" s="32"/>
+      <c r="I67" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="36"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="39"/>
       <c r="F68" s="15" t="s">
         <v>71</v>
       </c>
       <c r="G68" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H68" s="51"/>
-      <c r="I68" s="54"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="36"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="39"/>
       <c r="F69" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G69" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H69" s="51"/>
-      <c r="I69" s="54"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="36"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="39"/>
       <c r="F70" s="6"/>
       <c r="G70" s="21"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="55"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="31"/>
     </row>
     <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="33">
+      <c r="A71" s="36">
         <v>14</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="35" t="s">
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="24"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="53"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="29"/>
     </row>
     <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="36"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="39"/>
       <c r="F72" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H72" s="51"/>
-      <c r="I72" s="54"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="36"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="39"/>
       <c r="F73" s="6"/>
       <c r="G73" s="21"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="55"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="31"/>
     </row>
     <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="33">
+      <c r="A74" s="36">
         <v>15</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="35" t="s">
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G74" s="24"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="53"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="29"/>
     </row>
     <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="36"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="39"/>
       <c r="F75" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H75" s="51"/>
-      <c r="I75" s="54"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="30"/>
     </row>
     <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="36"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="39"/>
       <c r="F76" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G76" s="21"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="54"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="30"/>
     </row>
     <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="36"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="39"/>
       <c r="F77" s="6" t="s">
         <v>90</v>
       </c>
       <c r="G77" s="21"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="54"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="30"/>
     </row>
     <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="36"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="39"/>
       <c r="F78" s="8" t="s">
         <v>91</v>
       </c>
       <c r="G78" s="25"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="54"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="30"/>
     </row>
     <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="38"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="40"/>
       <c r="F79" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G79" s="23"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="54"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="30"/>
     </row>
     <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="38"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="40"/>
       <c r="F80" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H80" s="51"/>
-      <c r="I80" s="54"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="30"/>
     </row>
     <row r="81" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="38"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="40"/>
       <c r="F81" s="10"/>
       <c r="G81" s="23"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="55"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="31"/>
     </row>
     <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="33">
+      <c r="A82" s="36">
         <v>16</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="35" t="s">
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G82" s="24"/>
-      <c r="H82" s="50"/>
-      <c r="I82" s="53"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="29"/>
     </row>
     <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="36"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="39"/>
       <c r="F83" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G83" s="21"/>
-      <c r="H83" s="51"/>
-      <c r="I83" s="54"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="36"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="39"/>
       <c r="F84" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G84" s="21"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="54"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="30"/>
     </row>
     <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="36"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="39"/>
       <c r="F85" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G85" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H85" s="51"/>
-      <c r="I85" s="54"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="38"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="40"/>
       <c r="F86" s="9"/>
       <c r="G86" s="21"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="55"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="31"/>
     </row>
     <row r="87" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="33">
+      <c r="A87" s="36">
         <v>17</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="37" t="s">
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="56" t="s">
         <v>47</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G87" s="21"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="53"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="29"/>
     </row>
     <row r="88" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="36"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="39"/>
       <c r="F88" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G88" s="24"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="54"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="30"/>
     </row>
     <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="36"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="39"/>
       <c r="F89" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G89" s="21"/>
-      <c r="H89" s="51"/>
-      <c r="I89" s="54"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="30"/>
     </row>
     <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="36"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="39"/>
       <c r="F90" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G90" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H90" s="51"/>
-      <c r="I90" s="54"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="30"/>
     </row>
     <row r="91" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
-      <c r="B91" s="36"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="38"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="40"/>
       <c r="F91" s="9"/>
       <c r="G91" s="21"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="55"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="31"/>
     </row>
     <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="33">
+      <c r="A92" s="36">
         <v>18</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="37" t="s">
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="56" t="s">
         <v>37</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G92" s="21"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="53"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="29"/>
     </row>
     <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="36"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="39"/>
       <c r="F93" s="15" t="s">
         <v>106</v>
       </c>
       <c r="G93" s="24"/>
-      <c r="H93" s="51"/>
-      <c r="I93" s="54"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="30"/>
     </row>
     <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="36"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="39"/>
       <c r="F94" s="6" t="s">
         <v>107</v>
       </c>
       <c r="G94" s="21"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="54"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="30"/>
     </row>
     <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="34"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="36"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="39"/>
       <c r="F95" s="8" t="s">
         <v>108</v>
       </c>
       <c r="G95" s="21"/>
-      <c r="H95" s="51"/>
-      <c r="I95" s="54"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="30"/>
     </row>
     <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="34"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="38"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="40"/>
       <c r="F96" s="9" t="s">
         <v>109</v>
       </c>
       <c r="G96" s="25"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="54"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="30"/>
     </row>
     <row r="97" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="34"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="38"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="40"/>
       <c r="F97" s="15" t="s">
         <v>110</v>
       </c>
       <c r="G97" s="23"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="54"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="30"/>
     </row>
     <row r="98" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="34"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="38"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="40"/>
       <c r="F98" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G98" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H98" s="51"/>
-      <c r="I98" s="54"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="30"/>
     </row>
     <row r="99" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="38"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="40"/>
       <c r="F99" s="10"/>
       <c r="G99" s="23"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="55"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="31"/>
     </row>
     <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="33">
+      <c r="A100" s="36">
         <v>19</v>
       </c>
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="35" t="s">
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G100" s="24"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="53"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="29"/>
     </row>
     <row r="101" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="34"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="36"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="39"/>
       <c r="F101" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G101" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H101" s="51"/>
-      <c r="I101" s="54"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="30"/>
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="36"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="39"/>
       <c r="F102" s="6" t="s">
         <v>116</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H102" s="51"/>
-      <c r="I102" s="54"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="30"/>
     </row>
     <row r="103" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="36"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="39"/>
       <c r="F103" s="6" t="s">
         <v>117</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H103" s="51"/>
-      <c r="I103" s="54"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="30"/>
     </row>
     <row r="104" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="36"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="39"/>
       <c r="F104" s="6" t="s">
         <v>118</v>
       </c>
       <c r="G104" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H104" s="51"/>
-      <c r="I104" s="54"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="30"/>
     </row>
     <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="36"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="38"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="40"/>
       <c r="F105" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G105" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H105" s="51"/>
-      <c r="I105" s="54"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="30"/>
     </row>
     <row r="106" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
-      <c r="B106" s="36"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="38"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="40"/>
       <c r="F106" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G106" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H106" s="51"/>
-      <c r="I106" s="54"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="30"/>
     </row>
     <row r="107" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="34"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="38"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="40"/>
       <c r="F107" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G107" s="23"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="54"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="30"/>
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="38"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="40"/>
       <c r="F108" s="10"/>
       <c r="G108" s="23"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="55"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="31"/>
     </row>
     <row r="109" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="33">
+      <c r="A109" s="36">
         <v>20</v>
       </c>
-      <c r="B109" s="35" t="s">
+      <c r="B109" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="37" t="s">
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="56" t="s">
         <v>37</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G109" s="24"/>
-      <c r="H109" s="50"/>
-      <c r="I109" s="53"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="29"/>
     </row>
     <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
-      <c r="B110" s="36"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="36"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="39"/>
       <c r="F110" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G110" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H110" s="51"/>
-      <c r="I110" s="54"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="30"/>
     </row>
     <row r="111" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="36"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="39"/>
       <c r="F111" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G111" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H111" s="51"/>
-      <c r="I111" s="54"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="30"/>
     </row>
     <row r="112" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
-      <c r="B112" s="36"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="36"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="39"/>
       <c r="F112" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G112" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H112" s="51"/>
-      <c r="I112" s="54"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="30"/>
     </row>
     <row r="113" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
-      <c r="B113" s="36"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="38"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="40"/>
       <c r="F113" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G113" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H113" s="51"/>
-      <c r="I113" s="54"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="30"/>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
-      <c r="B114" s="36"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="38"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="40"/>
       <c r="F114" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G114" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H114" s="51"/>
-      <c r="I114" s="54"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="30"/>
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="34"/>
-      <c r="B115" s="36"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="38"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="40"/>
       <c r="F115" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G115" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H115" s="51"/>
-      <c r="I115" s="54"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="30"/>
     </row>
     <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="34"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="38"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="40"/>
       <c r="F116" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G116" s="23"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="54"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="30"/>
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="34"/>
-      <c r="B117" s="36"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="38"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="40"/>
       <c r="F117" s="13"/>
       <c r="G117" s="26"/>
-      <c r="H117" s="52"/>
-      <c r="I117" s="55"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="31"/>
     </row>
     <row r="118" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="29">
+      <c r="A118" s="52">
         <v>21</v>
       </c>
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="31" t="s">
+      <c r="C118" s="52"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="54" t="s">
         <v>37</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>126</v>
       </c>
       <c r="G118" s="21"/>
-      <c r="H118" s="50"/>
-      <c r="I118" s="53"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="29"/>
     </row>
     <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="30"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="32"/>
+      <c r="A119" s="53"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="53"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="55"/>
       <c r="F119" s="9" t="s">
         <v>127</v>
       </c>
       <c r="G119" s="21"/>
-      <c r="H119" s="51"/>
-      <c r="I119" s="54"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="30"/>
     </row>
     <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="32"/>
+      <c r="A120" s="53"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="55"/>
       <c r="F120" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G120" s="21"/>
-      <c r="H120" s="51"/>
-      <c r="I120" s="54"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="30"/>
     </row>
     <row r="121" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="30"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="32"/>
+      <c r="A121" s="53"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="53"/>
+      <c r="E121" s="55"/>
       <c r="F121" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G121" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H121" s="51"/>
-      <c r="I121" s="54"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="30"/>
     </row>
     <row r="122" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="30"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="32"/>
+      <c r="A122" s="53"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="55"/>
       <c r="F122" s="9"/>
       <c r="G122" s="21"/>
-      <c r="H122" s="52"/>
-      <c r="I122" s="55"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="31"/>
     </row>
     <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="29">
+      <c r="A123" s="52">
         <v>22</v>
       </c>
-      <c r="B123" s="31" t="s">
+      <c r="B123" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="C123" s="29"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="31" t="s">
+      <c r="C123" s="52"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="54" t="s">
         <v>37</v>
       </c>
       <c r="F123" s="9" t="s">
@@ -4569,70 +4581,206 @@
       <c r="G123" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H123" s="56"/>
-      <c r="I123" s="53"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="29"/>
     </row>
     <row r="124" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="30"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="32"/>
+      <c r="A124" s="53"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="53"/>
+      <c r="E124" s="55"/>
       <c r="F124" s="9" t="s">
         <v>131</v>
       </c>
       <c r="G124" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H124" s="56"/>
-      <c r="I124" s="54"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="30"/>
     </row>
     <row r="125" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="30"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="32"/>
+      <c r="A125" s="53"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="55"/>
       <c r="F125" s="9" t="s">
         <v>133</v>
       </c>
       <c r="G125" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H125" s="56"/>
-      <c r="I125" s="54"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="30"/>
     </row>
     <row r="126" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="30"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="32"/>
+      <c r="A126" s="53"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="55"/>
       <c r="F126" s="9" t="s">
         <v>135</v>
       </c>
       <c r="G126" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H126" s="56"/>
-      <c r="I126" s="54"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="30"/>
     </row>
     <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="30"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="32"/>
+      <c r="A127" s="53"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="53"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="55"/>
       <c r="F127" s="9"/>
       <c r="G127" s="21"/>
-      <c r="H127" s="56"/>
-      <c r="I127" s="55"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="31"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="160">
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="D123:D127"/>
+    <mergeCell ref="E123:E127"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="E118:E122"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="B109:B117"/>
+    <mergeCell ref="C109:C117"/>
+    <mergeCell ref="D109:D117"/>
+    <mergeCell ref="E109:E117"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:E108"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="D92:D99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="D37:D44"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="A54:A66"/>
+    <mergeCell ref="B54:B66"/>
+    <mergeCell ref="C54:C66"/>
+    <mergeCell ref="D54:D66"/>
+    <mergeCell ref="E54:E66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H25"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I100:I108"/>
+    <mergeCell ref="I109:I117"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H66"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="H74:H81"/>
+    <mergeCell ref="H82:H86"/>
+    <mergeCell ref="H87:H91"/>
+    <mergeCell ref="H92:H99"/>
     <mergeCell ref="I118:I122"/>
     <mergeCell ref="I123:I127"/>
     <mergeCell ref="H100:H108"/>
@@ -4657,142 +4805,6 @@
     <mergeCell ref="I82:I86"/>
     <mergeCell ref="I87:I91"/>
     <mergeCell ref="I92:I99"/>
-    <mergeCell ref="I100:I108"/>
-    <mergeCell ref="I109:I117"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H66"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="H74:H81"/>
-    <mergeCell ref="H82:H86"/>
-    <mergeCell ref="H87:H91"/>
-    <mergeCell ref="H92:H99"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H25"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="A54:A66"/>
-    <mergeCell ref="B54:B66"/>
-    <mergeCell ref="C54:C66"/>
-    <mergeCell ref="D54:D66"/>
-    <mergeCell ref="E54:E66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="D37:D44"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="E74:E81"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="D92:D99"/>
-    <mergeCell ref="E92:E99"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="A109:A117"/>
-    <mergeCell ref="B109:B117"/>
-    <mergeCell ref="C109:C117"/>
-    <mergeCell ref="D109:D117"/>
-    <mergeCell ref="E109:E117"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:E108"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="D123:D127"/>
-    <mergeCell ref="E123:E127"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="B118:B122"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="E118:E122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5036,7 +5048,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1219200</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/docs/Cases.xlsx
+++ b/docs/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\education\education_QA\diplom_QA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D634E2D9-7397-4A02-B94E-0431321ECAA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4805BA9-9FDF-4BCF-A9EC-D3C383900310}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="143">
   <si>
     <t>ID</t>
   </si>
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>Тест заваливается на ассерте!!!!</t>
+  </si>
+  <si>
+    <t>Упорядочивание списка зявок</t>
+  </si>
+  <si>
+    <t>Не пониманию на данный момент как сделать проверку</t>
   </si>
 </sst>
 </file>
@@ -477,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +529,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -795,26 +807,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -826,9 +827,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -850,41 +878,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2736,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54:I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2783,363 +2813,363 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="29"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="30"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="39"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="30"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="58"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="39"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="6"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="31"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="38" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="29"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="39"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="30"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="39"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="30"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="39"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="6"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="33">
         <v>3</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="38" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="29"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="57"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="39"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="30"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="39"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="30"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="39"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="6"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="33">
         <v>4</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="38" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="29"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="39"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="30"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="58"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="39"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="30"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="58"/>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="10"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="31"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="A18" s="33">
         <v>5</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="38" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="29" t="s">
+      <c r="H18" s="54"/>
+      <c r="I18" s="57" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="39"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="30"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="58"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="39"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="30"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="39"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="30"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="58"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="39"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="30"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="58"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="40"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="30"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="58"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="40"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="30"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="58"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="40"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="14"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+      <c r="A26" s="29">
         <v>6</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="54" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -3148,75 +3178,75 @@
       <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="29"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="55"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="30"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="58"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="55"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="30"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="55"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="30"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="55"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="10"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="31"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46">
+      <c r="A31" s="52">
         <v>7</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="48" t="s">
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="43" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3225,90 +3255,90 @@
       <c r="G31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="29"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="57"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="49"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="30"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="58"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="49"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="44"/>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="30"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="58"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="49"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="44"/>
       <c r="F34" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="30"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="58"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="49"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="44"/>
       <c r="F35" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="33"/>
-      <c r="I35" s="30"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="58"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="49"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="10"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="31"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36">
+      <c r="A37" s="33">
         <v>8</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="38" t="s">
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -3317,211 +3347,213 @@
       <c r="G37" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="29"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="57" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="39"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="33"/>
-      <c r="I38" s="30"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="58"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="39"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="62"/>
       <c r="F39" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="30"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="58"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="40"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="63"/>
       <c r="F40" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="33"/>
-      <c r="I40" s="30"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="58"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="40"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="63"/>
       <c r="F41" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="33"/>
-      <c r="I41" s="30"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="58"/>
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="40"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="63"/>
       <c r="F42" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="33"/>
-      <c r="I42" s="30"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="58"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="40"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="63"/>
       <c r="F43" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="33"/>
-      <c r="I43" s="30"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="58"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="40"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="63"/>
       <c r="F44" s="9"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="31"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36">
+      <c r="A45" s="33">
         <v>9</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="38"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="32"/>
-      <c r="I45" s="29"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="57"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="39"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H46" s="33"/>
-      <c r="I46" s="30"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="58"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="39"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="6"/>
       <c r="G47" s="21"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="31"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="59"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36">
+      <c r="A48" s="33">
         <v>10</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="38"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="32"/>
-      <c r="I48" s="29"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="57"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="39"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="33"/>
-      <c r="I49" s="30"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="58"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="39"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="6"/>
       <c r="G50" s="21"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="31"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="59"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
+      <c r="A51" s="33">
         <v>11</v>
       </c>
-      <c r="B51" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="38" t="s">
-        <v>47</v>
+      <c r="B51" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="65" t="s">
+        <v>37</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>71</v>
@@ -3529,1050 +3561,1052 @@
       <c r="G51" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="32"/>
-      <c r="I51" s="29" t="s">
+      <c r="H51" s="54"/>
+      <c r="I51" s="57" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="39"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="66"/>
       <c r="F52" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="33"/>
-      <c r="I52" s="30"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="58"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="39"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="66"/>
       <c r="F53" s="6"/>
       <c r="G53" s="21"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="31"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="59"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36">
+      <c r="A54" s="33">
         <v>12</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="38" t="s">
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G54" s="24"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="29"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="57" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="39"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="62"/>
       <c r="F55" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H55" s="33"/>
-      <c r="I55" s="30"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="58"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="39"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="62"/>
       <c r="F56" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="33"/>
-      <c r="I56" s="30"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="58"/>
     </row>
     <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="39"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="62"/>
       <c r="F57" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="33"/>
-      <c r="I57" s="30"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="58"/>
     </row>
     <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="39"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="62"/>
       <c r="F58" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="33"/>
-      <c r="I58" s="30"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="58"/>
     </row>
     <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="40"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="63"/>
       <c r="F59" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H59" s="33"/>
-      <c r="I59" s="30"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="58"/>
     </row>
     <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="40"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="63"/>
       <c r="F60" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="33"/>
-      <c r="I60" s="30"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="58"/>
     </row>
     <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="40"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="63"/>
       <c r="F61" s="9" t="s">
         <v>77</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H61" s="33"/>
-      <c r="I61" s="30"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="58"/>
     </row>
     <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="40"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="63"/>
       <c r="F62" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H62" s="33"/>
-      <c r="I62" s="30"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="58"/>
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="40"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="63"/>
       <c r="F63" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G63" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H63" s="33"/>
-      <c r="I63" s="30"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="58"/>
     </row>
     <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="40"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="63"/>
       <c r="F64" s="9" t="s">
         <v>79</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H64" s="33"/>
-      <c r="I64" s="30"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="58"/>
     </row>
     <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="40"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="63"/>
       <c r="F65" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G65" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H65" s="33"/>
-      <c r="I65" s="30"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="58"/>
     </row>
     <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="40"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="63"/>
       <c r="F66" s="10"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="31"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="59"/>
     </row>
     <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36">
+      <c r="A67" s="33">
         <v>13</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="38" t="s">
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G67" s="24"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="29" t="s">
+      <c r="H67" s="54"/>
+      <c r="I67" s="57" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="39"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="62"/>
       <c r="F68" s="15" t="s">
         <v>71</v>
       </c>
       <c r="G68" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H68" s="33"/>
-      <c r="I68" s="30"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="58"/>
     </row>
     <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="39"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="62"/>
       <c r="F69" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G69" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H69" s="33"/>
-      <c r="I69" s="30"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="58"/>
     </row>
     <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="39"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="62"/>
       <c r="F70" s="6"/>
       <c r="G70" s="21"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="31"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="59"/>
     </row>
     <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36">
+      <c r="A71" s="33">
         <v>14</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="38" t="s">
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="24"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="29"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="57"/>
     </row>
     <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="39"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="62"/>
       <c r="F72" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H72" s="33"/>
-      <c r="I72" s="30"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="58"/>
     </row>
     <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="39"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="62"/>
       <c r="F73" s="6"/>
       <c r="G73" s="21"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="31"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="59"/>
     </row>
     <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36">
+      <c r="A74" s="33">
         <v>15</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="38" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G74" s="24"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="29"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="57"/>
     </row>
     <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="39"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="62"/>
       <c r="F75" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H75" s="33"/>
-      <c r="I75" s="30"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="58"/>
     </row>
     <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="39"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="62"/>
       <c r="F76" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G76" s="21"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="30"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="58"/>
     </row>
     <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="39"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="62"/>
       <c r="F77" s="6" t="s">
         <v>90</v>
       </c>
       <c r="G77" s="21"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="30"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="58"/>
     </row>
     <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="39"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="62"/>
       <c r="F78" s="8" t="s">
         <v>91</v>
       </c>
       <c r="G78" s="25"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="30"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="58"/>
     </row>
     <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="40"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="63"/>
       <c r="F79" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G79" s="23"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="30"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="58"/>
     </row>
     <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="40"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="63"/>
       <c r="F80" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H80" s="33"/>
-      <c r="I80" s="30"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="58"/>
     </row>
     <row r="81" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="40"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="63"/>
       <c r="F81" s="10"/>
       <c r="G81" s="23"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="31"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="59"/>
     </row>
     <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="36">
+      <c r="A82" s="33">
         <v>16</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="38" t="s">
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G82" s="24"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="29"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="57"/>
     </row>
     <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="39"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="62"/>
       <c r="F83" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G83" s="21"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="30"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="58"/>
     </row>
     <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="39"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="62"/>
       <c r="F84" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G84" s="21"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="30"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="58"/>
     </row>
     <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="39"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="62"/>
       <c r="F85" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G85" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H85" s="33"/>
-      <c r="I85" s="30"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="58"/>
     </row>
     <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="40"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="63"/>
       <c r="F86" s="9"/>
       <c r="G86" s="21"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="31"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="59"/>
     </row>
     <row r="87" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="36">
+      <c r="A87" s="33">
         <v>17</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="56" t="s">
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="64" t="s">
         <v>47</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G87" s="21"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="29"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="57"/>
     </row>
     <row r="88" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="39"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="62"/>
       <c r="F88" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G88" s="24"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="30"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="58"/>
     </row>
     <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="39"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="62"/>
       <c r="F89" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G89" s="21"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="30"/>
+      <c r="H89" s="55"/>
+      <c r="I89" s="58"/>
     </row>
     <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="39"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="62"/>
       <c r="F90" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G90" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H90" s="33"/>
-      <c r="I90" s="30"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="58"/>
     </row>
     <row r="91" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="40"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="63"/>
       <c r="F91" s="9"/>
       <c r="G91" s="21"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="31"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="59"/>
     </row>
     <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="36">
+      <c r="A92" s="33">
         <v>18</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="56" t="s">
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="37" t="s">
         <v>37</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G92" s="21"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="29"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="57"/>
     </row>
     <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="39"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="36"/>
       <c r="F93" s="15" t="s">
         <v>106</v>
       </c>
       <c r="G93" s="24"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="30"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="58"/>
     </row>
     <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="39"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="36"/>
       <c r="F94" s="6" t="s">
         <v>107</v>
       </c>
       <c r="G94" s="21"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="30"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="58"/>
     </row>
     <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="39"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="36"/>
       <c r="F95" s="8" t="s">
         <v>108</v>
       </c>
       <c r="G95" s="21"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="30"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="58"/>
     </row>
     <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="40"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="38"/>
       <c r="F96" s="9" t="s">
         <v>109</v>
       </c>
       <c r="G96" s="25"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="30"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="58"/>
     </row>
     <row r="97" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="40"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="38"/>
       <c r="F97" s="15" t="s">
         <v>110</v>
       </c>
       <c r="G97" s="23"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="30"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="58"/>
     </row>
     <row r="98" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="40"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="38"/>
       <c r="F98" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G98" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H98" s="33"/>
-      <c r="I98" s="30"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="58"/>
     </row>
     <row r="99" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="40"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="38"/>
       <c r="F99" s="10"/>
       <c r="G99" s="23"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="31"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="59"/>
     </row>
     <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36">
+      <c r="A100" s="33">
         <v>19</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="38" t="s">
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G100" s="24"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="29"/>
+      <c r="H100" s="54"/>
+      <c r="I100" s="57"/>
     </row>
     <row r="101" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="39"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="62"/>
       <c r="F101" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G101" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H101" s="33"/>
-      <c r="I101" s="30"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="58"/>
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="39"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="62"/>
       <c r="F102" s="6" t="s">
         <v>116</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H102" s="33"/>
-      <c r="I102" s="30"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="58"/>
     </row>
     <row r="103" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="39"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="62"/>
       <c r="F103" s="6" t="s">
         <v>117</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H103" s="33"/>
-      <c r="I103" s="30"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="58"/>
     </row>
     <row r="104" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="39"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="62"/>
       <c r="F104" s="6" t="s">
         <v>118</v>
       </c>
       <c r="G104" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H104" s="33"/>
-      <c r="I104" s="30"/>
+      <c r="H104" s="55"/>
+      <c r="I104" s="58"/>
     </row>
     <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="40"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="63"/>
       <c r="F105" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G105" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H105" s="33"/>
-      <c r="I105" s="30"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="58"/>
     </row>
     <row r="106" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="40"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="63"/>
       <c r="F106" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G106" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H106" s="33"/>
-      <c r="I106" s="30"/>
+      <c r="H106" s="55"/>
+      <c r="I106" s="58"/>
     </row>
     <row r="107" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="40"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="63"/>
       <c r="F107" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G107" s="23"/>
-      <c r="H107" s="33"/>
-      <c r="I107" s="30"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="58"/>
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="40"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="63"/>
       <c r="F108" s="10"/>
       <c r="G108" s="23"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="31"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="59"/>
     </row>
     <row r="109" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="36">
+      <c r="A109" s="33">
         <v>20</v>
       </c>
-      <c r="B109" s="38" t="s">
+      <c r="B109" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="56" t="s">
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="37" t="s">
         <v>37</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G109" s="24"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="29"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="57"/>
     </row>
     <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="39"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="36"/>
       <c r="F110" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G110" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H110" s="33"/>
-      <c r="I110" s="30"/>
+      <c r="H110" s="55"/>
+      <c r="I110" s="58"/>
     </row>
     <row r="111" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="39"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="36"/>
       <c r="F111" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G111" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H111" s="33"/>
-      <c r="I111" s="30"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="58"/>
     </row>
     <row r="112" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="39"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="36"/>
       <c r="F112" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G112" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H112" s="33"/>
-      <c r="I112" s="30"/>
+      <c r="H112" s="55"/>
+      <c r="I112" s="58"/>
     </row>
     <row r="113" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="40"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="38"/>
       <c r="F113" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G113" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H113" s="33"/>
-      <c r="I113" s="30"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="58"/>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="40"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="38"/>
       <c r="F114" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G114" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H114" s="33"/>
-      <c r="I114" s="30"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="58"/>
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="40"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="38"/>
       <c r="F115" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G115" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H115" s="33"/>
-      <c r="I115" s="30"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="58"/>
     </row>
     <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="40"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="38"/>
       <c r="F116" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G116" s="23"/>
-      <c r="H116" s="33"/>
-      <c r="I116" s="30"/>
+      <c r="H116" s="55"/>
+      <c r="I116" s="58"/>
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="40"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="38"/>
       <c r="F117" s="13"/>
       <c r="G117" s="26"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="31"/>
+      <c r="H117" s="56"/>
+      <c r="I117" s="59"/>
     </row>
     <row r="118" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="52">
+      <c r="A118" s="29">
         <v>21</v>
       </c>
-      <c r="B118" s="54" t="s">
+      <c r="B118" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="52"/>
-      <c r="D118" s="52"/>
-      <c r="E118" s="54" t="s">
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="31" t="s">
         <v>37</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>126</v>
       </c>
       <c r="G118" s="21"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="29"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="57"/>
     </row>
     <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="53"/>
-      <c r="B119" s="55"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="53"/>
-      <c r="E119" s="55"/>
+      <c r="A119" s="30"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="32"/>
       <c r="F119" s="9" t="s">
         <v>127</v>
       </c>
       <c r="G119" s="21"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="30"/>
+      <c r="H119" s="55"/>
+      <c r="I119" s="58"/>
     </row>
     <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="53"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="53"/>
-      <c r="D120" s="53"/>
-      <c r="E120" s="55"/>
+      <c r="A120" s="30"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="32"/>
       <c r="F120" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G120" s="21"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="30"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="58"/>
     </row>
     <row r="121" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="53"/>
-      <c r="B121" s="55"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="53"/>
-      <c r="E121" s="55"/>
+      <c r="A121" s="30"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="32"/>
       <c r="F121" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G121" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H121" s="33"/>
-      <c r="I121" s="30"/>
+      <c r="H121" s="55"/>
+      <c r="I121" s="58"/>
     </row>
     <row r="122" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="53"/>
-      <c r="B122" s="55"/>
-      <c r="C122" s="53"/>
-      <c r="D122" s="53"/>
-      <c r="E122" s="55"/>
+      <c r="A122" s="30"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="32"/>
       <c r="F122" s="9"/>
       <c r="G122" s="21"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="31"/>
+      <c r="H122" s="56"/>
+      <c r="I122" s="59"/>
     </row>
     <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="52">
+      <c r="A123" s="29">
         <v>22</v>
       </c>
-      <c r="B123" s="54" t="s">
+      <c r="B123" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C123" s="52"/>
-      <c r="D123" s="52"/>
-      <c r="E123" s="54" t="s">
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="31" t="s">
         <v>37</v>
       </c>
       <c r="F123" s="9" t="s">
@@ -4581,110 +4615,166 @@
       <c r="G123" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H123" s="35"/>
-      <c r="I123" s="29"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="57"/>
     </row>
     <row r="124" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="53"/>
-      <c r="B124" s="55"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="53"/>
-      <c r="E124" s="55"/>
+      <c r="A124" s="30"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="32"/>
       <c r="F124" s="9" t="s">
         <v>131</v>
       </c>
       <c r="G124" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H124" s="35"/>
-      <c r="I124" s="30"/>
+      <c r="H124" s="60"/>
+      <c r="I124" s="58"/>
     </row>
     <row r="125" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="53"/>
-      <c r="B125" s="55"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="53"/>
-      <c r="E125" s="55"/>
+      <c r="A125" s="30"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="32"/>
       <c r="F125" s="9" t="s">
         <v>133</v>
       </c>
       <c r="G125" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H125" s="35"/>
-      <c r="I125" s="30"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="58"/>
     </row>
     <row r="126" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="53"/>
-      <c r="B126" s="55"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="53"/>
-      <c r="E126" s="55"/>
+      <c r="A126" s="30"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="32"/>
       <c r="F126" s="9" t="s">
         <v>135</v>
       </c>
       <c r="G126" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H126" s="35"/>
-      <c r="I126" s="30"/>
+      <c r="H126" s="60"/>
+      <c r="I126" s="58"/>
     </row>
     <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="53"/>
-      <c r="B127" s="55"/>
-      <c r="C127" s="53"/>
-      <c r="D127" s="53"/>
-      <c r="E127" s="55"/>
+      <c r="A127" s="30"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="32"/>
       <c r="F127" s="9"/>
       <c r="G127" s="21"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="31"/>
+      <c r="H127" s="60"/>
+      <c r="I127" s="59"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="160">
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="D123:D127"/>
-    <mergeCell ref="E123:E127"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="B118:B122"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="E118:E122"/>
-    <mergeCell ref="A109:A117"/>
-    <mergeCell ref="B109:B117"/>
-    <mergeCell ref="C109:C117"/>
-    <mergeCell ref="D109:D117"/>
-    <mergeCell ref="E109:E117"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:E108"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="D92:D99"/>
-    <mergeCell ref="E92:E99"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="I118:I122"/>
+    <mergeCell ref="I123:I127"/>
+    <mergeCell ref="H100:H108"/>
+    <mergeCell ref="H109:H117"/>
+    <mergeCell ref="H118:H122"/>
+    <mergeCell ref="H123:H127"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I18:I25"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="I37:I44"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="I54:I66"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="I74:I81"/>
+    <mergeCell ref="I82:I86"/>
+    <mergeCell ref="I87:I91"/>
+    <mergeCell ref="I92:I99"/>
+    <mergeCell ref="I100:I108"/>
+    <mergeCell ref="I109:I117"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H66"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="H74:H81"/>
+    <mergeCell ref="H82:H86"/>
+    <mergeCell ref="H87:H91"/>
+    <mergeCell ref="H92:H99"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H25"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="A54:A66"/>
+    <mergeCell ref="B54:B66"/>
+    <mergeCell ref="C54:C66"/>
+    <mergeCell ref="D54:D66"/>
+    <mergeCell ref="E54:E66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="D37:D44"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="C71:C73"/>
@@ -4709,102 +4799,46 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="D37:D44"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="A54:A66"/>
-    <mergeCell ref="B54:B66"/>
-    <mergeCell ref="C54:C66"/>
-    <mergeCell ref="D54:D66"/>
-    <mergeCell ref="E54:E66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H25"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I100:I108"/>
-    <mergeCell ref="I109:I117"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H66"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="H74:H81"/>
-    <mergeCell ref="H82:H86"/>
-    <mergeCell ref="H87:H91"/>
-    <mergeCell ref="H92:H99"/>
-    <mergeCell ref="I118:I122"/>
-    <mergeCell ref="I123:I127"/>
-    <mergeCell ref="H100:H108"/>
-    <mergeCell ref="H109:H117"/>
-    <mergeCell ref="H118:H122"/>
-    <mergeCell ref="H123:H127"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="I18:I25"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="I37:I44"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="I54:I66"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="I74:I81"/>
-    <mergeCell ref="I82:I86"/>
-    <mergeCell ref="I87:I91"/>
-    <mergeCell ref="I92:I99"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="D92:D99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="B109:B117"/>
+    <mergeCell ref="C109:C117"/>
+    <mergeCell ref="D109:D117"/>
+    <mergeCell ref="E109:E117"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:E108"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="D123:D127"/>
+    <mergeCell ref="E123:E127"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="E118:E122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Cases.xlsx
+++ b/docs/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\education\education_QA\diplom_QA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4805BA9-9FDF-4BCF-A9EC-D3C383900310}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A740FF7-4D78-4CF2-A391-859E72E8B57A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -807,15 +807,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -827,95 +838,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,7 +1009,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2766,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54:I66"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2813,363 +2807,363 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="35" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="57"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="36"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="58"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="36"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="58"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="36"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="6"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="59"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="36">
         <v>2</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="35" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="57"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="36"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="58"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="36"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="58"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="36"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="6"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="59"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="36">
         <v>3</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="35" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="57"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="36"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="58"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="36"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="58"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="36"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="6"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="59"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="36">
         <v>4</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="35" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="57"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="36"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="58"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="36"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="58"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="36"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="10"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="59"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="36">
         <v>5</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="35" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="57" t="s">
+      <c r="H18" s="32"/>
+      <c r="I18" s="29" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="36"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="58"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="36"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="58"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="36"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="36"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="58"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="38"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="56"/>
       <c r="F23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="58"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="38"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="56"/>
       <c r="F24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="58"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="38"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="14"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="59"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="57">
         <v>6</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="31" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="61" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -3178,75 +3172,75 @@
       <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="57"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="58"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="58"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="32"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="10"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="59"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52">
+      <c r="A31" s="50">
         <v>7</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="43" t="s">
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="52" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3255,90 +3249,90 @@
       <c r="G31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="57"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="44"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="58"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="44"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="58"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="44"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="55"/>
-      <c r="I34" s="58"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="44"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="55"/>
-      <c r="I35" s="58"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="44"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="10"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="59"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="36">
         <v>8</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="61" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="40" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -3347,212 +3341,212 @@
       <c r="G37" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="54"/>
-      <c r="I37" s="57" t="s">
+      <c r="H37" s="32"/>
+      <c r="I37" s="29" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="62"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="41"/>
       <c r="F38" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="55"/>
-      <c r="I38" s="58"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="62"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="41"/>
       <c r="F39" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="55"/>
-      <c r="I39" s="58"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="63"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="42"/>
       <c r="F40" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="55"/>
-      <c r="I40" s="58"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="63"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="42"/>
       <c r="F41" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="55"/>
-      <c r="I41" s="58"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="63"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="42"/>
       <c r="F42" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="55"/>
-      <c r="I42" s="58"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="63"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="42"/>
       <c r="F43" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="55"/>
-      <c r="I43" s="58"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="63"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="42"/>
       <c r="F44" s="9"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="59"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33">
+      <c r="A45" s="36">
         <v>9</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="35"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="54"/>
-      <c r="I45" s="57"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="29"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="36"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H46" s="55"/>
-      <c r="I46" s="58"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="36"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="6"/>
       <c r="G47" s="21"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="59"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33">
+      <c r="A48" s="36">
         <v>10</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="54"/>
-      <c r="I48" s="57"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="29"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="36"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="55"/>
-      <c r="I49" s="58"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="36"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="39"/>
       <c r="F50" s="6"/>
       <c r="G50" s="21"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="59"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33">
+      <c r="A51" s="36">
         <v>11</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="65" t="s">
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="38" t="s">
         <v>37</v>
       </c>
       <c r="F51" s="15" t="s">
@@ -3561,533 +3555,533 @@
       <c r="G51" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="54"/>
-      <c r="I51" s="57" t="s">
+      <c r="H51" s="32"/>
+      <c r="I51" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="66"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="39"/>
       <c r="F52" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="55"/>
-      <c r="I52" s="58"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="66"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="39"/>
       <c r="F53" s="6"/>
       <c r="G53" s="21"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="59"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="31"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33">
+      <c r="A54" s="36">
         <v>12</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="61" t="s">
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="40" t="s">
         <v>47</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G54" s="24"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="57" t="s">
+      <c r="H54" s="32"/>
+      <c r="I54" s="29" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="62"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="41"/>
       <c r="F55" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H55" s="55"/>
-      <c r="I55" s="58"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="62"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="41"/>
       <c r="F56" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="55"/>
-      <c r="I56" s="58"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="30"/>
     </row>
     <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="62"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="41"/>
       <c r="F57" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="55"/>
-      <c r="I57" s="58"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="62"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="41"/>
       <c r="F58" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="55"/>
-      <c r="I58" s="58"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="30"/>
     </row>
     <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="63"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="42"/>
       <c r="F59" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H59" s="55"/>
-      <c r="I59" s="58"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="30"/>
     </row>
     <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="63"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="42"/>
       <c r="F60" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="55"/>
-      <c r="I60" s="58"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="30"/>
     </row>
     <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="63"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="42"/>
       <c r="F61" s="9" t="s">
         <v>77</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H61" s="55"/>
-      <c r="I61" s="58"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="30"/>
     </row>
     <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="63"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="42"/>
       <c r="F62" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H62" s="55"/>
-      <c r="I62" s="58"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="30"/>
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="63"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="42"/>
       <c r="F63" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G63" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H63" s="55"/>
-      <c r="I63" s="58"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="30"/>
     </row>
     <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="63"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="42"/>
       <c r="F64" s="9" t="s">
         <v>79</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H64" s="55"/>
-      <c r="I64" s="58"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="30"/>
     </row>
     <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="63"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="42"/>
       <c r="F65" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G65" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H65" s="55"/>
-      <c r="I65" s="58"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="30"/>
     </row>
     <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="63"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="42"/>
       <c r="F66" s="10"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="59"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="31"/>
     </row>
     <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33">
+      <c r="A67" s="36">
         <v>13</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="61" t="s">
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="40" t="s">
         <v>47</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G67" s="24"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="57" t="s">
+      <c r="H67" s="32"/>
+      <c r="I67" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="62"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="41"/>
       <c r="F68" s="15" t="s">
         <v>71</v>
       </c>
       <c r="G68" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H68" s="55"/>
-      <c r="I68" s="58"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="62"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="41"/>
       <c r="F69" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G69" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H69" s="55"/>
-      <c r="I69" s="58"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="62"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="41"/>
       <c r="F70" s="6"/>
       <c r="G70" s="21"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="59"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="31"/>
     </row>
     <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="33">
+      <c r="A71" s="36">
         <v>14</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="61" t="s">
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="40" t="s">
         <v>47</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="24"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="57"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="29"/>
     </row>
     <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="62"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="41"/>
       <c r="F72" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H72" s="55"/>
-      <c r="I72" s="58"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="62"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="41"/>
       <c r="F73" s="6"/>
       <c r="G73" s="21"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="59"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="31"/>
     </row>
     <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="33">
+      <c r="A74" s="36">
         <v>15</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="61" t="s">
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="40" t="s">
         <v>47</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G74" s="24"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="57"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="29"/>
     </row>
     <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="62"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="41"/>
       <c r="F75" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H75" s="55"/>
-      <c r="I75" s="58"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="30"/>
     </row>
     <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="62"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="41"/>
       <c r="F76" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G76" s="21"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="58"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="30"/>
     </row>
     <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="62"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="41"/>
       <c r="F77" s="6" t="s">
         <v>90</v>
       </c>
       <c r="G77" s="21"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="58"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="30"/>
     </row>
     <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="62"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="41"/>
       <c r="F78" s="8" t="s">
         <v>91</v>
       </c>
       <c r="G78" s="25"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="58"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="30"/>
     </row>
     <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="63"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="42"/>
       <c r="F79" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G79" s="23"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="58"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="30"/>
     </row>
     <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="63"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="42"/>
       <c r="F80" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H80" s="55"/>
-      <c r="I80" s="58"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="30"/>
     </row>
     <row r="81" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="63"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="42"/>
       <c r="F81" s="10"/>
       <c r="G81" s="23"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="59"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="31"/>
     </row>
     <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="33">
+      <c r="A82" s="36">
         <v>16</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="61" t="s">
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="40" t="s">
         <v>47</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G82" s="24"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="57"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="29"/>
     </row>
     <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="62"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="41"/>
       <c r="F83" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G83" s="21"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="58"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="62"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="41"/>
       <c r="F84" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G84" s="21"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="58"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="30"/>
     </row>
     <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="62"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="41"/>
       <c r="F85" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G85" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H85" s="55"/>
-      <c r="I85" s="58"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="63"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="42"/>
       <c r="F86" s="9"/>
       <c r="G86" s="21"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="59"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="31"/>
     </row>
     <row r="87" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="33">
+      <c r="A87" s="36">
         <v>17</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
       <c r="E87" s="64" t="s">
         <v>47</v>
       </c>
@@ -4095,518 +4089,518 @@
         <v>76</v>
       </c>
       <c r="G87" s="21"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="57"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="29"/>
     </row>
     <row r="88" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="62"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="41"/>
       <c r="F88" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G88" s="24"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="58"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="30"/>
     </row>
     <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="62"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="41"/>
       <c r="F89" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G89" s="21"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="58"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="30"/>
     </row>
     <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="62"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="41"/>
       <c r="F90" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G90" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H90" s="55"/>
-      <c r="I90" s="58"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="30"/>
     </row>
     <row r="91" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
-      <c r="B91" s="36"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="63"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="42"/>
       <c r="F91" s="9"/>
       <c r="G91" s="21"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="59"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="31"/>
     </row>
     <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="33">
+      <c r="A92" s="36">
         <v>18</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="37" t="s">
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="63" t="s">
         <v>37</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G92" s="21"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="57"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="29"/>
     </row>
     <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="36"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="39"/>
       <c r="F93" s="15" t="s">
         <v>106</v>
       </c>
       <c r="G93" s="24"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="58"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="30"/>
     </row>
     <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="36"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="39"/>
       <c r="F94" s="6" t="s">
         <v>107</v>
       </c>
       <c r="G94" s="21"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="58"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="30"/>
     </row>
     <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="34"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="36"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="39"/>
       <c r="F95" s="8" t="s">
         <v>108</v>
       </c>
       <c r="G95" s="21"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="58"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="30"/>
     </row>
     <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="34"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="38"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="56"/>
       <c r="F96" s="9" t="s">
         <v>109</v>
       </c>
       <c r="G96" s="25"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="58"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="30"/>
     </row>
     <row r="97" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="34"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="38"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="56"/>
       <c r="F97" s="15" t="s">
         <v>110</v>
       </c>
       <c r="G97" s="23"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="58"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="30"/>
     </row>
     <row r="98" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="34"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="38"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="56"/>
       <c r="F98" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G98" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H98" s="55"/>
-      <c r="I98" s="58"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="30"/>
     </row>
     <row r="99" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="38"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="56"/>
       <c r="F99" s="10"/>
       <c r="G99" s="23"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="59"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="31"/>
     </row>
     <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="33">
+      <c r="A100" s="36">
         <v>19</v>
       </c>
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="61" t="s">
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="40" t="s">
         <v>47</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G100" s="24"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="57"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="29"/>
     </row>
     <row r="101" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="34"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="62"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="41"/>
       <c r="F101" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G101" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H101" s="55"/>
-      <c r="I101" s="58"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="30"/>
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="62"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="41"/>
       <c r="F102" s="6" t="s">
         <v>116</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H102" s="55"/>
-      <c r="I102" s="58"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="30"/>
     </row>
     <row r="103" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="62"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="41"/>
       <c r="F103" s="6" t="s">
         <v>117</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H103" s="55"/>
-      <c r="I103" s="58"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="30"/>
     </row>
     <row r="104" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="62"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="41"/>
       <c r="F104" s="6" t="s">
         <v>118</v>
       </c>
       <c r="G104" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H104" s="55"/>
-      <c r="I104" s="58"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="30"/>
     </row>
     <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="36"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="63"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="42"/>
       <c r="F105" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G105" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H105" s="55"/>
-      <c r="I105" s="58"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="30"/>
     </row>
     <row r="106" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
-      <c r="B106" s="36"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="63"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="42"/>
       <c r="F106" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G106" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H106" s="55"/>
-      <c r="I106" s="58"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="30"/>
     </row>
     <row r="107" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="34"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="63"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="42"/>
       <c r="F107" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G107" s="23"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="58"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="30"/>
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="63"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="42"/>
       <c r="F108" s="10"/>
       <c r="G108" s="23"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="59"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="31"/>
     </row>
     <row r="109" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="33">
+      <c r="A109" s="36">
         <v>20</v>
       </c>
-      <c r="B109" s="35" t="s">
+      <c r="B109" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="37" t="s">
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="63" t="s">
         <v>37</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G109" s="24"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="57"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="29"/>
     </row>
     <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
-      <c r="B110" s="36"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="36"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="39"/>
       <c r="F110" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G110" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H110" s="55"/>
-      <c r="I110" s="58"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="30"/>
     </row>
     <row r="111" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="36"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="39"/>
       <c r="F111" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G111" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H111" s="55"/>
-      <c r="I111" s="58"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="30"/>
     </row>
     <row r="112" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
-      <c r="B112" s="36"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="36"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="39"/>
       <c r="F112" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G112" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H112" s="55"/>
-      <c r="I112" s="58"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="30"/>
     </row>
     <row r="113" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
-      <c r="B113" s="36"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="38"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="56"/>
       <c r="F113" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G113" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H113" s="55"/>
-      <c r="I113" s="58"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="30"/>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
-      <c r="B114" s="36"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="38"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="56"/>
       <c r="F114" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G114" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H114" s="55"/>
-      <c r="I114" s="58"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="30"/>
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="34"/>
-      <c r="B115" s="36"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="38"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="56"/>
       <c r="F115" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G115" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H115" s="55"/>
-      <c r="I115" s="58"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="30"/>
     </row>
     <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="34"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="38"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="56"/>
       <c r="F116" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G116" s="23"/>
-      <c r="H116" s="55"/>
-      <c r="I116" s="58"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="30"/>
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="34"/>
-      <c r="B117" s="36"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="38"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="56"/>
       <c r="F117" s="13"/>
       <c r="G117" s="26"/>
-      <c r="H117" s="56"/>
-      <c r="I117" s="59"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="31"/>
     </row>
     <row r="118" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="29">
+      <c r="A118" s="57">
         <v>21</v>
       </c>
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="31" t="s">
+      <c r="C118" s="57"/>
+      <c r="D118" s="57"/>
+      <c r="E118" s="61" t="s">
         <v>37</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>126</v>
       </c>
       <c r="G118" s="21"/>
-      <c r="H118" s="54"/>
-      <c r="I118" s="57"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="29"/>
     </row>
     <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="30"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="32"/>
+      <c r="A119" s="58"/>
+      <c r="B119" s="62"/>
+      <c r="C119" s="58"/>
+      <c r="D119" s="58"/>
+      <c r="E119" s="62"/>
       <c r="F119" s="9" t="s">
         <v>127</v>
       </c>
       <c r="G119" s="21"/>
-      <c r="H119" s="55"/>
-      <c r="I119" s="58"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="30"/>
     </row>
     <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="32"/>
+      <c r="A120" s="58"/>
+      <c r="B120" s="62"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="62"/>
       <c r="F120" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G120" s="21"/>
-      <c r="H120" s="55"/>
-      <c r="I120" s="58"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="30"/>
     </row>
     <row r="121" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="30"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="32"/>
+      <c r="A121" s="58"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="62"/>
       <c r="F121" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G121" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H121" s="55"/>
-      <c r="I121" s="58"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="30"/>
     </row>
     <row r="122" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="30"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="32"/>
+      <c r="A122" s="58"/>
+      <c r="B122" s="62"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="58"/>
+      <c r="E122" s="62"/>
       <c r="F122" s="9"/>
       <c r="G122" s="21"/>
-      <c r="H122" s="56"/>
-      <c r="I122" s="59"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="31"/>
     </row>
     <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="29">
+      <c r="A123" s="57">
         <v>22</v>
       </c>
-      <c r="B123" s="31" t="s">
+      <c r="B123" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="C123" s="29"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="31" t="s">
+      <c r="C123" s="57"/>
+      <c r="D123" s="57"/>
+      <c r="E123" s="61" t="s">
         <v>37</v>
       </c>
       <c r="F123" s="9" t="s">
@@ -4615,70 +4609,206 @@
       <c r="G123" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H123" s="60"/>
-      <c r="I123" s="57"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="29"/>
     </row>
     <row r="124" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="30"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="32"/>
+      <c r="A124" s="58"/>
+      <c r="B124" s="62"/>
+      <c r="C124" s="58"/>
+      <c r="D124" s="58"/>
+      <c r="E124" s="62"/>
       <c r="F124" s="9" t="s">
         <v>131</v>
       </c>
       <c r="G124" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H124" s="60"/>
-      <c r="I124" s="58"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="30"/>
     </row>
     <row r="125" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="30"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="32"/>
+      <c r="A125" s="58"/>
+      <c r="B125" s="62"/>
+      <c r="C125" s="58"/>
+      <c r="D125" s="58"/>
+      <c r="E125" s="62"/>
       <c r="F125" s="9" t="s">
         <v>133</v>
       </c>
       <c r="G125" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H125" s="60"/>
-      <c r="I125" s="58"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="30"/>
     </row>
     <row r="126" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="30"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="32"/>
+      <c r="A126" s="58"/>
+      <c r="B126" s="62"/>
+      <c r="C126" s="58"/>
+      <c r="D126" s="58"/>
+      <c r="E126" s="62"/>
       <c r="F126" s="9" t="s">
         <v>135</v>
       </c>
       <c r="G126" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H126" s="60"/>
-      <c r="I126" s="58"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="30"/>
     </row>
     <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="30"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="32"/>
+      <c r="A127" s="58"/>
+      <c r="B127" s="62"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="62"/>
       <c r="F127" s="9"/>
       <c r="G127" s="21"/>
-      <c r="H127" s="60"/>
-      <c r="I127" s="59"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="31"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="160">
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="D123:D127"/>
+    <mergeCell ref="E123:E127"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="E118:E122"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="B109:B117"/>
+    <mergeCell ref="C109:C117"/>
+    <mergeCell ref="D109:D117"/>
+    <mergeCell ref="E109:E117"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:E108"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="D92:D99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="D37:D44"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="A54:A66"/>
+    <mergeCell ref="B54:B66"/>
+    <mergeCell ref="C54:C66"/>
+    <mergeCell ref="D54:D66"/>
+    <mergeCell ref="E54:E66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H25"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I100:I108"/>
+    <mergeCell ref="I109:I117"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H66"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="H74:H81"/>
+    <mergeCell ref="H82:H86"/>
+    <mergeCell ref="H87:H91"/>
+    <mergeCell ref="H92:H99"/>
     <mergeCell ref="I118:I122"/>
     <mergeCell ref="I123:I127"/>
     <mergeCell ref="H100:H108"/>
@@ -4703,142 +4833,6 @@
     <mergeCell ref="I82:I86"/>
     <mergeCell ref="I87:I91"/>
     <mergeCell ref="I92:I99"/>
-    <mergeCell ref="I100:I108"/>
-    <mergeCell ref="I109:I117"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H66"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="H74:H81"/>
-    <mergeCell ref="H82:H86"/>
-    <mergeCell ref="H87:H91"/>
-    <mergeCell ref="H92:H99"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H25"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="A54:A66"/>
-    <mergeCell ref="B54:B66"/>
-    <mergeCell ref="C54:C66"/>
-    <mergeCell ref="D54:D66"/>
-    <mergeCell ref="E54:E66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="D37:D44"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="E74:E81"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="D92:D99"/>
-    <mergeCell ref="E92:E99"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="A109:A117"/>
-    <mergeCell ref="B109:B117"/>
-    <mergeCell ref="C109:C117"/>
-    <mergeCell ref="D109:D117"/>
-    <mergeCell ref="E109:E117"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:E108"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="D123:D127"/>
-    <mergeCell ref="E123:E127"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="B118:B122"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="E118:E122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Cases.xlsx
+++ b/docs/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\education\education_QA\diplom_QA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A740FF7-4D78-4CF2-A391-859E72E8B57A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A579E23-5381-475C-9360-979F06481A16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="143">
   <si>
     <t>ID</t>
   </si>
@@ -807,26 +807,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -838,6 +827,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -847,6 +842,33 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -862,54 +884,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,7 +945,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2760,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,363 +2807,363 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="29"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="30"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="39"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="30"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="39"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="6"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="31"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="38" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="29"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="61"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="39"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="30"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="62"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="39"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="30"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="62"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="39"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="6"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="63"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="33">
         <v>3</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="38" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="29"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="39"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="30"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="62"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="39"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="30"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="39"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="6"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="63"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="33">
         <v>4</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="38" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="29"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="61"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="39"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="30"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="39"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="30"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="10"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="31"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="63"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="A18" s="33">
         <v>5</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="38" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="29" t="s">
+      <c r="H18" s="58"/>
+      <c r="I18" s="61" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="39"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="30"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="39"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="30"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="39"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="30"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="39"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="30"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="56"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="30"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="56"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="30"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="56"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="14"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="63"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57">
+      <c r="A26" s="29">
         <v>6</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="61" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -3172,75 +3172,75 @@
       <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="29"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="61"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="62"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="30"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="62"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="30"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="62"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="30"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="62"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="10"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="31"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="63"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50">
+      <c r="A31" s="56">
         <v>7</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="52" t="s">
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="47" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3249,90 +3249,90 @@
       <c r="G31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="29"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="53"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="30"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="62"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="53"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="30"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="53"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="30"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="53"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="33"/>
-      <c r="I35" s="30"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="53"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="10"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="31"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="63"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36">
+      <c r="A37" s="33">
         <v>8</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="40" t="s">
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="39" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -3341,212 +3341,210 @@
       <c r="G37" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="29" t="s">
-        <v>142</v>
-      </c>
+      <c r="H37" s="58"/>
+      <c r="I37" s="61"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="41"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="33"/>
-      <c r="I38" s="30"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="41"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="30"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="42"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="41"/>
       <c r="F40" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="33"/>
-      <c r="I40" s="30"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="42"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="41"/>
       <c r="F41" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="33"/>
-      <c r="I41" s="30"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="42"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="41"/>
       <c r="F42" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="33"/>
-      <c r="I42" s="30"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="42"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="33"/>
-      <c r="I43" s="30"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="42"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="41"/>
       <c r="F44" s="9"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="31"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="63"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36">
+      <c r="A45" s="33">
         <v>9</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="38"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="32"/>
-      <c r="I45" s="29"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="61"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="39"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H46" s="33"/>
-      <c r="I46" s="30"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="39"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="6"/>
       <c r="G47" s="21"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="31"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="63"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36">
+      <c r="A48" s="33">
         <v>10</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="38"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="32"/>
-      <c r="I48" s="29"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="61"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="39"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="33"/>
-      <c r="I49" s="30"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="62"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="39"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="6"/>
       <c r="G50" s="21"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="31"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="63"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
+      <c r="A51" s="33">
         <v>11</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="38" t="s">
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="35" t="s">
         <v>37</v>
       </c>
       <c r="F51" s="15" t="s">
@@ -3555,1052 +3553,1050 @@
       <c r="G51" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="32"/>
-      <c r="I51" s="29" t="s">
+      <c r="H51" s="58"/>
+      <c r="I51" s="61" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="39"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="33"/>
-      <c r="I52" s="30"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="62"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="39"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="6"/>
       <c r="G53" s="21"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="31"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="63"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36">
+      <c r="A54" s="33">
         <v>12</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="40" t="s">
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="39" t="s">
         <v>47</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G54" s="24"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="29" t="s">
+      <c r="H54" s="58"/>
+      <c r="I54" s="61" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="41"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="40"/>
       <c r="F55" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H55" s="33"/>
-      <c r="I55" s="30"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="62"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="41"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="40"/>
       <c r="F56" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="33"/>
-      <c r="I56" s="30"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="62"/>
     </row>
     <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="41"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="40"/>
       <c r="F57" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="33"/>
-      <c r="I57" s="30"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="62"/>
     </row>
     <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="41"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="40"/>
       <c r="F58" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="33"/>
-      <c r="I58" s="30"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="62"/>
     </row>
     <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="42"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H59" s="33"/>
-      <c r="I59" s="30"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="62"/>
     </row>
     <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="42"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="41"/>
       <c r="F60" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="33"/>
-      <c r="I60" s="30"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="62"/>
     </row>
     <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="42"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="41"/>
       <c r="F61" s="9" t="s">
         <v>77</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H61" s="33"/>
-      <c r="I61" s="30"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="62"/>
     </row>
     <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="42"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="41"/>
       <c r="F62" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H62" s="33"/>
-      <c r="I62" s="30"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="62"/>
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="42"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="41"/>
       <c r="F63" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G63" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H63" s="33"/>
-      <c r="I63" s="30"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="62"/>
     </row>
     <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="42"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="41"/>
       <c r="F64" s="9" t="s">
         <v>79</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H64" s="33"/>
-      <c r="I64" s="30"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="62"/>
     </row>
     <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="42"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="41"/>
       <c r="F65" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G65" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H65" s="33"/>
-      <c r="I65" s="30"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="62"/>
     </row>
     <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="42"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="41"/>
       <c r="F66" s="10"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="31"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="63"/>
     </row>
     <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36">
+      <c r="A67" s="33">
         <v>13</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="40" t="s">
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="39" t="s">
         <v>47</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G67" s="24"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="29" t="s">
-        <v>139</v>
-      </c>
+      <c r="H67" s="58"/>
+      <c r="I67" s="61"/>
     </row>
     <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="41"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="40"/>
       <c r="F68" s="15" t="s">
         <v>71</v>
       </c>
       <c r="G68" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H68" s="33"/>
-      <c r="I68" s="30"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="62"/>
     </row>
     <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="41"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="40"/>
       <c r="F69" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G69" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H69" s="33"/>
-      <c r="I69" s="30"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="62"/>
     </row>
     <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="41"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="40"/>
       <c r="F70" s="6"/>
       <c r="G70" s="21"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="31"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="63"/>
     </row>
     <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36">
+      <c r="A71" s="33">
         <v>14</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="40" t="s">
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="39" t="s">
         <v>47</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="24"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="29"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="61"/>
     </row>
     <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="41"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="40"/>
       <c r="F72" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H72" s="33"/>
-      <c r="I72" s="30"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="62"/>
     </row>
     <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="41"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="40"/>
       <c r="F73" s="6"/>
       <c r="G73" s="21"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="31"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="63"/>
     </row>
     <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36">
+      <c r="A74" s="33">
         <v>15</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="40" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="39" t="s">
         <v>47</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G74" s="24"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="29"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="61"/>
     </row>
     <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="41"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="40"/>
       <c r="F75" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H75" s="33"/>
-      <c r="I75" s="30"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="62"/>
     </row>
     <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="41"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="40"/>
       <c r="F76" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G76" s="21"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="30"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="62"/>
     </row>
     <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="41"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="40"/>
       <c r="F77" s="6" t="s">
         <v>90</v>
       </c>
       <c r="G77" s="21"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="30"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="62"/>
     </row>
     <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="41"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="40"/>
       <c r="F78" s="8" t="s">
         <v>91</v>
       </c>
       <c r="G78" s="25"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="30"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="62"/>
     </row>
     <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="42"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="41"/>
       <c r="F79" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G79" s="23"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="30"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="62"/>
     </row>
     <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="42"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="41"/>
       <c r="F80" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H80" s="33"/>
-      <c r="I80" s="30"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="62"/>
     </row>
     <row r="81" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="42"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="41"/>
       <c r="F81" s="10"/>
       <c r="G81" s="23"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="31"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="63"/>
     </row>
     <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="36">
+      <c r="A82" s="33">
         <v>16</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="40" t="s">
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="39" t="s">
         <v>47</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G82" s="24"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="29"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="61"/>
     </row>
     <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="41"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="40"/>
       <c r="F83" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G83" s="21"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="30"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="62"/>
     </row>
     <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="41"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="40"/>
       <c r="F84" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G84" s="21"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="30"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="62"/>
     </row>
     <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="41"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="40"/>
       <c r="F85" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G85" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H85" s="33"/>
-      <c r="I85" s="30"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="62"/>
     </row>
     <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="42"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="41"/>
       <c r="F86" s="9"/>
       <c r="G86" s="21"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="31"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="63"/>
     </row>
     <row r="87" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="36">
+      <c r="A87" s="33">
         <v>17</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="64" t="s">
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="42" t="s">
         <v>47</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G87" s="21"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="29"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="61"/>
     </row>
     <row r="88" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="41"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="40"/>
       <c r="F88" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G88" s="24"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="30"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="62"/>
     </row>
     <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="41"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="40"/>
       <c r="F89" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G89" s="21"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="30"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="62"/>
     </row>
     <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="41"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="40"/>
       <c r="F90" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G90" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H90" s="33"/>
-      <c r="I90" s="30"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="62"/>
     </row>
     <row r="91" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="42"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="41"/>
       <c r="F91" s="9"/>
       <c r="G91" s="21"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="31"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="63"/>
     </row>
     <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="36">
+      <c r="A92" s="33">
         <v>18</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="63" t="s">
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="37" t="s">
         <v>37</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G92" s="21"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="29"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="61"/>
     </row>
     <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="39"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="36"/>
       <c r="F93" s="15" t="s">
         <v>106</v>
       </c>
       <c r="G93" s="24"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="30"/>
+      <c r="H93" s="59"/>
+      <c r="I93" s="62"/>
     </row>
     <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="39"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="36"/>
       <c r="F94" s="6" t="s">
         <v>107</v>
       </c>
       <c r="G94" s="21"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="30"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="62"/>
     </row>
     <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="39"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="36"/>
       <c r="F95" s="8" t="s">
         <v>108</v>
       </c>
       <c r="G95" s="21"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="30"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="62"/>
     </row>
     <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="56"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="38"/>
       <c r="F96" s="9" t="s">
         <v>109</v>
       </c>
       <c r="G96" s="25"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="30"/>
+      <c r="H96" s="59"/>
+      <c r="I96" s="62"/>
     </row>
     <row r="97" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="56"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="38"/>
       <c r="F97" s="15" t="s">
         <v>110</v>
       </c>
       <c r="G97" s="23"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="30"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="62"/>
     </row>
     <row r="98" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="56"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="38"/>
       <c r="F98" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G98" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H98" s="33"/>
-      <c r="I98" s="30"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="62"/>
     </row>
     <row r="99" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="56"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="38"/>
       <c r="F99" s="10"/>
       <c r="G99" s="23"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="31"/>
+      <c r="H99" s="60"/>
+      <c r="I99" s="63"/>
     </row>
     <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36">
+      <c r="A100" s="33">
         <v>19</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="40" t="s">
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="39" t="s">
         <v>47</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G100" s="24"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="29"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="61"/>
     </row>
     <row r="101" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="41"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="40"/>
       <c r="F101" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G101" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H101" s="33"/>
-      <c r="I101" s="30"/>
+      <c r="H101" s="59"/>
+      <c r="I101" s="62"/>
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="41"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="40"/>
       <c r="F102" s="6" t="s">
         <v>116</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H102" s="33"/>
-      <c r="I102" s="30"/>
+      <c r="H102" s="59"/>
+      <c r="I102" s="62"/>
     </row>
     <row r="103" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="41"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="40"/>
       <c r="F103" s="6" t="s">
         <v>117</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H103" s="33"/>
-      <c r="I103" s="30"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="62"/>
     </row>
     <row r="104" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="41"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="40"/>
       <c r="F104" s="6" t="s">
         <v>118</v>
       </c>
       <c r="G104" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H104" s="33"/>
-      <c r="I104" s="30"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="62"/>
     </row>
     <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="42"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="41"/>
       <c r="F105" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G105" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H105" s="33"/>
-      <c r="I105" s="30"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="62"/>
     </row>
     <row r="106" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="42"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="41"/>
       <c r="F106" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G106" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H106" s="33"/>
-      <c r="I106" s="30"/>
+      <c r="H106" s="59"/>
+      <c r="I106" s="62"/>
     </row>
     <row r="107" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="42"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="41"/>
       <c r="F107" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G107" s="23"/>
-      <c r="H107" s="33"/>
-      <c r="I107" s="30"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="62"/>
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="42"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="41"/>
       <c r="F108" s="10"/>
       <c r="G108" s="23"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="31"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="63"/>
     </row>
     <row r="109" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="36">
+      <c r="A109" s="33">
         <v>20</v>
       </c>
-      <c r="B109" s="38" t="s">
+      <c r="B109" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="63" t="s">
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="37" t="s">
         <v>37</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G109" s="24"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="29"/>
+      <c r="H109" s="58"/>
+      <c r="I109" s="61"/>
     </row>
     <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="39"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="36"/>
       <c r="F110" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G110" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H110" s="33"/>
-      <c r="I110" s="30"/>
+      <c r="H110" s="59"/>
+      <c r="I110" s="62"/>
     </row>
     <row r="111" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="39"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="36"/>
       <c r="F111" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G111" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H111" s="33"/>
-      <c r="I111" s="30"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="62"/>
     </row>
     <row r="112" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="39"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="36"/>
       <c r="F112" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G112" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H112" s="33"/>
-      <c r="I112" s="30"/>
+      <c r="H112" s="59"/>
+      <c r="I112" s="62"/>
     </row>
     <row r="113" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="56"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="38"/>
       <c r="F113" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G113" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H113" s="33"/>
-      <c r="I113" s="30"/>
+      <c r="H113" s="59"/>
+      <c r="I113" s="62"/>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="56"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="38"/>
       <c r="F114" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G114" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H114" s="33"/>
-      <c r="I114" s="30"/>
+      <c r="H114" s="59"/>
+      <c r="I114" s="62"/>
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="56"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="38"/>
       <c r="F115" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G115" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H115" s="33"/>
-      <c r="I115" s="30"/>
+      <c r="H115" s="59"/>
+      <c r="I115" s="62"/>
     </row>
     <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="56"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="38"/>
       <c r="F116" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G116" s="23"/>
-      <c r="H116" s="33"/>
-      <c r="I116" s="30"/>
+      <c r="H116" s="59"/>
+      <c r="I116" s="62"/>
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="56"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="38"/>
       <c r="F117" s="13"/>
       <c r="G117" s="26"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="31"/>
+      <c r="H117" s="60"/>
+      <c r="I117" s="63"/>
     </row>
     <row r="118" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="57">
+      <c r="A118" s="29">
         <v>21</v>
       </c>
-      <c r="B118" s="61" t="s">
+      <c r="B118" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="57"/>
-      <c r="D118" s="57"/>
-      <c r="E118" s="61" t="s">
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="31" t="s">
         <v>37</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>126</v>
       </c>
       <c r="G118" s="21"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="29"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="61"/>
     </row>
     <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="58"/>
-      <c r="B119" s="62"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="58"/>
-      <c r="E119" s="62"/>
+      <c r="A119" s="30"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="32"/>
       <c r="F119" s="9" t="s">
         <v>127</v>
       </c>
       <c r="G119" s="21"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="30"/>
+      <c r="H119" s="59"/>
+      <c r="I119" s="62"/>
     </row>
     <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="58"/>
-      <c r="B120" s="62"/>
-      <c r="C120" s="58"/>
-      <c r="D120" s="58"/>
-      <c r="E120" s="62"/>
+      <c r="A120" s="30"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="32"/>
       <c r="F120" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G120" s="21"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="30"/>
+      <c r="H120" s="59"/>
+      <c r="I120" s="62"/>
     </row>
     <row r="121" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="58"/>
-      <c r="B121" s="62"/>
-      <c r="C121" s="58"/>
-      <c r="D121" s="58"/>
-      <c r="E121" s="62"/>
+      <c r="A121" s="30"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="32"/>
       <c r="F121" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G121" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H121" s="33"/>
-      <c r="I121" s="30"/>
+      <c r="H121" s="59"/>
+      <c r="I121" s="62"/>
     </row>
     <row r="122" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="58"/>
-      <c r="B122" s="62"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="58"/>
-      <c r="E122" s="62"/>
+      <c r="A122" s="30"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="32"/>
       <c r="F122" s="9"/>
       <c r="G122" s="21"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="31"/>
+      <c r="H122" s="60"/>
+      <c r="I122" s="63"/>
     </row>
     <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="57">
+      <c r="A123" s="29">
         <v>22</v>
       </c>
-      <c r="B123" s="61" t="s">
+      <c r="B123" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C123" s="57"/>
-      <c r="D123" s="57"/>
-      <c r="E123" s="61" t="s">
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="31" t="s">
         <v>37</v>
       </c>
       <c r="F123" s="9" t="s">
@@ -4609,110 +4605,166 @@
       <c r="G123" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H123" s="35"/>
-      <c r="I123" s="29"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="61"/>
     </row>
     <row r="124" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="58"/>
-      <c r="B124" s="62"/>
-      <c r="C124" s="58"/>
-      <c r="D124" s="58"/>
-      <c r="E124" s="62"/>
+      <c r="A124" s="30"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="32"/>
       <c r="F124" s="9" t="s">
         <v>131</v>
       </c>
       <c r="G124" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H124" s="35"/>
-      <c r="I124" s="30"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="62"/>
     </row>
     <row r="125" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="58"/>
-      <c r="B125" s="62"/>
-      <c r="C125" s="58"/>
-      <c r="D125" s="58"/>
-      <c r="E125" s="62"/>
+      <c r="A125" s="30"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="32"/>
       <c r="F125" s="9" t="s">
         <v>133</v>
       </c>
       <c r="G125" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H125" s="35"/>
-      <c r="I125" s="30"/>
+      <c r="H125" s="64"/>
+      <c r="I125" s="62"/>
     </row>
     <row r="126" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="58"/>
-      <c r="B126" s="62"/>
-      <c r="C126" s="58"/>
-      <c r="D126" s="58"/>
-      <c r="E126" s="62"/>
+      <c r="A126" s="30"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="32"/>
       <c r="F126" s="9" t="s">
         <v>135</v>
       </c>
       <c r="G126" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H126" s="35"/>
-      <c r="I126" s="30"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="62"/>
     </row>
     <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="58"/>
-      <c r="B127" s="62"/>
-      <c r="C127" s="58"/>
-      <c r="D127" s="58"/>
-      <c r="E127" s="62"/>
+      <c r="A127" s="30"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="32"/>
       <c r="F127" s="9"/>
       <c r="G127" s="21"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="31"/>
+      <c r="H127" s="64"/>
+      <c r="I127" s="63"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="160">
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="D123:D127"/>
-    <mergeCell ref="E123:E127"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="B118:B122"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="E118:E122"/>
-    <mergeCell ref="A109:A117"/>
-    <mergeCell ref="B109:B117"/>
-    <mergeCell ref="C109:C117"/>
-    <mergeCell ref="D109:D117"/>
-    <mergeCell ref="E109:E117"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:E108"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="D92:D99"/>
-    <mergeCell ref="E92:E99"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="I118:I122"/>
+    <mergeCell ref="I123:I127"/>
+    <mergeCell ref="H100:H108"/>
+    <mergeCell ref="H109:H117"/>
+    <mergeCell ref="H118:H122"/>
+    <mergeCell ref="H123:H127"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I18:I25"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="I37:I44"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="I54:I66"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="I74:I81"/>
+    <mergeCell ref="I82:I86"/>
+    <mergeCell ref="I87:I91"/>
+    <mergeCell ref="I92:I99"/>
+    <mergeCell ref="I100:I108"/>
+    <mergeCell ref="I109:I117"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H66"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="H74:H81"/>
+    <mergeCell ref="H82:H86"/>
+    <mergeCell ref="H87:H91"/>
+    <mergeCell ref="H92:H99"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H25"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="A54:A66"/>
+    <mergeCell ref="B54:B66"/>
+    <mergeCell ref="C54:C66"/>
+    <mergeCell ref="D54:D66"/>
+    <mergeCell ref="E54:E66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="D37:D44"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="C71:C73"/>
@@ -4737,102 +4789,46 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="D37:D44"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="A54:A66"/>
-    <mergeCell ref="B54:B66"/>
-    <mergeCell ref="C54:C66"/>
-    <mergeCell ref="D54:D66"/>
-    <mergeCell ref="E54:E66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H25"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I100:I108"/>
-    <mergeCell ref="I109:I117"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H66"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="H74:H81"/>
-    <mergeCell ref="H82:H86"/>
-    <mergeCell ref="H87:H91"/>
-    <mergeCell ref="H92:H99"/>
-    <mergeCell ref="I118:I122"/>
-    <mergeCell ref="I123:I127"/>
-    <mergeCell ref="H100:H108"/>
-    <mergeCell ref="H109:H117"/>
-    <mergeCell ref="H118:H122"/>
-    <mergeCell ref="H123:H127"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="I18:I25"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="I37:I44"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="I54:I66"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="I74:I81"/>
-    <mergeCell ref="I82:I86"/>
-    <mergeCell ref="I87:I91"/>
-    <mergeCell ref="I92:I99"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="D92:D99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="B109:B117"/>
+    <mergeCell ref="C109:C117"/>
+    <mergeCell ref="D109:D117"/>
+    <mergeCell ref="E109:E117"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:E108"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="D123:D127"/>
+    <mergeCell ref="E123:E127"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="E118:E122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Cases.xlsx
+++ b/docs/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\education\education_QA\diplom_QA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A579E23-5381-475C-9360-979F06481A16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8104577B-ECD6-4F90-BD9B-84FEB794DD11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="141">
   <si>
     <t>ID</t>
   </si>
@@ -446,13 +446,7 @@
     <t>Причина по которой кейс не будет автоматизирован</t>
   </si>
   <si>
-    <t>На данный момент не представляю как буду проводить проверку результата. Возможно в процессе написания кода я изменю решение.</t>
-  </si>
-  <si>
     <t>Тест заваливается на ассерте!!!!</t>
-  </si>
-  <si>
-    <t>Упорядочивание списка зявок</t>
   </si>
   <si>
     <t>Не пониманию на данный момент как сделать проверку</t>
@@ -721,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -807,15 +801,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -827,89 +832,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,7 +1014,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1701,7 +1710,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>1219200</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1761,13 +1770,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>57</xdr:row>
+          <xdr:row>54</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1219200</xdr:colOff>
-          <xdr:row>61</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1828,13 +1837,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>63</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1219200</xdr:colOff>
-          <xdr:row>69</xdr:row>
+          <xdr:row>66</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1895,13 +1904,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>69</xdr:row>
+          <xdr:row>66</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1219200</xdr:colOff>
-          <xdr:row>73</xdr:row>
+          <xdr:row>70</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1962,13 +1971,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>74</xdr:row>
+          <xdr:row>71</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1209675</xdr:colOff>
-          <xdr:row>78</xdr:row>
+          <xdr:row>75</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2029,13 +2038,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>81</xdr:row>
+          <xdr:row>78</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1219200</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>81</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2096,13 +2105,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>86</xdr:row>
+          <xdr:row>83</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1219200</xdr:colOff>
-          <xdr:row>89</xdr:row>
+          <xdr:row>86</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2163,13 +2172,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>92</xdr:row>
+          <xdr:row>89</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1257300</xdr:colOff>
-          <xdr:row>96</xdr:row>
+          <xdr:row>93</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2230,13 +2239,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>97</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1238250</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2297,13 +2306,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1238250</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2364,13 +2373,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>117</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1238250</xdr:colOff>
-          <xdr:row>121</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2431,13 +2440,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>122</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1247775</xdr:colOff>
-          <xdr:row>125</xdr:row>
+          <xdr:row>122</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2758,10 +2767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,363 +2816,363 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="35" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="61"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="62"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="44"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="62"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="44"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="6"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="63"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="36">
         <v>2</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="35" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="62"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="62"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="44"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="6"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="63"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="36">
         <v>3</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="35" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="61"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="62"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="62"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="44"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="6"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="63"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="36">
         <v>4</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="35" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="61"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="62"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="62"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="10"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="63"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="36">
         <v>5</v>
       </c>
       <c r="B18" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="35" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="61" t="s">
-        <v>140</v>
+      <c r="H18" s="32"/>
+      <c r="I18" s="29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="62"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="44"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="62"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="62"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="44"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="59"/>
-      <c r="I22" s="62"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="38"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="56"/>
       <c r="F23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="62"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="38"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="56"/>
       <c r="F24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="62"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="44"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="38"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="14"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="63"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="57">
         <v>6</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="31" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="61" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -3172,75 +3181,75 @@
       <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="61"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="62"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="59"/>
-      <c r="I28" s="62"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="59"/>
-      <c r="I29" s="62"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="32"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="10"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="63"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56">
+      <c r="A31" s="50">
         <v>7</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="47" t="s">
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="52" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3249,90 +3258,90 @@
       <c r="G31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="61"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="48"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="59"/>
-      <c r="I32" s="62"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="48"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="59"/>
-      <c r="I33" s="62"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="48"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="59"/>
-      <c r="I34" s="62"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="48"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="59"/>
-      <c r="I35" s="62"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="48"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="10"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="63"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="36">
         <v>8</v>
       </c>
       <c r="B37" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="39" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="65" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -3341,1435 +3350,1330 @@
       <c r="G37" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="58"/>
-      <c r="I37" s="61"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="44"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="40"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="59"/>
-      <c r="I38" s="62"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="44"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="40"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="66"/>
       <c r="F39" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="59"/>
-      <c r="I39" s="62"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="44"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="41"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="67"/>
       <c r="F40" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="59"/>
-      <c r="I40" s="62"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="44"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="41"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="67"/>
       <c r="F41" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="59"/>
-      <c r="I41" s="62"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="44"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="41"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="67"/>
       <c r="F42" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="59"/>
-      <c r="I42" s="62"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="44"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="41"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="67"/>
       <c r="F43" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="59"/>
-      <c r="I43" s="62"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="44"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="41"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="67"/>
       <c r="F44" s="9"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="63"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33">
+      <c r="A45" s="36">
         <v>9</v>
       </c>
       <c r="B45" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="35"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="58"/>
-      <c r="I45" s="61"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="29"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="44"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H46" s="59"/>
-      <c r="I46" s="62"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="44"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="6"/>
       <c r="G47" s="21"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="63"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33">
+      <c r="A48" s="36">
         <v>10</v>
       </c>
       <c r="B48" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="58"/>
-      <c r="I48" s="61"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="29"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="44"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="59"/>
-      <c r="I49" s="62"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="44"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="36"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="39"/>
       <c r="F50" s="6"/>
       <c r="G50" s="21"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="63"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33">
+      <c r="A51" s="36">
         <v>11</v>
       </c>
-      <c r="B51" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="35" t="s">
-        <v>37</v>
+      <c r="B51" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="F51" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="24"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="37"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" s="33"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="37"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H53" s="33"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="37"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" s="33"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="37"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="33"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="37"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="33"/>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="37"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="33"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="37"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H58" s="33"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="37"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H59" s="33"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="37"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="33"/>
+      <c r="I60" s="30"/>
+    </row>
+    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="37"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" s="33"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="37"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H62" s="33"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="37"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="31"/>
+    </row>
+    <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="36">
+        <v>12</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="29"/>
+    </row>
+    <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="37"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G51" s="24" t="s">
+      <c r="G65" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="58"/>
-      <c r="I51" s="61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="15" t="s">
+      <c r="H65" s="33"/>
+      <c r="I65" s="30"/>
+    </row>
+    <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="37"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G66" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="59"/>
-      <c r="I52" s="62"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="63"/>
-    </row>
-    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33">
-        <v>12</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="39" t="s">
+      <c r="H66" s="33"/>
+      <c r="I66" s="30"/>
+    </row>
+    <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="37"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="31"/>
+    </row>
+    <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="36">
+        <v>13</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F68" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G54" s="24"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="61" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H55" s="59"/>
-      <c r="I55" s="62"/>
-    </row>
-    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G56" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H56" s="59"/>
-      <c r="I56" s="62"/>
-    </row>
-    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H57" s="59"/>
-      <c r="I57" s="62"/>
-    </row>
-    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" s="59"/>
-      <c r="I58" s="62"/>
-    </row>
-    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H59" s="59"/>
-      <c r="I59" s="62"/>
-    </row>
-    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G60" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H60" s="59"/>
-      <c r="I60" s="62"/>
-    </row>
-    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H61" s="59"/>
-      <c r="I61" s="62"/>
-    </row>
-    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="H62" s="59"/>
-      <c r="I62" s="62"/>
-    </row>
-    <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H63" s="59"/>
-      <c r="I63" s="62"/>
-    </row>
-    <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G64" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H64" s="59"/>
-      <c r="I64" s="62"/>
-    </row>
-    <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H65" s="59"/>
-      <c r="I65" s="62"/>
-    </row>
-    <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="63"/>
-    </row>
-    <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33">
-        <v>13</v>
-      </c>
-      <c r="B67" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" s="24"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="61"/>
-    </row>
-    <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G68" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H68" s="59"/>
-      <c r="I68" s="62"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="29"/>
     </row>
     <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G69" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H69" s="59"/>
-      <c r="I69" s="62"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H69" s="33"/>
+      <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="40"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="41"/>
       <c r="F70" s="6"/>
       <c r="G70" s="21"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="63"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="31"/>
     </row>
     <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="33">
+      <c r="A71" s="36">
         <v>14</v>
       </c>
-      <c r="B71" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="39" t="s">
+      <c r="B71" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="40" t="s">
         <v>47</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="24"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="61"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="29"/>
     </row>
     <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="40"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="41"/>
       <c r="F72" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H72" s="59"/>
-      <c r="I72" s="62"/>
+        <v>88</v>
+      </c>
+      <c r="H72" s="33"/>
+      <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="6"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="G73" s="21"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="63"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="33">
+      <c r="A74" s="37"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G74" s="21"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="30"/>
+    </row>
+    <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="37"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="25"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="30"/>
+    </row>
+    <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="37"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G76" s="23"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="30"/>
+    </row>
+    <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="37"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H77" s="33"/>
+      <c r="I77" s="30"/>
+    </row>
+    <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="37"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="31"/>
+    </row>
+    <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="36">
         <v>15</v>
       </c>
-      <c r="B74" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="39" t="s">
+      <c r="B79" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F79" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G74" s="24"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="61"/>
-    </row>
-    <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="11" t="s">
+      <c r="G79" s="24"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="29"/>
+    </row>
+    <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="37"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G80" s="21"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="30"/>
+    </row>
+    <row r="81" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="37"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G81" s="21"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="30"/>
+    </row>
+    <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="37"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H82" s="33"/>
+      <c r="I82" s="30"/>
+    </row>
+    <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="37"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="31"/>
+    </row>
+    <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="36">
+        <v>16</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G84" s="21"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="29"/>
+    </row>
+    <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="37"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G85" s="24"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="30"/>
+    </row>
+    <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="37"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G86" s="21"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="30"/>
+    </row>
+    <row r="87" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="37"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G87" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="H87" s="33"/>
+      <c r="I87" s="30"/>
+    </row>
+    <row r="88" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="37"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="31"/>
+    </row>
+    <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="36">
+        <v>17</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G75" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H75" s="59"/>
-      <c r="I75" s="62"/>
-    </row>
-    <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" s="21"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="62"/>
-    </row>
-    <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G77" s="21"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="62"/>
-    </row>
-    <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="25"/>
-      <c r="H78" s="59"/>
-      <c r="I78" s="62"/>
-    </row>
-    <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G79" s="23"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="62"/>
-    </row>
-    <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="H80" s="59"/>
-      <c r="I80" s="62"/>
-    </row>
-    <row r="81" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="63"/>
-    </row>
-    <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="33">
-        <v>16</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="39" t="s">
+      <c r="G89" s="21"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="29"/>
+    </row>
+    <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="37"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G90" s="24"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="30"/>
+    </row>
+    <row r="91" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="37"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G91" s="21"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="30"/>
+    </row>
+    <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="37"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G92" s="21"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="30"/>
+    </row>
+    <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="37"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G93" s="25"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="30"/>
+    </row>
+    <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="37"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G94" s="23"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="30"/>
+    </row>
+    <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="37"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H95" s="33"/>
+      <c r="I95" s="30"/>
+    </row>
+    <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="37"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="31"/>
+    </row>
+    <row r="97" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="36">
+        <v>18</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F82" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G82" s="24"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="61"/>
-    </row>
-    <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G83" s="21"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="62"/>
-    </row>
-    <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G84" s="21"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="62"/>
-    </row>
-    <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G85" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H85" s="59"/>
-      <c r="I85" s="62"/>
-    </row>
-    <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="63"/>
-    </row>
-    <row r="87" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="33">
-        <v>17</v>
-      </c>
-      <c r="B87" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G87" s="21"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="61"/>
-    </row>
-    <row r="88" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G88" s="24"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="62"/>
-    </row>
-    <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G89" s="21"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="62"/>
-    </row>
-    <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G90" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="H90" s="59"/>
-      <c r="I90" s="62"/>
-    </row>
-    <row r="91" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
-      <c r="B91" s="36"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="63"/>
-    </row>
-    <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="33">
-        <v>18</v>
-      </c>
-      <c r="B92" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F92" s="11" t="s">
+      <c r="F97" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G92" s="21"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="61"/>
-    </row>
-    <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" s="24"/>
-      <c r="H93" s="59"/>
-      <c r="I93" s="62"/>
-    </row>
-    <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G94" s="21"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="62"/>
-    </row>
-    <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="34"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G95" s="21"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="62"/>
-    </row>
-    <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="34"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G96" s="25"/>
-      <c r="H96" s="59"/>
-      <c r="I96" s="62"/>
-    </row>
-    <row r="97" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="34"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G97" s="23"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="62"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="29"/>
     </row>
     <row r="98" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="34"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G98" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="H98" s="59"/>
-      <c r="I98" s="62"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H98" s="33"/>
+      <c r="I98" s="30"/>
     </row>
     <row r="99" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="60"/>
-      <c r="I99" s="63"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H99" s="33"/>
+      <c r="I99" s="30"/>
     </row>
     <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="33">
-        <v>19</v>
-      </c>
-      <c r="B100" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G100" s="24"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="61"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H100" s="33"/>
+      <c r="I100" s="30"/>
     </row>
     <row r="101" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="34"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="40"/>
-      <c r="F101" s="11" t="s">
-        <v>114</v>
+      <c r="A101" s="37"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="H101" s="59"/>
-      <c r="I101" s="62"/>
+        <v>121</v>
+      </c>
+      <c r="H101" s="33"/>
+      <c r="I101" s="30"/>
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="40"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="42"/>
       <c r="F102" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H102" s="59"/>
-      <c r="I102" s="62"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="30"/>
     </row>
     <row r="103" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="40"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="42"/>
       <c r="F103" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H103" s="59"/>
-      <c r="I103" s="62"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="30"/>
     </row>
     <row r="104" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="40"/>
-      <c r="F104" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G104" s="21" t="s">
+      <c r="A104" s="37"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G104" s="23"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="30"/>
+    </row>
+    <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="37"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="31"/>
+    </row>
+    <row r="106" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="36">
+        <v>19</v>
+      </c>
+      <c r="B106" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G106" s="24"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="29"/>
+    </row>
+    <row r="107" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="37"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H107" s="33"/>
+      <c r="I107" s="30"/>
+    </row>
+    <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="37"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G108" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H104" s="59"/>
-      <c r="I104" s="62"/>
-    </row>
-    <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="36"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="6" t="s">
+      <c r="H108" s="33"/>
+      <c r="I108" s="30"/>
+    </row>
+    <row r="109" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="37"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H109" s="33"/>
+      <c r="I109" s="30"/>
+    </row>
+    <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="37"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H110" s="33"/>
+      <c r="I110" s="30"/>
+    </row>
+    <row r="111" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="37"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="56"/>
+      <c r="F111" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="G105" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="H105" s="59"/>
-      <c r="I105" s="62"/>
-    </row>
-    <row r="106" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
-      <c r="B106" s="36"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G106" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="H106" s="59"/>
-      <c r="I106" s="62"/>
-    </row>
-    <row r="107" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="34"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G107" s="23"/>
-      <c r="H107" s="59"/>
-      <c r="I107" s="62"/>
-    </row>
-    <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="63"/>
-    </row>
-    <row r="109" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="33">
-        <v>20</v>
-      </c>
-      <c r="B109" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G109" s="24"/>
-      <c r="H109" s="58"/>
-      <c r="I109" s="61"/>
-    </row>
-    <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
-      <c r="B110" s="36"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G110" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="H110" s="59"/>
-      <c r="I110" s="62"/>
-    </row>
-    <row r="111" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="G111" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H111" s="59"/>
-      <c r="I111" s="62"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="30"/>
     </row>
     <row r="112" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
-      <c r="B112" s="36"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="36"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="56"/>
       <c r="F112" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G112" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H112" s="59"/>
-      <c r="I112" s="62"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="30"/>
     </row>
     <row r="113" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
-      <c r="B113" s="36"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G113" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="H113" s="59"/>
-      <c r="I113" s="62"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="56"/>
+      <c r="F113" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G113" s="23"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="30"/>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
-      <c r="B114" s="36"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="38"/>
-      <c r="F114" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G114" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="H114" s="59"/>
-      <c r="I114" s="62"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="56"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="31"/>
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="34"/>
-      <c r="B115" s="36"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="38"/>
-      <c r="F115" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G115" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="H115" s="59"/>
-      <c r="I115" s="62"/>
+      <c r="A115" s="57">
+        <v>20</v>
+      </c>
+      <c r="B115" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="57"/>
+      <c r="D115" s="57"/>
+      <c r="E115" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G115" s="21"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="29"/>
     </row>
     <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="34"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G116" s="23"/>
-      <c r="H116" s="59"/>
-      <c r="I116" s="62"/>
+      <c r="A116" s="58"/>
+      <c r="B116" s="62"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="62"/>
+      <c r="F116" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G116" s="21"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="30"/>
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="34"/>
-      <c r="B117" s="36"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="38"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="60"/>
-      <c r="I117" s="63"/>
+      <c r="A117" s="58"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="62"/>
+      <c r="F117" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G117" s="21"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="30"/>
     </row>
     <row r="118" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="29">
+      <c r="A118" s="58"/>
+      <c r="B118" s="62"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="62"/>
+      <c r="F118" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G118" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H118" s="33"/>
+      <c r="I118" s="30"/>
+    </row>
+    <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="58"/>
+      <c r="B119" s="62"/>
+      <c r="C119" s="58"/>
+      <c r="D119" s="58"/>
+      <c r="E119" s="62"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="31"/>
+    </row>
+    <row r="120" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="57">
         <v>21</v>
       </c>
-      <c r="B118" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="31" t="s">
+      <c r="B120" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="57"/>
+      <c r="D120" s="57"/>
+      <c r="E120" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="F118" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G118" s="21"/>
-      <c r="H118" s="58"/>
-      <c r="I118" s="61"/>
-    </row>
-    <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="30"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G119" s="21"/>
-      <c r="H119" s="59"/>
-      <c r="I119" s="62"/>
-    </row>
-    <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="32"/>
       <c r="F120" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G120" s="21"/>
-      <c r="H120" s="59"/>
-      <c r="I120" s="62"/>
-    </row>
-    <row r="121" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="30"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="32"/>
+        <v>129</v>
+      </c>
+      <c r="G120" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H120" s="35"/>
+      <c r="I120" s="29"/>
+    </row>
+    <row r="121" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="58"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="62"/>
       <c r="F121" s="9" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="G121" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H121" s="59"/>
-      <c r="I121" s="62"/>
-    </row>
-    <row r="122" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="30"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="21"/>
-      <c r="H122" s="60"/>
-      <c r="I122" s="63"/>
-    </row>
-    <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="29">
-        <v>22</v>
-      </c>
-      <c r="B123" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C123" s="29"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="31" t="s">
-        <v>37</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H121" s="35"/>
+      <c r="I121" s="30"/>
+    </row>
+    <row r="122" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="58"/>
+      <c r="B122" s="62"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="58"/>
+      <c r="E122" s="62"/>
+      <c r="F122" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G122" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H122" s="35"/>
+      <c r="I122" s="30"/>
+    </row>
+    <row r="123" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="58"/>
+      <c r="B123" s="62"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="58"/>
+      <c r="E123" s="62"/>
       <c r="F123" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H123" s="64"/>
-      <c r="I123" s="61"/>
+        <v>136</v>
+      </c>
+      <c r="H123" s="35"/>
+      <c r="I123" s="30"/>
     </row>
     <row r="124" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="30"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G124" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H124" s="64"/>
-      <c r="I124" s="62"/>
-    </row>
-    <row r="125" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="30"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G125" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H125" s="64"/>
-      <c r="I125" s="62"/>
-    </row>
-    <row r="126" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="30"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G126" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="H126" s="64"/>
-      <c r="I126" s="62"/>
-    </row>
-    <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="30"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="64"/>
-      <c r="I127" s="63"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="16"/>
+      <c r="A124" s="58"/>
+      <c r="B124" s="62"/>
+      <c r="C124" s="58"/>
+      <c r="D124" s="58"/>
+      <c r="E124" s="62"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="31"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="160">
-    <mergeCell ref="I118:I122"/>
-    <mergeCell ref="I123:I127"/>
-    <mergeCell ref="H100:H108"/>
-    <mergeCell ref="H109:H117"/>
-    <mergeCell ref="H118:H122"/>
-    <mergeCell ref="H123:H127"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="I18:I25"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="I37:I44"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="I54:I66"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="I74:I81"/>
-    <mergeCell ref="I82:I86"/>
-    <mergeCell ref="I87:I91"/>
-    <mergeCell ref="I92:I99"/>
-    <mergeCell ref="I100:I108"/>
-    <mergeCell ref="I109:I117"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H66"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="H74:H81"/>
-    <mergeCell ref="H82:H86"/>
-    <mergeCell ref="H87:H91"/>
-    <mergeCell ref="H92:H99"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H25"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="A54:A66"/>
-    <mergeCell ref="B54:B66"/>
-    <mergeCell ref="C54:C66"/>
-    <mergeCell ref="D54:D66"/>
-    <mergeCell ref="E54:E66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="D37:D44"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
+  <mergeCells count="153">
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="C120:C124"/>
+    <mergeCell ref="D120:D124"/>
+    <mergeCell ref="E120:E124"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="C115:C119"/>
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="E115:E119"/>
+    <mergeCell ref="A106:A114"/>
+    <mergeCell ref="B106:B114"/>
+    <mergeCell ref="C106:C114"/>
+    <mergeCell ref="D106:D114"/>
+    <mergeCell ref="E106:E114"/>
+    <mergeCell ref="A97:A105"/>
+    <mergeCell ref="B97:B105"/>
+    <mergeCell ref="C97:C105"/>
+    <mergeCell ref="D97:D105"/>
+    <mergeCell ref="E97:E105"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="D89:D96"/>
+    <mergeCell ref="E89:E96"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="D71:D78"/>
+    <mergeCell ref="E71:E78"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
@@ -4789,46 +4693,95 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="E74:E81"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="D92:D99"/>
-    <mergeCell ref="E92:E99"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="A109:A117"/>
-    <mergeCell ref="B109:B117"/>
-    <mergeCell ref="C109:C117"/>
-    <mergeCell ref="D109:D117"/>
-    <mergeCell ref="E109:E117"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:E108"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="D123:D127"/>
-    <mergeCell ref="E123:E127"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="B118:B122"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="E118:E122"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="D37:D44"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="A51:A63"/>
+    <mergeCell ref="B51:B63"/>
+    <mergeCell ref="C51:C63"/>
+    <mergeCell ref="D51:D63"/>
+    <mergeCell ref="E51:E63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H25"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I97:I105"/>
+    <mergeCell ref="I106:I114"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H63"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H71:H78"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="H84:H88"/>
+    <mergeCell ref="H89:H96"/>
+    <mergeCell ref="I115:I119"/>
+    <mergeCell ref="I120:I124"/>
+    <mergeCell ref="H97:H105"/>
+    <mergeCell ref="H106:H114"/>
+    <mergeCell ref="H115:H119"/>
+    <mergeCell ref="H120:H124"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I18:I25"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="I37:I44"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="I51:I63"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="I71:I78"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="I84:I88"/>
+    <mergeCell ref="I89:I96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5072,7 +5025,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1219200</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5087,13 +5040,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>57</xdr:row>
+                    <xdr:row>54</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1219200</xdr:colOff>
-                    <xdr:row>61</xdr:row>
+                    <xdr:row>58</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5109,13 +5062,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>66</xdr:row>
+                    <xdr:row>63</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1219200</xdr:colOff>
-                    <xdr:row>69</xdr:row>
+                    <xdr:row>66</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5131,13 +5084,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>69</xdr:row>
+                    <xdr:row>66</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1219200</xdr:colOff>
-                    <xdr:row>73</xdr:row>
+                    <xdr:row>70</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5153,13 +5106,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
-                    <xdr:row>74</xdr:row>
+                    <xdr:row>71</xdr:row>
                     <xdr:rowOff>133350</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1209675</xdr:colOff>
-                    <xdr:row>78</xdr:row>
+                    <xdr:row>75</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5175,13 +5128,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>81</xdr:row>
+                    <xdr:row>78</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1219200</xdr:colOff>
-                    <xdr:row>84</xdr:row>
+                    <xdr:row>81</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5197,13 +5150,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>86</xdr:row>
+                    <xdr:row>83</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1219200</xdr:colOff>
-                    <xdr:row>89</xdr:row>
+                    <xdr:row>86</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5219,13 +5172,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>180975</xdr:colOff>
-                    <xdr:row>92</xdr:row>
+                    <xdr:row>89</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1257300</xdr:colOff>
-                    <xdr:row>96</xdr:row>
+                    <xdr:row>93</xdr:row>
                     <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5241,13 +5194,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>161925</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>97</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1238250</xdr:colOff>
-                    <xdr:row>104</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>133350</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5263,13 +5216,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>161925</xdr:colOff>
-                    <xdr:row>110</xdr:row>
+                    <xdr:row>107</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1238250</xdr:colOff>
-                    <xdr:row>114</xdr:row>
+                    <xdr:row>111</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5285,13 +5238,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>161925</xdr:colOff>
-                    <xdr:row>117</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1238250</xdr:colOff>
-                    <xdr:row>121</xdr:row>
+                    <xdr:row>118</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5307,13 +5260,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>122</xdr:row>
+                    <xdr:row>119</xdr:row>
                     <xdr:rowOff>76200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1247775</xdr:colOff>
-                    <xdr:row>125</xdr:row>
+                    <xdr:row>122</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>

--- a/docs/Cases.xlsx
+++ b/docs/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\education\education_QA\diplom_QA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8104577B-ECD6-4F90-BD9B-84FEB794DD11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF83CBD5-1E80-4575-860D-BEDFAEA01649}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="142">
   <si>
     <t>ID</t>
   </si>
@@ -449,7 +449,10 @@
     <t>Тест заваливается на ассерте!!!!</t>
   </si>
   <si>
-    <t>Не пониманию на данный момент как сделать проверку</t>
+    <t>Аналогичная проверка есть п.8</t>
+  </si>
+  <si>
+    <t>Сложности в assert</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,12 +526,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -801,26 +798,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -832,13 +818,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,6 +830,24 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -868,42 +869,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -914,11 +905,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,7 +938,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -958,15 +946,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -974,7 +962,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -990,10 +978,6 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -1654,73 +1638,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>1219200</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1035"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2769,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B36"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97:B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,363 +2733,363 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="29"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="30"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="39"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="30"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="39"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="6"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="31"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="38" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="29"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="39"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="30"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="39"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="30"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="39"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="6"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="33">
         <v>3</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="38" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="29"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="39"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="30"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="60"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="39"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="30"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="60"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="39"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="6"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="61"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="33">
         <v>4</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="38" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="29"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="59"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="39"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="30"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="39"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="30"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="60"/>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="10"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="31"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="61"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="A18" s="33">
         <v>5</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="38" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="29" t="s">
+      <c r="H18" s="56"/>
+      <c r="I18" s="59" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="39"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="30"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="60"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="39"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="30"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="60"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="39"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="30"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="60"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="39"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="30"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="56"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="30"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="56"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="30"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="60"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="56"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="14"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57">
+      <c r="A26" s="29">
         <v>6</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="61" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -3181,75 +3098,75 @@
       <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="29"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="62"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="30"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="60"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="62"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="30"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="60"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="62"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="30"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="62"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="10"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="31"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="61"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50">
+      <c r="A31" s="52">
         <v>7</v>
       </c>
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="52" t="s">
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="43" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3258,90 +3175,90 @@
       <c r="G31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="29"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="53"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="30"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="60"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="53"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="44"/>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="30"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="60"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="53"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="44"/>
       <c r="F34" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="30"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="60"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="53"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="44"/>
       <c r="F35" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="33"/>
-      <c r="I35" s="30"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="60"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="53"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="10"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="31"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="61"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36">
+      <c r="A37" s="33">
         <v>8</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="65" t="s">
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -3350,1213 +3267,1215 @@
       <c r="G37" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="29"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="59" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="66"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="33"/>
-      <c r="I38" s="30"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="60"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="66"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="30"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="60"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="67"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="33"/>
-      <c r="I40" s="30"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="60"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="67"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="38"/>
       <c r="F41" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="33"/>
-      <c r="I41" s="30"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="60"/>
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="67"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="38"/>
       <c r="F42" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="33"/>
-      <c r="I42" s="30"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="60"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="67"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="33"/>
-      <c r="I43" s="30"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="60"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="67"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="9"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="31"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="61"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36">
+      <c r="A45" s="33">
         <v>9</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="38"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="32"/>
-      <c r="I45" s="29"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="39"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H46" s="33"/>
-      <c r="I46" s="30"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="60"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="39"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="6"/>
       <c r="G47" s="21"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="31"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="61"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36">
+      <c r="A48" s="33">
         <v>10</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="38"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="32"/>
-      <c r="I48" s="29"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="59"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="39"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="33"/>
-      <c r="I49" s="30"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="60"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="39"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="6"/>
       <c r="G50" s="21"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="31"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="61"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
+      <c r="A51" s="33">
         <v>11</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="40" t="s">
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="63" t="s">
         <v>47</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G51" s="24"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="29" t="s">
+      <c r="H51" s="56"/>
+      <c r="I51" s="59" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="41"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="64"/>
       <c r="F52" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H52" s="33"/>
-      <c r="I52" s="30"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="60"/>
     </row>
     <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="41"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="64"/>
       <c r="F53" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H53" s="33"/>
-      <c r="I53" s="30"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="60"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="41"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="64"/>
       <c r="F54" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="33"/>
-      <c r="I54" s="30"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="60"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="41"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="64"/>
       <c r="F55" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="33"/>
-      <c r="I55" s="30"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="60"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="42"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="65"/>
       <c r="F56" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H56" s="33"/>
-      <c r="I56" s="30"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="60"/>
     </row>
     <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="42"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="65"/>
       <c r="F57" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H57" s="33"/>
-      <c r="I57" s="30"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="60"/>
     </row>
     <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="42"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="65"/>
       <c r="F58" s="9" t="s">
         <v>77</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="33"/>
-      <c r="I58" s="30"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="60"/>
     </row>
     <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="42"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="65"/>
       <c r="F59" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H59" s="33"/>
-      <c r="I59" s="30"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="60"/>
     </row>
     <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="42"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="65"/>
       <c r="F60" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H60" s="33"/>
-      <c r="I60" s="30"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="60"/>
     </row>
     <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="42"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="65"/>
       <c r="F61" s="9" t="s">
         <v>79</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H61" s="33"/>
-      <c r="I61" s="30"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="60"/>
     </row>
     <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="42"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="65"/>
       <c r="F62" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H62" s="33"/>
-      <c r="I62" s="30"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="60"/>
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="42"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="65"/>
       <c r="F63" s="10"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="31"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="61"/>
     </row>
     <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36">
+      <c r="A64" s="33">
         <v>12</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="40" t="s">
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="63" t="s">
         <v>47</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G64" s="24"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="29"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="59"/>
     </row>
     <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="41"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="64"/>
       <c r="F65" s="15" t="s">
         <v>71</v>
       </c>
       <c r="G65" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H65" s="33"/>
-      <c r="I65" s="30"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="60"/>
     </row>
     <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="41"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="64"/>
       <c r="F66" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G66" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H66" s="33"/>
-      <c r="I66" s="30"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="60"/>
     </row>
     <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="41"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="64"/>
       <c r="F67" s="6"/>
       <c r="G67" s="21"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="31"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="61"/>
     </row>
     <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36">
+      <c r="A68" s="33">
         <v>13</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="40" t="s">
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="63" t="s">
         <v>47</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G68" s="24"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="29"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="59"/>
     </row>
     <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="41"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="64"/>
       <c r="F69" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G69" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H69" s="33"/>
-      <c r="I69" s="30"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="60"/>
     </row>
     <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="41"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="64"/>
       <c r="F70" s="6"/>
       <c r="G70" s="21"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="31"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="61"/>
     </row>
     <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36">
+      <c r="A71" s="33">
         <v>14</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="40" t="s">
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="63" t="s">
         <v>47</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="24"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="29"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="59"/>
     </row>
     <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="41"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="64"/>
       <c r="F72" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H72" s="33"/>
-      <c r="I72" s="30"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="60"/>
     </row>
     <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="41"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="64"/>
       <c r="F73" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G73" s="21"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="30"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="60"/>
     </row>
     <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="41"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="64"/>
       <c r="F74" s="6" t="s">
         <v>90</v>
       </c>
       <c r="G74" s="21"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="30"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="60"/>
     </row>
     <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="41"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="64"/>
       <c r="F75" s="8" t="s">
         <v>91</v>
       </c>
       <c r="G75" s="25"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="30"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="60"/>
     </row>
     <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="42"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="65"/>
       <c r="F76" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G76" s="23"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="30"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="60"/>
     </row>
     <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="42"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="65"/>
       <c r="F77" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G77" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H77" s="33"/>
-      <c r="I77" s="30"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="60"/>
     </row>
     <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="42"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="65"/>
       <c r="F78" s="10"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="31"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="61"/>
     </row>
     <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="36">
+      <c r="A79" s="33">
         <v>15</v>
       </c>
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="40" t="s">
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="63" t="s">
         <v>47</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G79" s="24"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="29"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="59"/>
     </row>
     <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="41"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="64"/>
       <c r="F80" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G80" s="21"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="30"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="60"/>
     </row>
     <row r="81" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="41"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="64"/>
       <c r="F81" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G81" s="21"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="30"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="60"/>
     </row>
     <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="41"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="64"/>
       <c r="F82" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G82" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H82" s="33"/>
-      <c r="I82" s="30"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="60"/>
     </row>
     <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="42"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="65"/>
       <c r="F83" s="9"/>
       <c r="G83" s="21"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="31"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="61"/>
     </row>
     <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="36">
+      <c r="A84" s="33">
         <v>16</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="B84" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="64" t="s">
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="66" t="s">
         <v>47</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G84" s="21"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="29"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="59"/>
     </row>
     <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="41"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="64"/>
       <c r="F85" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G85" s="24"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="30"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="60"/>
     </row>
     <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="41"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="64"/>
       <c r="F86" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G86" s="21"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="30"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="60"/>
     </row>
     <row r="87" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="41"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="64"/>
       <c r="F87" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G87" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H87" s="33"/>
-      <c r="I87" s="30"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="60"/>
     </row>
     <row r="88" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="42"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="65"/>
       <c r="F88" s="9"/>
       <c r="G88" s="21"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="31"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="61"/>
     </row>
     <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="36">
+      <c r="A89" s="33">
         <v>17</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="63" t="s">
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="37" t="s">
         <v>37</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G89" s="21"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="29"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="59"/>
     </row>
     <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="39"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="36"/>
       <c r="F90" s="15" t="s">
         <v>106</v>
       </c>
       <c r="G90" s="24"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="30"/>
+      <c r="H90" s="57"/>
+      <c r="I90" s="60"/>
     </row>
     <row r="91" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="39"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="36"/>
       <c r="F91" s="6" t="s">
         <v>107</v>
       </c>
       <c r="G91" s="21"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="30"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="60"/>
     </row>
     <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="39"/>
+      <c r="A92" s="34"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="36"/>
       <c r="F92" s="8" t="s">
         <v>108</v>
       </c>
       <c r="G92" s="21"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="30"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="60"/>
     </row>
     <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="56"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="38"/>
       <c r="F93" s="9" t="s">
         <v>109</v>
       </c>
       <c r="G93" s="25"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="30"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="60"/>
     </row>
     <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="56"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="38"/>
       <c r="F94" s="15" t="s">
         <v>110</v>
       </c>
       <c r="G94" s="23"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="30"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="60"/>
     </row>
     <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="56"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="38"/>
       <c r="F95" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G95" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H95" s="33"/>
-      <c r="I95" s="30"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="60"/>
     </row>
     <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="56"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="38"/>
       <c r="F96" s="10"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="31"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="61"/>
     </row>
     <row r="97" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="36">
+      <c r="A97" s="33">
         <v>18</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="40" t="s">
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="63" t="s">
         <v>47</v>
       </c>
       <c r="F97" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G97" s="24"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="29"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="59"/>
     </row>
     <row r="98" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="41"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="64"/>
       <c r="F98" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G98" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H98" s="33"/>
-      <c r="I98" s="30"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="60"/>
     </row>
     <row r="99" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="41"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="64"/>
       <c r="F99" s="6" t="s">
         <v>116</v>
       </c>
       <c r="G99" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H99" s="33"/>
-      <c r="I99" s="30"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="60"/>
     </row>
     <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="41"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="64"/>
       <c r="F100" s="6" t="s">
         <v>117</v>
       </c>
       <c r="G100" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H100" s="33"/>
-      <c r="I100" s="30"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="60"/>
     </row>
     <row r="101" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="41"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="64"/>
       <c r="F101" s="6" t="s">
         <v>118</v>
       </c>
       <c r="G101" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H101" s="33"/>
-      <c r="I101" s="30"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="60"/>
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="42"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="65"/>
       <c r="F102" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H102" s="33"/>
-      <c r="I102" s="30"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="60"/>
     </row>
     <row r="103" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="42"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="65"/>
       <c r="F103" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H103" s="33"/>
-      <c r="I103" s="30"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="60"/>
     </row>
     <row r="104" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="42"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="65"/>
       <c r="F104" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G104" s="23"/>
-      <c r="H104" s="33"/>
-      <c r="I104" s="30"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="60"/>
     </row>
     <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="42"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="65"/>
       <c r="F105" s="10"/>
       <c r="G105" s="23"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="31"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="61"/>
     </row>
     <row r="106" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="36">
+      <c r="A106" s="33">
         <v>19</v>
       </c>
-      <c r="B106" s="38" t="s">
+      <c r="B106" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="63" t="s">
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="37" t="s">
         <v>37</v>
       </c>
       <c r="F106" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G106" s="24"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="29"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="59"/>
     </row>
     <row r="107" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="39"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="36"/>
       <c r="F107" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G107" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H107" s="33"/>
-      <c r="I107" s="30"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="60"/>
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="39"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="36"/>
       <c r="F108" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G108" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H108" s="33"/>
-      <c r="I108" s="30"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="60"/>
     </row>
     <row r="109" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="39"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="36"/>
       <c r="F109" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G109" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H109" s="33"/>
-      <c r="I109" s="30"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="60"/>
     </row>
     <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="56"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="38"/>
       <c r="F110" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G110" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H110" s="33"/>
-      <c r="I110" s="30"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="60"/>
     </row>
     <row r="111" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="56"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="38"/>
       <c r="F111" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G111" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H111" s="33"/>
-      <c r="I111" s="30"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="60"/>
     </row>
     <row r="112" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="56"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="38"/>
       <c r="F112" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G112" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H112" s="33"/>
-      <c r="I112" s="30"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="60"/>
     </row>
     <row r="113" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="56"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="38"/>
       <c r="F113" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G113" s="23"/>
-      <c r="H113" s="33"/>
-      <c r="I113" s="30"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="60"/>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="56"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="38"/>
       <c r="F114" s="13"/>
       <c r="G114" s="26"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="31"/>
+      <c r="H114" s="58"/>
+      <c r="I114" s="61"/>
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="57">
+      <c r="A115" s="29">
         <v>20</v>
       </c>
-      <c r="B115" s="61" t="s">
+      <c r="B115" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C115" s="57"/>
-      <c r="D115" s="57"/>
-      <c r="E115" s="61" t="s">
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="31" t="s">
         <v>37</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>126</v>
       </c>
       <c r="G115" s="21"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="29"/>
+      <c r="H115" s="56"/>
+      <c r="I115" s="59"/>
     </row>
     <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="58"/>
-      <c r="B116" s="62"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="62"/>
+      <c r="A116" s="30"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="32"/>
       <c r="F116" s="9" t="s">
         <v>127</v>
       </c>
       <c r="G116" s="21"/>
-      <c r="H116" s="33"/>
-      <c r="I116" s="30"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="60"/>
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="58"/>
-      <c r="B117" s="62"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="58"/>
-      <c r="E117" s="62"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="32"/>
       <c r="F117" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G117" s="21"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="30"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="60"/>
     </row>
     <row r="118" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="58"/>
-      <c r="B118" s="62"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="62"/>
+      <c r="A118" s="30"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="32"/>
       <c r="F118" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G118" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H118" s="33"/>
-      <c r="I118" s="30"/>
+      <c r="H118" s="57"/>
+      <c r="I118" s="60"/>
     </row>
     <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="58"/>
-      <c r="B119" s="62"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="58"/>
-      <c r="E119" s="62"/>
+      <c r="A119" s="30"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="32"/>
       <c r="F119" s="9"/>
       <c r="G119" s="21"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="31"/>
+      <c r="H119" s="58"/>
+      <c r="I119" s="61"/>
     </row>
     <row r="120" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="57">
+      <c r="A120" s="29">
         <v>21</v>
       </c>
-      <c r="B120" s="61" t="s">
+      <c r="B120" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="57"/>
-      <c r="D120" s="57"/>
-      <c r="E120" s="61" t="s">
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="31" t="s">
         <v>37</v>
       </c>
       <c r="F120" s="9" t="s">
@@ -4565,110 +4484,159 @@
       <c r="G120" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H120" s="35"/>
-      <c r="I120" s="29"/>
+      <c r="H120" s="62"/>
+      <c r="I120" s="59"/>
     </row>
     <row r="121" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="58"/>
-      <c r="B121" s="62"/>
-      <c r="C121" s="58"/>
-      <c r="D121" s="58"/>
-      <c r="E121" s="62"/>
+      <c r="A121" s="30"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="32"/>
       <c r="F121" s="9" t="s">
         <v>131</v>
       </c>
       <c r="G121" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H121" s="35"/>
-      <c r="I121" s="30"/>
+      <c r="H121" s="62"/>
+      <c r="I121" s="60"/>
     </row>
     <row r="122" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="58"/>
-      <c r="B122" s="62"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="58"/>
-      <c r="E122" s="62"/>
+      <c r="A122" s="30"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="32"/>
       <c r="F122" s="9" t="s">
         <v>133</v>
       </c>
       <c r="G122" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H122" s="35"/>
-      <c r="I122" s="30"/>
+      <c r="H122" s="62"/>
+      <c r="I122" s="60"/>
     </row>
     <row r="123" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="58"/>
-      <c r="B123" s="62"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="58"/>
-      <c r="E123" s="62"/>
+      <c r="A123" s="30"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="32"/>
       <c r="F123" s="9" t="s">
         <v>135</v>
       </c>
       <c r="G123" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H123" s="35"/>
-      <c r="I123" s="30"/>
+      <c r="H123" s="62"/>
+      <c r="I123" s="60"/>
     </row>
     <row r="124" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="58"/>
-      <c r="B124" s="62"/>
-      <c r="C124" s="58"/>
-      <c r="D124" s="58"/>
-      <c r="E124" s="62"/>
+      <c r="A124" s="30"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="32"/>
       <c r="F124" s="9"/>
       <c r="G124" s="21"/>
-      <c r="H124" s="35"/>
-      <c r="I124" s="31"/>
+      <c r="H124" s="62"/>
+      <c r="I124" s="61"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="C120:C124"/>
-    <mergeCell ref="D120:D124"/>
-    <mergeCell ref="E120:E124"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="B115:B119"/>
-    <mergeCell ref="C115:C119"/>
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="E115:E119"/>
-    <mergeCell ref="A106:A114"/>
-    <mergeCell ref="B106:B114"/>
-    <mergeCell ref="C106:C114"/>
-    <mergeCell ref="D106:D114"/>
-    <mergeCell ref="E106:E114"/>
-    <mergeCell ref="A97:A105"/>
-    <mergeCell ref="B97:B105"/>
-    <mergeCell ref="C97:C105"/>
-    <mergeCell ref="D97:D105"/>
-    <mergeCell ref="E97:E105"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="D89:D96"/>
-    <mergeCell ref="E89:E96"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="D71:D78"/>
-    <mergeCell ref="E71:E78"/>
+    <mergeCell ref="I115:I119"/>
+    <mergeCell ref="I120:I124"/>
+    <mergeCell ref="H97:H105"/>
+    <mergeCell ref="H106:H114"/>
+    <mergeCell ref="H115:H119"/>
+    <mergeCell ref="H120:H124"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I18:I25"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="I37:I44"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="I51:I63"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="I71:I78"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="I84:I88"/>
+    <mergeCell ref="I89:I96"/>
+    <mergeCell ref="I97:I105"/>
+    <mergeCell ref="I106:I114"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H63"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H71:H78"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="H84:H88"/>
+    <mergeCell ref="H89:H96"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H25"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="A51:A63"/>
+    <mergeCell ref="B51:B63"/>
+    <mergeCell ref="C51:C63"/>
+    <mergeCell ref="D51:D63"/>
+    <mergeCell ref="E51:E63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="D37:D44"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="C68:C70"/>
@@ -4693,95 +4661,46 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="D37:D44"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="A51:A63"/>
-    <mergeCell ref="B51:B63"/>
-    <mergeCell ref="C51:C63"/>
-    <mergeCell ref="D51:D63"/>
-    <mergeCell ref="E51:E63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H25"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I97:I105"/>
-    <mergeCell ref="I106:I114"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H63"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="H71:H78"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="H84:H88"/>
-    <mergeCell ref="H89:H96"/>
-    <mergeCell ref="I115:I119"/>
-    <mergeCell ref="I120:I124"/>
-    <mergeCell ref="H97:H105"/>
-    <mergeCell ref="H106:H114"/>
-    <mergeCell ref="H115:H119"/>
-    <mergeCell ref="H120:H124"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="I18:I25"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="I37:I44"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="I51:I63"/>
-    <mergeCell ref="I64:I67"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="I71:I78"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="I84:I88"/>
-    <mergeCell ref="I89:I96"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="D71:D78"/>
+    <mergeCell ref="E71:E78"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="D89:D96"/>
+    <mergeCell ref="E89:E96"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="A106:A114"/>
+    <mergeCell ref="B106:B114"/>
+    <mergeCell ref="C106:C114"/>
+    <mergeCell ref="D106:D114"/>
+    <mergeCell ref="E106:E114"/>
+    <mergeCell ref="A97:A105"/>
+    <mergeCell ref="B97:B105"/>
+    <mergeCell ref="C97:C105"/>
+    <mergeCell ref="D97:D105"/>
+    <mergeCell ref="E97:E105"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="C120:C124"/>
+    <mergeCell ref="D120:D124"/>
+    <mergeCell ref="E120:E124"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="C115:C119"/>
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="E115:E119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5012,29 +4931,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId14" name="Check Box 11">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>49</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>1219200</xdr:colOff>
-                    <xdr:row>53</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId15" name="Check Box 12">
+            <control shapeId="1036" r:id="rId14" name="Check Box 12">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5056,7 +4953,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId16" name="Check Box 13">
+            <control shapeId="1037" r:id="rId15" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5078,7 +4975,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId17" name="Check Box 14">
+            <control shapeId="1038" r:id="rId16" name="Check Box 14">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5100,7 +4997,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId18" name="Check Box 15">
+            <control shapeId="1039" r:id="rId17" name="Check Box 15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5122,7 +5019,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId19" name="Check Box 16">
+            <control shapeId="1040" r:id="rId18" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5144,7 +5041,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId20" name="Check Box 17">
+            <control shapeId="1041" r:id="rId19" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5166,7 +5063,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1042" r:id="rId21" name="Check Box 18">
+            <control shapeId="1042" r:id="rId20" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5188,7 +5085,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1043" r:id="rId22" name="Check Box 19">
+            <control shapeId="1043" r:id="rId21" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5210,7 +5107,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId23" name="Check Box 20">
+            <control shapeId="1044" r:id="rId22" name="Check Box 20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5232,7 +5129,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1045" r:id="rId24" name="Check Box 21">
+            <control shapeId="1045" r:id="rId23" name="Check Box 21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5254,7 +5151,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1046" r:id="rId25" name="Check Box 22">
+            <control shapeId="1046" r:id="rId24" name="Check Box 22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/docs/Cases.xlsx
+++ b/docs/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\education\education_QA\diplom_QA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF83CBD5-1E80-4575-860D-BEDFAEA01649}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C0DECF-471F-4333-9AFA-60F6F1634E9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -812,23 +812,38 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -842,39 +857,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -902,11 +884,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,7 +946,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -966,7 +954,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -974,11 +962,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2686,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97:B105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,286 +2724,286 @@
       <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
-      <c r="B3" s="40"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="36"/>
       <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="60"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
-      <c r="B4" s="40"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="36"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="60"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
-      <c r="B5" s="40"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="36"/>
       <c r="F5" s="6"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="61"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="59"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="53"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
-      <c r="B7" s="40"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="36"/>
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="60"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
-      <c r="B8" s="40"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="36"/>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="60"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="40"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="36"/>
       <c r="F9" s="6"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="61"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>3</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="57" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="59"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
-      <c r="B11" s="40"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="36"/>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="60"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="36"/>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="60"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
-      <c r="B13" s="40"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="36"/>
       <c r="F13" s="6"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="61"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="55"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>4</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="57" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="59"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="53"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
-      <c r="B15" s="40"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="36"/>
       <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="60"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="54"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="36"/>
       <c r="F16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="60"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="54"/>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
-      <c r="B17" s="40"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="36"/>
       <c r="F17" s="10"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="61"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>5</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="57" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="59" t="s">
+      <c r="H18" s="50"/>
+      <c r="I18" s="53" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
-      <c r="B19" s="40"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="36"/>
       <c r="F19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="60"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="36"/>
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="60"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
-      <c r="B21" s="40"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="36"/>
@@ -3025,66 +3013,66 @@
       <c r="G21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="60"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="54"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="36"/>
       <c r="F22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="60"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
-      <c r="B23" s="40"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="38"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="60"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="38"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="60"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="54"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="38"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="14"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="61"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="55"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>6</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="59" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="29"/>
@@ -3098,12 +3086,12 @@
       <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="59"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="53"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
-      <c r="B27" s="46"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="32"/>
@@ -3113,12 +3101,12 @@
       <c r="G27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="60"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="54"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
-      <c r="B28" s="46"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="32"/>
@@ -3128,12 +3116,12 @@
       <c r="G28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="57"/>
-      <c r="I28" s="60"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="32"/>
@@ -3143,30 +3131,30 @@
       <c r="G29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="60"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="54"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
-      <c r="B30" s="46"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" s="32"/>
       <c r="F30" s="10"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="61"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="55"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52">
+      <c r="A31" s="44">
         <v>7</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="43" t="s">
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="48" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3175,90 +3163,90 @@
       <c r="G31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="56"/>
-      <c r="I31" s="59"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="53"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="44"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="57"/>
-      <c r="I32" s="60"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="54"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="44"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="49"/>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="60"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="54"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="44"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="57"/>
-      <c r="I34" s="60"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="44"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="49"/>
       <c r="F35" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="57"/>
-      <c r="I35" s="60"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="54"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="44"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="10"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="61"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="55"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
         <v>8</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="57" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -3267,14 +3255,14 @@
       <c r="G37" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="56"/>
-      <c r="I37" s="59" t="s">
+      <c r="H37" s="50"/>
+      <c r="I37" s="53" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34"/>
-      <c r="B38" s="40"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
       <c r="E38" s="36"/>
@@ -3284,12 +3272,12 @@
       <c r="G38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="57"/>
-      <c r="I38" s="60"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="54"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34"/>
-      <c r="B39" s="40"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
       <c r="E39" s="36"/>
@@ -3299,102 +3287,102 @@
       <c r="G39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="57"/>
-      <c r="I39" s="60"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="54"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34"/>
-      <c r="B40" s="40"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="38"/>
+      <c r="E40" s="37"/>
       <c r="F40" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="57"/>
-      <c r="I40" s="60"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
-      <c r="B41" s="40"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="38"/>
+      <c r="E41" s="37"/>
       <c r="F41" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="57"/>
-      <c r="I41" s="60"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="34"/>
-      <c r="B42" s="40"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="38"/>
+      <c r="E42" s="37"/>
       <c r="F42" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="57"/>
-      <c r="I42" s="60"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="54"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="34"/>
-      <c r="B43" s="40"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
-      <c r="E43" s="38"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="57"/>
-      <c r="I43" s="60"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="54"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
-      <c r="B44" s="40"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
-      <c r="E44" s="38"/>
+      <c r="E44" s="37"/>
       <c r="F44" s="9"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="61"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="55"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <v>9</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="57" t="s">
         <v>62</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
-      <c r="E45" s="35"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="56"/>
-      <c r="I45" s="59"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="53"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
-      <c r="B46" s="40"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
       <c r="E46" s="36"/>
@@ -3404,42 +3392,42 @@
       <c r="G46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H46" s="57"/>
-      <c r="I46" s="60"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="54"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
-      <c r="B47" s="40"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
       <c r="E47" s="36"/>
       <c r="F47" s="6"/>
       <c r="G47" s="21"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="61"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="55"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33">
         <v>10</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="57" t="s">
         <v>63</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
-      <c r="E48" s="35"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="56"/>
-      <c r="I48" s="59"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="53"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
-      <c r="B49" s="40"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
       <c r="E49" s="36"/>
@@ -3449,598 +3437,598 @@
       <c r="G49" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="57"/>
-      <c r="I49" s="60"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="54"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
-      <c r="B50" s="40"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
       <c r="E50" s="36"/>
       <c r="F50" s="6"/>
       <c r="G50" s="21"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="61"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="55"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33">
         <v>11</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="57" t="s">
         <v>75</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
-      <c r="E51" s="63" t="s">
+      <c r="E51" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G51" s="24"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="59" t="s">
+      <c r="H51" s="50"/>
+      <c r="I51" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="34"/>
-      <c r="B52" s="40"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
-      <c r="E52" s="64"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H52" s="57"/>
-      <c r="I52" s="60"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="54"/>
     </row>
     <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
-      <c r="B53" s="40"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
-      <c r="E53" s="64"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H53" s="57"/>
-      <c r="I53" s="60"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="54"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="34"/>
-      <c r="B54" s="40"/>
+      <c r="B54" s="58"/>
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
-      <c r="E54" s="64"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="57"/>
-      <c r="I54" s="60"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="54"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="34"/>
-      <c r="B55" s="40"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
-      <c r="E55" s="64"/>
+      <c r="E55" s="36"/>
       <c r="F55" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="57"/>
-      <c r="I55" s="60"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="34"/>
-      <c r="B56" s="40"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
-      <c r="E56" s="65"/>
+      <c r="E56" s="37"/>
       <c r="F56" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H56" s="57"/>
-      <c r="I56" s="60"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="34"/>
-      <c r="B57" s="40"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
-      <c r="E57" s="65"/>
+      <c r="E57" s="37"/>
       <c r="F57" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H57" s="57"/>
-      <c r="I57" s="60"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="54"/>
     </row>
     <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="34"/>
-      <c r="B58" s="40"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
-      <c r="E58" s="65"/>
+      <c r="E58" s="37"/>
       <c r="F58" s="9" t="s">
         <v>77</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="57"/>
-      <c r="I58" s="60"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="54"/>
     </row>
     <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="34"/>
-      <c r="B59" s="40"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
-      <c r="E59" s="65"/>
+      <c r="E59" s="37"/>
       <c r="F59" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H59" s="57"/>
-      <c r="I59" s="60"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="54"/>
     </row>
     <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="34"/>
-      <c r="B60" s="40"/>
+      <c r="B60" s="58"/>
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
-      <c r="E60" s="65"/>
+      <c r="E60" s="37"/>
       <c r="F60" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H60" s="57"/>
-      <c r="I60" s="60"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="54"/>
     </row>
     <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="34"/>
-      <c r="B61" s="40"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
-      <c r="E61" s="65"/>
+      <c r="E61" s="37"/>
       <c r="F61" s="9" t="s">
         <v>79</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H61" s="57"/>
-      <c r="I61" s="60"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="54"/>
     </row>
     <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="34"/>
-      <c r="B62" s="40"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
-      <c r="E62" s="65"/>
+      <c r="E62" s="37"/>
       <c r="F62" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H62" s="57"/>
-      <c r="I62" s="60"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="54"/>
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="34"/>
-      <c r="B63" s="40"/>
+      <c r="B63" s="58"/>
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
-      <c r="E63" s="65"/>
+      <c r="E63" s="37"/>
       <c r="F63" s="10"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="61"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="55"/>
     </row>
     <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="33">
         <v>12</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="57" t="s">
         <v>70</v>
       </c>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
-      <c r="E64" s="63" t="s">
+      <c r="E64" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G64" s="24"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="59"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="53"/>
     </row>
     <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="34"/>
-      <c r="B65" s="40"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
-      <c r="E65" s="64"/>
+      <c r="E65" s="36"/>
       <c r="F65" s="15" t="s">
         <v>71</v>
       </c>
       <c r="G65" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H65" s="57"/>
-      <c r="I65" s="60"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="54"/>
     </row>
     <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="34"/>
-      <c r="B66" s="40"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
-      <c r="E66" s="64"/>
+      <c r="E66" s="36"/>
       <c r="F66" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G66" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H66" s="57"/>
-      <c r="I66" s="60"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="54"/>
     </row>
     <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="34"/>
-      <c r="B67" s="40"/>
+      <c r="B67" s="58"/>
       <c r="C67" s="34"/>
       <c r="D67" s="34"/>
-      <c r="E67" s="64"/>
+      <c r="E67" s="36"/>
       <c r="F67" s="6"/>
       <c r="G67" s="21"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="61"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="55"/>
     </row>
     <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="33">
         <v>13</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="57" t="s">
         <v>102</v>
       </c>
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
-      <c r="E68" s="63" t="s">
+      <c r="E68" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G68" s="24"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="59"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="53"/>
     </row>
     <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="34"/>
-      <c r="B69" s="40"/>
+      <c r="B69" s="58"/>
       <c r="C69" s="34"/>
       <c r="D69" s="34"/>
-      <c r="E69" s="64"/>
+      <c r="E69" s="36"/>
       <c r="F69" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G69" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H69" s="57"/>
-      <c r="I69" s="60"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="54"/>
     </row>
     <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="34"/>
-      <c r="B70" s="40"/>
+      <c r="B70" s="58"/>
       <c r="C70" s="34"/>
       <c r="D70" s="34"/>
-      <c r="E70" s="64"/>
+      <c r="E70" s="36"/>
       <c r="F70" s="6"/>
       <c r="G70" s="21"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="61"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="55"/>
     </row>
     <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="33">
         <v>14</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="57" t="s">
         <v>104</v>
       </c>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
-      <c r="E71" s="63" t="s">
+      <c r="E71" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="24"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="59"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="53"/>
     </row>
     <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="34"/>
-      <c r="B72" s="40"/>
+      <c r="B72" s="58"/>
       <c r="C72" s="34"/>
       <c r="D72" s="34"/>
-      <c r="E72" s="64"/>
+      <c r="E72" s="36"/>
       <c r="F72" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H72" s="57"/>
-      <c r="I72" s="60"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="54"/>
     </row>
     <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="34"/>
-      <c r="B73" s="40"/>
+      <c r="B73" s="58"/>
       <c r="C73" s="34"/>
       <c r="D73" s="34"/>
-      <c r="E73" s="64"/>
+      <c r="E73" s="36"/>
       <c r="F73" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G73" s="21"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="60"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="54"/>
     </row>
     <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="34"/>
-      <c r="B74" s="40"/>
+      <c r="B74" s="58"/>
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
-      <c r="E74" s="64"/>
+      <c r="E74" s="36"/>
       <c r="F74" s="6" t="s">
         <v>90</v>
       </c>
       <c r="G74" s="21"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="60"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="54"/>
     </row>
     <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="34"/>
-      <c r="B75" s="40"/>
+      <c r="B75" s="58"/>
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
-      <c r="E75" s="64"/>
+      <c r="E75" s="36"/>
       <c r="F75" s="8" t="s">
         <v>91</v>
       </c>
       <c r="G75" s="25"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="60"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="54"/>
     </row>
     <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="34"/>
-      <c r="B76" s="40"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
-      <c r="E76" s="65"/>
+      <c r="E76" s="37"/>
       <c r="F76" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G76" s="23"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="60"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="54"/>
     </row>
     <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="34"/>
-      <c r="B77" s="40"/>
+      <c r="B77" s="58"/>
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
-      <c r="E77" s="65"/>
+      <c r="E77" s="37"/>
       <c r="F77" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G77" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H77" s="57"/>
-      <c r="I77" s="60"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="54"/>
     </row>
     <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="34"/>
-      <c r="B78" s="40"/>
+      <c r="B78" s="58"/>
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
-      <c r="E78" s="65"/>
+      <c r="E78" s="37"/>
       <c r="F78" s="10"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="61"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="55"/>
     </row>
     <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="33">
         <v>15</v>
       </c>
-      <c r="B79" s="39" t="s">
+      <c r="B79" s="57" t="s">
         <v>103</v>
       </c>
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
-      <c r="E79" s="63" t="s">
+      <c r="E79" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G79" s="24"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="59"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="53"/>
     </row>
     <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="34"/>
-      <c r="B80" s="40"/>
+      <c r="B80" s="58"/>
       <c r="C80" s="34"/>
       <c r="D80" s="34"/>
-      <c r="E80" s="64"/>
+      <c r="E80" s="36"/>
       <c r="F80" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G80" s="21"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="60"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="54"/>
     </row>
     <row r="81" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="34"/>
-      <c r="B81" s="40"/>
+      <c r="B81" s="58"/>
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
-      <c r="E81" s="64"/>
+      <c r="E81" s="36"/>
       <c r="F81" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G81" s="21"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="60"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="54"/>
     </row>
     <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="34"/>
-      <c r="B82" s="40"/>
+      <c r="B82" s="58"/>
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
-      <c r="E82" s="64"/>
+      <c r="E82" s="36"/>
       <c r="F82" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G82" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H82" s="57"/>
-      <c r="I82" s="60"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="54"/>
     </row>
     <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="34"/>
-      <c r="B83" s="40"/>
+      <c r="B83" s="58"/>
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>
-      <c r="E83" s="65"/>
+      <c r="E83" s="37"/>
       <c r="F83" s="9"/>
       <c r="G83" s="21"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="61"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="55"/>
     </row>
     <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="33">
         <v>16</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="57" t="s">
         <v>99</v>
       </c>
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
-      <c r="E84" s="66" t="s">
+      <c r="E84" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G84" s="21"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="59"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="53"/>
     </row>
     <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="34"/>
-      <c r="B85" s="40"/>
+      <c r="B85" s="58"/>
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
-      <c r="E85" s="64"/>
+      <c r="E85" s="36"/>
       <c r="F85" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G85" s="24"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="60"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="34"/>
-      <c r="B86" s="40"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
-      <c r="E86" s="64"/>
+      <c r="E86" s="36"/>
       <c r="F86" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G86" s="21"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="60"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="34"/>
-      <c r="B87" s="40"/>
+      <c r="B87" s="58"/>
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
-      <c r="E87" s="64"/>
+      <c r="E87" s="36"/>
       <c r="F87" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G87" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H87" s="57"/>
-      <c r="I87" s="60"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="34"/>
-      <c r="B88" s="40"/>
+      <c r="B88" s="58"/>
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
-      <c r="E88" s="65"/>
+      <c r="E88" s="37"/>
       <c r="F88" s="9"/>
       <c r="G88" s="21"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="61"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="55"/>
     </row>
     <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="33">
         <v>17</v>
       </c>
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="57" t="s">
         <v>105</v>
       </c>
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
-      <c r="E89" s="37" t="s">
+      <c r="E89" s="35" t="s">
         <v>37</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G89" s="21"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="59"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="53"/>
     </row>
     <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="34"/>
-      <c r="B90" s="36"/>
+      <c r="B90" s="58"/>
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
       <c r="E90" s="36"/>
@@ -4048,12 +4036,12 @@
         <v>106</v>
       </c>
       <c r="G90" s="24"/>
-      <c r="H90" s="57"/>
-      <c r="I90" s="60"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="54"/>
     </row>
     <row r="91" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="34"/>
-      <c r="B91" s="36"/>
+      <c r="B91" s="58"/>
       <c r="C91" s="34"/>
       <c r="D91" s="34"/>
       <c r="E91" s="36"/>
@@ -4061,12 +4049,12 @@
         <v>107</v>
       </c>
       <c r="G91" s="21"/>
-      <c r="H91" s="57"/>
-      <c r="I91" s="60"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="54"/>
     </row>
     <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="34"/>
-      <c r="B92" s="36"/>
+      <c r="B92" s="58"/>
       <c r="C92" s="34"/>
       <c r="D92" s="34"/>
       <c r="E92" s="36"/>
@@ -4074,216 +4062,216 @@
         <v>108</v>
       </c>
       <c r="G92" s="21"/>
-      <c r="H92" s="57"/>
-      <c r="I92" s="60"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="54"/>
     </row>
     <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="34"/>
-      <c r="B93" s="36"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
-      <c r="E93" s="38"/>
+      <c r="E93" s="37"/>
       <c r="F93" s="9" t="s">
         <v>109</v>
       </c>
       <c r="G93" s="25"/>
-      <c r="H93" s="57"/>
-      <c r="I93" s="60"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="54"/>
     </row>
     <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="34"/>
-      <c r="B94" s="36"/>
+      <c r="B94" s="58"/>
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
-      <c r="E94" s="38"/>
+      <c r="E94" s="37"/>
       <c r="F94" s="15" t="s">
         <v>110</v>
       </c>
       <c r="G94" s="23"/>
-      <c r="H94" s="57"/>
-      <c r="I94" s="60"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="54"/>
     </row>
     <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="34"/>
-      <c r="B95" s="36"/>
+      <c r="B95" s="58"/>
       <c r="C95" s="34"/>
       <c r="D95" s="34"/>
-      <c r="E95" s="38"/>
+      <c r="E95" s="37"/>
       <c r="F95" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G95" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H95" s="57"/>
-      <c r="I95" s="60"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="54"/>
     </row>
     <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="34"/>
-      <c r="B96" s="36"/>
+      <c r="B96" s="58"/>
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
-      <c r="E96" s="38"/>
+      <c r="E96" s="37"/>
       <c r="F96" s="10"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="58"/>
-      <c r="I96" s="61"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="55"/>
     </row>
     <row r="97" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="33">
         <v>18</v>
       </c>
-      <c r="B97" s="39" t="s">
+      <c r="B97" s="57" t="s">
         <v>113</v>
       </c>
       <c r="C97" s="33"/>
       <c r="D97" s="33"/>
-      <c r="E97" s="63" t="s">
+      <c r="E97" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F97" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G97" s="24"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="59"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="53"/>
     </row>
     <row r="98" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="34"/>
-      <c r="B98" s="40"/>
+      <c r="B98" s="58"/>
       <c r="C98" s="34"/>
       <c r="D98" s="34"/>
-      <c r="E98" s="64"/>
+      <c r="E98" s="36"/>
       <c r="F98" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G98" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H98" s="57"/>
-      <c r="I98" s="60"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="54"/>
     </row>
     <row r="99" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="34"/>
-      <c r="B99" s="40"/>
+      <c r="B99" s="58"/>
       <c r="C99" s="34"/>
       <c r="D99" s="34"/>
-      <c r="E99" s="64"/>
+      <c r="E99" s="36"/>
       <c r="F99" s="6" t="s">
         <v>116</v>
       </c>
       <c r="G99" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H99" s="57"/>
-      <c r="I99" s="60"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="54"/>
     </row>
     <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="34"/>
-      <c r="B100" s="40"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="34"/>
       <c r="D100" s="34"/>
-      <c r="E100" s="64"/>
+      <c r="E100" s="36"/>
       <c r="F100" s="6" t="s">
         <v>117</v>
       </c>
       <c r="G100" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H100" s="57"/>
-      <c r="I100" s="60"/>
+      <c r="H100" s="51"/>
+      <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="34"/>
-      <c r="B101" s="40"/>
+      <c r="B101" s="58"/>
       <c r="C101" s="34"/>
       <c r="D101" s="34"/>
-      <c r="E101" s="64"/>
+      <c r="E101" s="36"/>
       <c r="F101" s="6" t="s">
         <v>118</v>
       </c>
       <c r="G101" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H101" s="57"/>
-      <c r="I101" s="60"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="34"/>
-      <c r="B102" s="40"/>
+      <c r="B102" s="58"/>
       <c r="C102" s="34"/>
       <c r="D102" s="34"/>
-      <c r="E102" s="65"/>
+      <c r="E102" s="37"/>
       <c r="F102" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H102" s="57"/>
-      <c r="I102" s="60"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="40"/>
+      <c r="B103" s="58"/>
       <c r="C103" s="34"/>
       <c r="D103" s="34"/>
-      <c r="E103" s="65"/>
+      <c r="E103" s="37"/>
       <c r="F103" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H103" s="57"/>
-      <c r="I103" s="60"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="54"/>
     </row>
     <row r="104" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="34"/>
-      <c r="B104" s="40"/>
+      <c r="B104" s="58"/>
       <c r="C104" s="34"/>
       <c r="D104" s="34"/>
-      <c r="E104" s="65"/>
+      <c r="E104" s="37"/>
       <c r="F104" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G104" s="23"/>
-      <c r="H104" s="57"/>
-      <c r="I104" s="60"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="54"/>
     </row>
     <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="34"/>
-      <c r="B105" s="40"/>
+      <c r="B105" s="58"/>
       <c r="C105" s="34"/>
       <c r="D105" s="34"/>
-      <c r="E105" s="65"/>
+      <c r="E105" s="37"/>
       <c r="F105" s="10"/>
       <c r="G105" s="23"/>
-      <c r="H105" s="58"/>
-      <c r="I105" s="61"/>
+      <c r="H105" s="52"/>
+      <c r="I105" s="55"/>
     </row>
     <row r="106" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="33">
         <v>19</v>
       </c>
-      <c r="B106" s="35" t="s">
+      <c r="B106" s="57" t="s">
         <v>112</v>
       </c>
       <c r="C106" s="33"/>
       <c r="D106" s="33"/>
-      <c r="E106" s="37" t="s">
+      <c r="E106" s="35" t="s">
         <v>37</v>
       </c>
       <c r="F106" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G106" s="24"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="59"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="53"/>
     </row>
     <row r="107" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="34"/>
-      <c r="B107" s="36"/>
+      <c r="B107" s="58"/>
       <c r="C107" s="34"/>
       <c r="D107" s="34"/>
       <c r="E107" s="36"/>
@@ -4293,12 +4281,12 @@
       <c r="G107" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H107" s="57"/>
-      <c r="I107" s="60"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="54"/>
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="34"/>
-      <c r="B108" s="36"/>
+      <c r="B108" s="58"/>
       <c r="C108" s="34"/>
       <c r="D108" s="34"/>
       <c r="E108" s="36"/>
@@ -4308,12 +4296,12 @@
       <c r="G108" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H108" s="57"/>
-      <c r="I108" s="60"/>
+      <c r="H108" s="51"/>
+      <c r="I108" s="54"/>
     </row>
     <row r="109" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="34"/>
-      <c r="B109" s="36"/>
+      <c r="B109" s="58"/>
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
       <c r="E109" s="36"/>
@@ -4323,83 +4311,83 @@
       <c r="G109" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H109" s="57"/>
-      <c r="I109" s="60"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="54"/>
     </row>
     <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="34"/>
-      <c r="B110" s="36"/>
+      <c r="B110" s="58"/>
       <c r="C110" s="34"/>
       <c r="D110" s="34"/>
-      <c r="E110" s="38"/>
+      <c r="E110" s="37"/>
       <c r="F110" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G110" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H110" s="57"/>
-      <c r="I110" s="60"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="54"/>
     </row>
     <row r="111" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="34"/>
-      <c r="B111" s="36"/>
+      <c r="B111" s="58"/>
       <c r="C111" s="34"/>
       <c r="D111" s="34"/>
-      <c r="E111" s="38"/>
+      <c r="E111" s="37"/>
       <c r="F111" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G111" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H111" s="57"/>
-      <c r="I111" s="60"/>
+      <c r="H111" s="51"/>
+      <c r="I111" s="54"/>
     </row>
     <row r="112" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="34"/>
-      <c r="B112" s="36"/>
+      <c r="B112" s="58"/>
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
-      <c r="E112" s="38"/>
+      <c r="E112" s="37"/>
       <c r="F112" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G112" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H112" s="57"/>
-      <c r="I112" s="60"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="54"/>
     </row>
     <row r="113" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="34"/>
-      <c r="B113" s="36"/>
+      <c r="B113" s="58"/>
       <c r="C113" s="34"/>
       <c r="D113" s="34"/>
-      <c r="E113" s="38"/>
+      <c r="E113" s="37"/>
       <c r="F113" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G113" s="23"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="60"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="54"/>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="34"/>
-      <c r="B114" s="36"/>
+      <c r="B114" s="58"/>
       <c r="C114" s="34"/>
       <c r="D114" s="34"/>
-      <c r="E114" s="38"/>
+      <c r="E114" s="37"/>
       <c r="F114" s="13"/>
       <c r="G114" s="26"/>
-      <c r="H114" s="58"/>
-      <c r="I114" s="61"/>
+      <c r="H114" s="52"/>
+      <c r="I114" s="55"/>
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="29">
         <v>20</v>
       </c>
-      <c r="B115" s="31" t="s">
+      <c r="B115" s="59" t="s">
         <v>125</v>
       </c>
       <c r="C115" s="29"/>
@@ -4411,12 +4399,12 @@
         <v>126</v>
       </c>
       <c r="G115" s="21"/>
-      <c r="H115" s="56"/>
-      <c r="I115" s="59"/>
+      <c r="H115" s="50"/>
+      <c r="I115" s="53"/>
     </row>
     <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="30"/>
-      <c r="B116" s="32"/>
+      <c r="B116" s="60"/>
       <c r="C116" s="30"/>
       <c r="D116" s="30"/>
       <c r="E116" s="32"/>
@@ -4424,12 +4412,12 @@
         <v>127</v>
       </c>
       <c r="G116" s="21"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="60"/>
+      <c r="H116" s="51"/>
+      <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30"/>
-      <c r="B117" s="32"/>
+      <c r="B117" s="60"/>
       <c r="C117" s="30"/>
       <c r="D117" s="30"/>
       <c r="E117" s="32"/>
@@ -4437,12 +4425,12 @@
         <v>96</v>
       </c>
       <c r="G117" s="21"/>
-      <c r="H117" s="57"/>
-      <c r="I117" s="60"/>
+      <c r="H117" s="51"/>
+      <c r="I117" s="54"/>
     </row>
     <row r="118" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30"/>
-      <c r="B118" s="32"/>
+      <c r="B118" s="60"/>
       <c r="C118" s="30"/>
       <c r="D118" s="30"/>
       <c r="E118" s="32"/>
@@ -4452,19 +4440,19 @@
       <c r="G118" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H118" s="57"/>
-      <c r="I118" s="60"/>
+      <c r="H118" s="51"/>
+      <c r="I118" s="54"/>
     </row>
     <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="30"/>
-      <c r="B119" s="32"/>
+      <c r="B119" s="60"/>
       <c r="C119" s="30"/>
       <c r="D119" s="30"/>
       <c r="E119" s="32"/>
       <c r="F119" s="9"/>
       <c r="G119" s="21"/>
-      <c r="H119" s="58"/>
-      <c r="I119" s="61"/>
+      <c r="H119" s="52"/>
+      <c r="I119" s="55"/>
     </row>
     <row r="120" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="29">
@@ -4484,8 +4472,8 @@
       <c r="G120" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H120" s="62"/>
-      <c r="I120" s="59"/>
+      <c r="H120" s="56"/>
+      <c r="I120" s="53"/>
     </row>
     <row r="121" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30"/>
@@ -4499,8 +4487,8 @@
       <c r="G121" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H121" s="62"/>
-      <c r="I121" s="60"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="54"/>
     </row>
     <row r="122" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30"/>
@@ -4514,8 +4502,8 @@
       <c r="G122" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H122" s="62"/>
-      <c r="I122" s="60"/>
+      <c r="H122" s="56"/>
+      <c r="I122" s="54"/>
     </row>
     <row r="123" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30"/>
@@ -4529,8 +4517,8 @@
       <c r="G123" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H123" s="62"/>
-      <c r="I123" s="60"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="54"/>
     </row>
     <row r="124" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30"/>
@@ -4540,8 +4528,8 @@
       <c r="E124" s="32"/>
       <c r="F124" s="9"/>
       <c r="G124" s="21"/>
-      <c r="H124" s="62"/>
-      <c r="I124" s="61"/>
+      <c r="H124" s="56"/>
+      <c r="I124" s="55"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="16"/>

--- a/docs/Cases.xlsx
+++ b/docs/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\education\education_QA\diplom_QA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C0DECF-471F-4333-9AFA-60F6F1634E9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3674010-23EF-419C-97C0-367237AF06B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="140">
   <si>
     <t>ID</t>
   </si>
@@ -446,13 +446,7 @@
     <t>Причина по которой кейс не будет автоматизирован</t>
   </si>
   <si>
-    <t>Тест заваливается на ассерте!!!!</t>
-  </si>
-  <si>
     <t>Аналогичная проверка есть п.8</t>
-  </si>
-  <si>
-    <t>Сложности в assert</t>
   </si>
 </sst>
 </file>
@@ -712,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -798,6 +792,73 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -808,93 +869,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2674,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2721,363 +2697,361 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="53"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="36"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="54"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="36"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="54"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="36"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="6"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="36">
         <v>2</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="53"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="36"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="54"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="36"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="54"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="36"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="6"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="55"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="36">
         <v>3</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="53"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="36"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="54"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="36"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="54"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="36"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="6"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="55"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="36">
         <v>4</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="53"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="36"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="54"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="36"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="54"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="36"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="10"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="55"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="36">
         <v>5</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="53" t="s">
-        <v>139</v>
-      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="29"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="36"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="54"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="36"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="54"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="36"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="54"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="36"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="54"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="37"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="54"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="37"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="54"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="37"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="14"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="55"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="52">
         <v>6</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="31" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="54" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -3086,74 +3060,74 @@
       <c r="G26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="53"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="54"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="54"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="55"/>
       <c r="F29" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="51"/>
-      <c r="I29" s="54"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="32"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="55"/>
       <c r="F30" s="10"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="55"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="46">
         <v>7</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="48" t="s">
         <v>37</v>
       </c>
@@ -3163,14 +3137,14 @@
       <c r="G31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="53"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="49"/>
       <c r="F32" s="9" t="s">
         <v>39</v>
@@ -3178,14 +3152,14 @@
       <c r="G32" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="54"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="49"/>
       <c r="F33" s="9" t="s">
         <v>40</v>
@@ -3193,14 +3167,14 @@
       <c r="G33" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="51"/>
-      <c r="I33" s="54"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
       <c r="E34" s="49"/>
       <c r="F34" s="9" t="s">
         <v>41</v>
@@ -3208,14 +3182,14 @@
       <c r="G34" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="54"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="49"/>
       <c r="F35" s="9" t="s">
         <v>68</v>
@@ -3223,29 +3197,29 @@
       <c r="G35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="54"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="49"/>
       <c r="F36" s="10"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="55"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="36">
         <v>8</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="38" t="s">
         <v>47</v>
       </c>
@@ -3255,121 +3229,119 @@
       <c r="G37" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="53" t="s">
-        <v>141</v>
-      </c>
+      <c r="H37" s="32"/>
+      <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="36"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="51"/>
-      <c r="I38" s="54"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="36"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="51"/>
-      <c r="I39" s="54"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="37"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="40"/>
       <c r="F40" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="51"/>
-      <c r="I40" s="54"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="37"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="51"/>
-      <c r="I41" s="54"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="37"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="51"/>
-      <c r="I42" s="54"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="37"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="51"/>
-      <c r="I43" s="54"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="37"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="9"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="55"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33">
+      <c r="A45" s="36">
         <v>9</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="38"/>
       <c r="F45" s="15" t="s">
         <v>64</v>
@@ -3377,44 +3349,44 @@
       <c r="G45" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="50"/>
-      <c r="I45" s="53"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="29"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="36"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H46" s="51"/>
-      <c r="I46" s="54"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="36"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="6"/>
       <c r="G47" s="21"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="55"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33">
+      <c r="A48" s="36">
         <v>10</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
       <c r="E48" s="38"/>
       <c r="F48" s="15" t="s">
         <v>64</v>
@@ -3422,44 +3394,44 @@
       <c r="G48" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="50"/>
-      <c r="I48" s="53"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="29"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="36"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="51"/>
-      <c r="I49" s="54"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="36"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="39"/>
       <c r="F50" s="6"/>
       <c r="G50" s="21"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="55"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33">
+      <c r="A51" s="36">
         <v>11</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="38" t="s">
         <v>47</v>
       </c>
@@ -3467,196 +3439,196 @@
         <v>76</v>
       </c>
       <c r="G51" s="24"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="53" t="s">
-        <v>140</v>
+      <c r="H51" s="32"/>
+      <c r="I51" s="29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="36"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="39"/>
       <c r="F52" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H52" s="51"/>
-      <c r="I52" s="54"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="36"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="39"/>
       <c r="F53" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H53" s="51"/>
-      <c r="I53" s="54"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="30"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="36"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="39"/>
       <c r="F54" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="51"/>
-      <c r="I54" s="54"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="30"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="36"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="39"/>
       <c r="F55" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="51"/>
-      <c r="I55" s="54"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="37"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="40"/>
       <c r="F56" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H56" s="51"/>
-      <c r="I56" s="54"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="30"/>
     </row>
     <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="37"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="40"/>
       <c r="F57" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H57" s="51"/>
-      <c r="I57" s="54"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="37"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="40"/>
       <c r="F58" s="9" t="s">
         <v>77</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="51"/>
-      <c r="I58" s="54"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="30"/>
     </row>
     <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="37"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H59" s="51"/>
-      <c r="I59" s="54"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="30"/>
     </row>
     <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="37"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="40"/>
       <c r="F60" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H60" s="51"/>
-      <c r="I60" s="54"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="30"/>
     </row>
     <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="37"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="40"/>
       <c r="F61" s="9" t="s">
         <v>79</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H61" s="51"/>
-      <c r="I61" s="54"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="30"/>
     </row>
     <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="37"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="40"/>
       <c r="F62" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H62" s="51"/>
-      <c r="I62" s="54"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="30"/>
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="37"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="10"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="55"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="31"/>
     </row>
     <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="33">
+      <c r="A64" s="36">
         <v>12</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="38" t="s">
         <v>47</v>
       </c>
@@ -3664,59 +3636,59 @@
         <v>76</v>
       </c>
       <c r="G64" s="24"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="53"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="29"/>
     </row>
     <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="36"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="39"/>
       <c r="F65" s="15" t="s">
         <v>71</v>
       </c>
       <c r="G65" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H65" s="51"/>
-      <c r="I65" s="54"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="30"/>
     </row>
     <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="36"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="39"/>
       <c r="F66" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G66" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H66" s="51"/>
-      <c r="I66" s="54"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="30"/>
     </row>
     <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="36"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="39"/>
       <c r="F67" s="6"/>
       <c r="G67" s="21"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="55"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="31"/>
     </row>
     <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="33">
+      <c r="A68" s="36">
         <v>13</v>
       </c>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
       <c r="E68" s="38" t="s">
         <v>47</v>
       </c>
@@ -3724,44 +3696,44 @@
         <v>76</v>
       </c>
       <c r="G68" s="24"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="53"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="29"/>
     </row>
     <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="36"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="39"/>
       <c r="F69" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G69" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H69" s="51"/>
-      <c r="I69" s="54"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="36"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="39"/>
       <c r="F70" s="6"/>
       <c r="G70" s="21"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="55"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="31"/>
     </row>
     <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="33">
+      <c r="A71" s="36">
         <v>14</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
       <c r="E71" s="38" t="s">
         <v>47</v>
       </c>
@@ -3769,111 +3741,111 @@
         <v>76</v>
       </c>
       <c r="G71" s="24"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="53"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="29"/>
     </row>
     <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="36"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="39"/>
       <c r="F72" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H72" s="51"/>
-      <c r="I72" s="54"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="36"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="39"/>
       <c r="F73" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G73" s="21"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="54"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="36"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="39"/>
       <c r="F74" s="6" t="s">
         <v>90</v>
       </c>
       <c r="G74" s="21"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="54"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="30"/>
     </row>
     <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="36"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="39"/>
       <c r="F75" s="8" t="s">
         <v>91</v>
       </c>
       <c r="G75" s="25"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="54"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="30"/>
     </row>
     <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="37"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="40"/>
       <c r="F76" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G76" s="23"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="54"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="30"/>
     </row>
     <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="37"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="40"/>
       <c r="F77" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G77" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H77" s="51"/>
-      <c r="I77" s="54"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="30"/>
     </row>
     <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="37"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="40"/>
       <c r="F78" s="10"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="55"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="31"/>
     </row>
     <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="33">
+      <c r="A79" s="36">
         <v>15</v>
       </c>
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
       <c r="E79" s="38" t="s">
         <v>47</v>
       </c>
@@ -3881,251 +3853,251 @@
         <v>76</v>
       </c>
       <c r="G79" s="24"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="53"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="29"/>
     </row>
     <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="36"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="39"/>
       <c r="F80" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G80" s="21"/>
-      <c r="H80" s="51"/>
-      <c r="I80" s="54"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="30"/>
     </row>
     <row r="81" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="36"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="39"/>
       <c r="F81" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G81" s="21"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="54"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="30"/>
     </row>
     <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="36"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="39"/>
       <c r="F82" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G82" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H82" s="51"/>
-      <c r="I82" s="54"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="30"/>
     </row>
     <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="37"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="40"/>
       <c r="F83" s="9"/>
       <c r="G83" s="21"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="55"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="31"/>
     </row>
     <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="33">
+      <c r="A84" s="36">
         <v>16</v>
       </c>
-      <c r="B84" s="57" t="s">
+      <c r="B84" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="35" t="s">
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="56" t="s">
         <v>47</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G84" s="21"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="53"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="29"/>
     </row>
     <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="36"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="39"/>
       <c r="F85" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G85" s="24"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="54"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="36"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="39"/>
       <c r="F86" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G86" s="21"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="54"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="30"/>
     </row>
     <row r="87" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="36"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="39"/>
       <c r="F87" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G87" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H87" s="51"/>
-      <c r="I87" s="54"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="30"/>
     </row>
     <row r="88" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="37"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="40"/>
       <c r="F88" s="9"/>
       <c r="G88" s="21"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="55"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="31"/>
     </row>
     <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="33">
+      <c r="A89" s="36">
         <v>17</v>
       </c>
-      <c r="B89" s="57" t="s">
+      <c r="B89" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="35" t="s">
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="56" t="s">
         <v>37</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G89" s="21"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="53"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="29"/>
     </row>
     <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="36"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="39"/>
       <c r="F90" s="15" t="s">
         <v>106</v>
       </c>
       <c r="G90" s="24"/>
-      <c r="H90" s="51"/>
-      <c r="I90" s="54"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="30"/>
     </row>
     <row r="91" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="36"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="39"/>
       <c r="F91" s="6" t="s">
         <v>107</v>
       </c>
       <c r="G91" s="21"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="54"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="30"/>
     </row>
     <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="34"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="36"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="39"/>
       <c r="F92" s="8" t="s">
         <v>108</v>
       </c>
       <c r="G92" s="21"/>
-      <c r="H92" s="51"/>
-      <c r="I92" s="54"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="30"/>
     </row>
     <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="37"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="40"/>
       <c r="F93" s="9" t="s">
         <v>109</v>
       </c>
       <c r="G93" s="25"/>
-      <c r="H93" s="51"/>
-      <c r="I93" s="54"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="30"/>
     </row>
     <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="37"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="40"/>
       <c r="F94" s="15" t="s">
         <v>110</v>
       </c>
       <c r="G94" s="23"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="54"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="30"/>
     </row>
     <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="34"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="37"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="40"/>
       <c r="F95" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G95" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H95" s="51"/>
-      <c r="I95" s="54"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="30"/>
     </row>
     <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="34"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="37"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="40"/>
       <c r="F96" s="10"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="55"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="31"/>
     </row>
     <row r="97" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="33">
+      <c r="A97" s="36">
         <v>18</v>
       </c>
-      <c r="B97" s="57" t="s">
+      <c r="B97" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
       <c r="E97" s="38" t="s">
         <v>47</v>
       </c>
@@ -4133,337 +4105,337 @@
         <v>87</v>
       </c>
       <c r="G97" s="24"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="53"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="29"/>
     </row>
     <row r="98" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="34"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="36"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="39"/>
       <c r="F98" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G98" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H98" s="51"/>
-      <c r="I98" s="54"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="30"/>
     </row>
     <row r="99" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="36"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="39"/>
       <c r="F99" s="6" t="s">
         <v>116</v>
       </c>
       <c r="G99" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H99" s="51"/>
-      <c r="I99" s="54"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="30"/>
     </row>
     <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="34"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="36"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="39"/>
       <c r="F100" s="6" t="s">
         <v>117</v>
       </c>
       <c r="G100" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H100" s="51"/>
-      <c r="I100" s="54"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="30"/>
     </row>
     <row r="101" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="34"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="36"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="39"/>
       <c r="F101" s="6" t="s">
         <v>118</v>
       </c>
       <c r="G101" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H101" s="51"/>
-      <c r="I101" s="54"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="30"/>
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="37"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="40"/>
       <c r="F102" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H102" s="51"/>
-      <c r="I102" s="54"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="30"/>
     </row>
     <row r="103" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="37"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="40"/>
       <c r="F103" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H103" s="51"/>
-      <c r="I103" s="54"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="30"/>
     </row>
     <row r="104" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
-      <c r="B104" s="58"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="37"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="40"/>
       <c r="F104" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G104" s="23"/>
-      <c r="H104" s="51"/>
-      <c r="I104" s="54"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="30"/>
     </row>
     <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="58"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="37"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="40"/>
       <c r="F105" s="10"/>
       <c r="G105" s="23"/>
-      <c r="H105" s="52"/>
-      <c r="I105" s="55"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="31"/>
     </row>
     <row r="106" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="33">
+      <c r="A106" s="36">
         <v>19</v>
       </c>
-      <c r="B106" s="57" t="s">
+      <c r="B106" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="35" t="s">
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="56" t="s">
         <v>37</v>
       </c>
       <c r="F106" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G106" s="24"/>
-      <c r="H106" s="50"/>
-      <c r="I106" s="53"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="29"/>
     </row>
     <row r="107" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="34"/>
-      <c r="B107" s="58"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="36"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="39"/>
       <c r="F107" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G107" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H107" s="51"/>
-      <c r="I107" s="54"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="30"/>
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="36"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="39"/>
       <c r="F108" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G108" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H108" s="51"/>
-      <c r="I108" s="54"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="30"/>
     </row>
     <row r="109" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
-      <c r="B109" s="58"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="36"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="39"/>
       <c r="F109" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G109" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H109" s="51"/>
-      <c r="I109" s="54"/>
+      <c r="H109" s="33"/>
+      <c r="I109" s="30"/>
     </row>
     <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="37"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="40"/>
       <c r="F110" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G110" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H110" s="51"/>
-      <c r="I110" s="54"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="30"/>
     </row>
     <row r="111" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
-      <c r="B111" s="58"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="37"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="40"/>
       <c r="F111" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G111" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H111" s="51"/>
-      <c r="I111" s="54"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="30"/>
     </row>
     <row r="112" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="37"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="40"/>
       <c r="F112" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G112" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H112" s="51"/>
-      <c r="I112" s="54"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="30"/>
     </row>
     <row r="113" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
-      <c r="B113" s="58"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="37"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="40"/>
       <c r="F113" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G113" s="23"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="54"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="30"/>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="37"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="40"/>
       <c r="F114" s="13"/>
       <c r="G114" s="26"/>
-      <c r="H114" s="52"/>
-      <c r="I114" s="55"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="31"/>
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="29">
+      <c r="A115" s="52">
         <v>20</v>
       </c>
-      <c r="B115" s="59" t="s">
+      <c r="B115" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="31" t="s">
+      <c r="C115" s="52"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="54" t="s">
         <v>37</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>126</v>
       </c>
       <c r="G115" s="21"/>
-      <c r="H115" s="50"/>
-      <c r="I115" s="53"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="29"/>
     </row>
     <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="30"/>
-      <c r="B116" s="60"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="32"/>
+      <c r="A116" s="53"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="55"/>
       <c r="F116" s="9" t="s">
         <v>127</v>
       </c>
       <c r="G116" s="21"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="54"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="30"/>
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
-      <c r="B117" s="60"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="32"/>
+      <c r="A117" s="53"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="53"/>
+      <c r="E117" s="55"/>
       <c r="F117" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G117" s="21"/>
-      <c r="H117" s="51"/>
-      <c r="I117" s="54"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="30"/>
     </row>
     <row r="118" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="30"/>
-      <c r="B118" s="60"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="32"/>
+      <c r="A118" s="53"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="53"/>
+      <c r="E118" s="55"/>
       <c r="F118" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G118" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H118" s="51"/>
-      <c r="I118" s="54"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="30"/>
     </row>
     <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="30"/>
-      <c r="B119" s="60"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="32"/>
+      <c r="A119" s="53"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="53"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="55"/>
       <c r="F119" s="9"/>
       <c r="G119" s="21"/>
-      <c r="H119" s="52"/>
-      <c r="I119" s="55"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="31"/>
     </row>
     <row r="120" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="29">
+      <c r="A120" s="52">
         <v>21</v>
       </c>
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="29"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="31" t="s">
+      <c r="C120" s="52"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="54" t="s">
         <v>37</v>
       </c>
       <c r="F120" s="9" t="s">
@@ -4472,70 +4444,199 @@
       <c r="G120" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H120" s="56"/>
-      <c r="I120" s="53"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="29"/>
     </row>
     <row r="121" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="30"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="32"/>
+      <c r="A121" s="53"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="53"/>
+      <c r="E121" s="55"/>
       <c r="F121" s="9" t="s">
         <v>131</v>
       </c>
       <c r="G121" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H121" s="56"/>
-      <c r="I121" s="54"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="30"/>
     </row>
     <row r="122" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="30"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="32"/>
+      <c r="A122" s="53"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="55"/>
       <c r="F122" s="9" t="s">
         <v>133</v>
       </c>
       <c r="G122" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H122" s="56"/>
-      <c r="I122" s="54"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="30"/>
     </row>
     <row r="123" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="30"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="32"/>
+      <c r="A123" s="53"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="53"/>
+      <c r="E123" s="55"/>
       <c r="F123" s="9" t="s">
         <v>135</v>
       </c>
       <c r="G123" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H123" s="56"/>
-      <c r="I123" s="54"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="30"/>
     </row>
     <row r="124" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="30"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="32"/>
+      <c r="A124" s="53"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="53"/>
+      <c r="E124" s="55"/>
       <c r="F124" s="9"/>
       <c r="G124" s="21"/>
-      <c r="H124" s="56"/>
-      <c r="I124" s="55"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="31"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="153">
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="C120:C124"/>
+    <mergeCell ref="D120:D124"/>
+    <mergeCell ref="E120:E124"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="C115:C119"/>
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="E115:E119"/>
+    <mergeCell ref="A106:A114"/>
+    <mergeCell ref="B106:B114"/>
+    <mergeCell ref="C106:C114"/>
+    <mergeCell ref="D106:D114"/>
+    <mergeCell ref="E106:E114"/>
+    <mergeCell ref="A97:A105"/>
+    <mergeCell ref="B97:B105"/>
+    <mergeCell ref="C97:C105"/>
+    <mergeCell ref="D97:D105"/>
+    <mergeCell ref="E97:E105"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="D89:D96"/>
+    <mergeCell ref="E89:E96"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="D71:D78"/>
+    <mergeCell ref="E71:E78"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="D37:D44"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="A51:A63"/>
+    <mergeCell ref="B51:B63"/>
+    <mergeCell ref="C51:C63"/>
+    <mergeCell ref="D51:D63"/>
+    <mergeCell ref="E51:E63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H25"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I106:I114"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H63"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H71:H78"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="H84:H88"/>
+    <mergeCell ref="H89:H96"/>
     <mergeCell ref="I115:I119"/>
     <mergeCell ref="I120:I124"/>
     <mergeCell ref="H97:H105"/>
@@ -4560,135 +4661,6 @@
     <mergeCell ref="I84:I88"/>
     <mergeCell ref="I89:I96"/>
     <mergeCell ref="I97:I105"/>
-    <mergeCell ref="I106:I114"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H63"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="H71:H78"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="H84:H88"/>
-    <mergeCell ref="H89:H96"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H25"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="A51:A63"/>
-    <mergeCell ref="B51:B63"/>
-    <mergeCell ref="C51:C63"/>
-    <mergeCell ref="D51:D63"/>
-    <mergeCell ref="E51:E63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="D37:D44"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="D71:D78"/>
-    <mergeCell ref="E71:E78"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="D89:D96"/>
-    <mergeCell ref="E89:E96"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="A106:A114"/>
-    <mergeCell ref="B106:B114"/>
-    <mergeCell ref="C106:C114"/>
-    <mergeCell ref="D106:D114"/>
-    <mergeCell ref="E106:E114"/>
-    <mergeCell ref="A97:A105"/>
-    <mergeCell ref="B97:B105"/>
-    <mergeCell ref="C97:C105"/>
-    <mergeCell ref="D97:D105"/>
-    <mergeCell ref="E97:E105"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="C120:C124"/>
-    <mergeCell ref="D120:D124"/>
-    <mergeCell ref="E120:E124"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="B115:B119"/>
-    <mergeCell ref="C115:C119"/>
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="E115:E119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
